--- a/NaverShoppingCrawler/SHOP CRAWLER/@@.xlsx
+++ b/NaverShoppingCrawler/SHOP CRAWLER/@@.xlsx
@@ -10,7 +10,6 @@
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="여성의류전체보기" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="니트.스웨터" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="분유케이스" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -366,7 +365,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -392,7 +391,37 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>리뷰</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
           <t>제품 등록일</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>제조사</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>브랜드</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>링크</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>배송비</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>기타</t>
         </is>
       </c>
     </row>
@@ -404,2018 +433,2078 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>최저60,080원</t>
+          <t>60950</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>판매처 817</t>
+          <t>818</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>등록일 2020.04.</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>/--/</t>
+          <t>2020.04.</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>인기 68,270</t>
+          <t>지오다노</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://cr2.shopping.naver.com/adcrNoti.nhn?x=r7F4nK6gIFudrVk5pO324P%2F%2F%2Fw%3D%3DsMlXXb7WoQEMP9yPRA%2Fh72wdVhJpDXTd4yt%2FLInJBL88CMktVelj8fX%2BucsOkqJ8Xd9wKji9l8MDV2KXEbFYQXfGK2DmBjH%2FWEru5DhFlDv%2FDw1VKPJ9ttc6hLLgFd5P%2BL%2FlNDPI%2BT5idmiqrQev0LqBGybW8bHTPyHzN5aJ3mUh6rocRjQ%2F7plss1OA%2BLN6N0z%2BxjPjf5QY4iN9i%2FEZ6474r7OAXBe3n0VfQwbBofl1foJ4AIDcfxxYZelDaB4ijhA1ATI%2FUVNY7%2BP6CnXmVu44B6rzs%2BCgxjaDpRFR4PY21I%2FrIEwhpkrZTdqHL24tLQRFiUsySBoMOpODCebpCgHlA0x5GN01UYHezOUAeGuz4FjQLKtgpdaxOC6%2FeJ5KosPFNkchYwWiua4avTMsWHwiYEwwcvvIEUmaBkeOxPOvEjHcKce9QFO6BHXVbe4RkXDSh2OJkx9EZ7h7rRXZuelPEhLIezYSpa5Vsf87gThaa7FhWzt5Q%2BBaL4P6bqrGmbWT4bAKDUlwS4DN1YlhyHeG5%2B4KyVGaz7e1d1LBkMdB7%2BM421nVl6krxy4dZMkQsaKpxVgXSg33TYbpK01ndsjGUHwtIBw8WJdeTZ3hI1WBrNkTeDHYqeQrif2eaHfcrFZztZorP17KnCF62zfNVNSQAnWobT%2FD8w36yvq1LygJH6K5wLeGtyIt1hDgrdW2kDsJ2rkwb0t6eXGfAxOlFZAZBHHz%2F%2BlS1HHj%2BbYShnlg6xLs%2BP57LCO68MHOhd60jaJse3MGyIxmbOjmvgudfT2KW%2Bp4CO%2FibLWICLtxkHhHVQ1eqhd%2Bq2RMqJnnbWfx5&amp;nv_mid=22533955004&amp;cat_id=50000815</t>
+          <t>지오다노</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>무료배송</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+          <t>https://cr2.shopping.naver.com/adcrNoti.nhn?x=eTOG2YCe1NFZaOe2CRk5cP%2F%2F%2Fw%3D%3DsZAUvHbqfB7dj8xF3AiUanv%2F5m9PDryS0upMqtlgy6SOeSEzMwjTvfHKFSFZ3ZdagD%2BqnWcWkD5DS%2FaTl%2BnzhiceT%2FAL3fwmTk7qmS3S%2FUO0%2F5COxmtK%2BXZXsjbO2H3RKMjFLuJOWN7Ni6OwF1X7b1jW2mYzcAZB2y7UdY21L5%2FPF5Jq%2Bh2bMcmaOfFAw5rjz0PohMpP8YBiSP5hP59WZw5wHCXcqLBHWr76p%2BjDHqNU1zwYS2RRwzpRLAfdbbh7a9mcmAR5sqvy5FVm0Gh8Wz3cccuNa83Vo4SXDXUqvgWKLCovAgpZUeUtvubg8qih46NkuoyIfrAgO28AHWD7ZbWVyf4fEeIwpi1WJR%2F5%2FpRf41b1TvfQyNa7hciW%2Br3JhZZiQcNYjXmUeAMkutJpC7fiA19y4hcvyjUkOAGRueNvSdMB2rxQgsCBwKxJgg%2FVa6GJ8B4I3sqisOYw%2FHI63rBnyNTZgQvL3%2BYR51G%2BxncimV0Y%2Bv%2FH4p3S5%2FGXdlZ0WeYb%2FxGDU1SkcAVQFLFfqkJxA0CG9aK3r9xhRz3aodBgwn3936NmYAmAOAwx6R0ndDisd0CSS0Onmn4JvR4rStvjxzPxpASQ0rcABrb0NgNdIbKmNBVzbUM4mIQgBAXpzFN3grRWzAkgRH6BksR6W6%2BXRf2drpg90wRf2cImX17eSIdNHAx%2BPTGC62sGnFdWY5M99xnoSaTGeo0d8KANvtac0DB0jwxTJtH7MycQyWHlxV0r%2BHu5NsjZ4WxEDx0inhrM0I9A5jCap0U9M3q2bsGlCCoBIa6XHMKjiKgCQpV91%2BtO0pZieKvnZi8%2B9zt5x&amp;nv_mid=22498385724&amp;cat_id=50000815</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>무료배송</t>
+        </is>
+      </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>/--/</t>
+          <t>카드할인</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>칼라거펠드 미리주문10 도빌 썸머린넨 자켓</t>
+          <t>지오다노 여 크루넥 반팔 티셔츠 솔리드 320522</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>최저82,710원</t>
+          <t>5970</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>판매처 9</t>
+          <t>1072</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>등록일 2020.04.</t>
+          <t>447</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>/--/</t>
+          <t>2020.03.</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>인기 84,550</t>
+          <t>지오다노</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://cr2.shopping.naver.com/adcrNoti.nhn?x=XTTUNomnRwJ4Qqanln27uP%2F%2F%2Fw%3D%3DsRUnIDLA1qTRcgetUNYWY67nprnz0pCxZ6gd9bvZ7%2BA4pC01%2F42Yi6%2Fmk25zm%2FpL6fxqmzM80LpwkXaq0jrLuH1Nip5xJ25MS%2FDo9fsXzIZ0%2FQwyhXr8j002DGtuI8BOgtAEiom5UW7q%2BL3xMJxoYfubxwbBoRHZ%2FD3zrG5YlQSGhGDdQWVnIqUMpAax8Nh20aEjbewnHPkj5feNjD1FsukpWnIrSR%2F1TV3%2FWOWSZwqljOcsEzW75A1KuNN29x65jr9UKO3zNyf3v1YZ4%2BSY0Hj70eUtzBzAvuV%2FSEH06pBqxF25%2F0r3BbYGMeYVaneLo0nTAdq8UILAgcCsSYIP1WlE2ulXgXSq%2B7gGraD7%2BLrvqGC4LyVEj31YEh%2FGw1WIoD%2BqbTII6jOI2kn2fTWg1YXo%2FWFsoamzRjHQyA9pNgs3RAQS0HXAZtbFoI%2FN%2FqlxUqKY7PD1zjo%2BDU8csZb47lO%2BGJ9skJYztiIg8eTX%2Fw%2BHJrahe0waOAN4E09zrS7KeTMtJ%2BkW2lhNVxSLdorCTMdpbq9wz7JXjfd6am%2Fn1WBchhz99msVEE%2FTjuG%2BpAQZ2RVEcDFAg2pZCYqICWopEv2JVH1k4aWiy8eXGgl%2FwCqpww%2FnPGFp9nLnIjd9pEVnuHIvJz9YnVqmc4nqxbFkP6g%3D%3D&amp;nv_mid=22616193567&amp;cat_id=50000815</t>
+          <t>지오다노</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>무료배송</t>
+          <t>https://cr2.shopping.naver.com/adcrNoti.nhn?x=5XtNi2BmdwjovLMIA2Bpiv%2F%2F%2Fw%3D%3DsQ7rH9glek6z%2FpOmyWb0RV8PgyN4seIpHf73HnNvIq0qkgn0woEPz%2BuD%2B%2BSB%2FLdS5sdG1Elty6WB2YB%2BFSpD5RMHeNj%2FaAaykOO59GT05NK9ALzka7aLvvmjL5GCdo6CIHOASqjduVcFDWkaeDXUScyzWCOIjVz3V6cyYd6GJCKDcnpDnuXQlKh%2Bd9F09msUrL3mYiZdgjDuOwNbPndIfB5Pf%2BQvoZ0wYrJWZ56EIfLdXvYIPKjmcgggn8MnekW6sN%2FffpM2pgF%2FHHhDu3s9WNuGYbMtgp5O7JT3lCLVs33h1iy0%2Bnhl%2FSJZ%2B%2FWUf7OGw2pQeyAcpGrN3qdfeNy9TA0DInQTllngnA1yNWKSkSS%2BYcYJGcMIP%2Bz2Gi9L63WAm0iwVZzBVI4hG7YrUy29rKdJ0wHavFCCwIHArEmCD9VrUNkffvyvE6W2AjZJCSpn9fYEFy3oCTbQ%2BUJYuVcX7eZsylrpxMnFS00wCpiB11nGxpU8kIuDydIwRwxBa%2BdvIYQ%2BHqgXN9eEOydNzqpDPajAPDoaukIS0j%2BsgqxhQ%2F8Ay5bn2Fz1OqdlLBo4Tmy3WOsEbWlpAjVUKBqhbQ2JY8KVfRuKC%2F7aEaNAfFvzhRb2arGrvRc8aMjEn3z6TYuR%2Bh%2FJd1JRR6sEPD%2F8V1HmXDB4OtzcHDwRyBwWj92toTEjWLoViWsRYqxUvmtTed3zkRuvmLfBA6cMgLf%2BdjmqupOK4KOCMWPvjq8ZafjmjSOvkaw7v6jBe10DKr%2BvVuvhW&amp;nv_mid=22245841217&amp;cat_id=50000803</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>카드할인</t>
+          <t>2,000원</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>/--/</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>오조이 1 1 플리츠 찰랑찰랑 세상편한 조거 밴딩 팬츠 5컬러</t>
+          <t>마누쉬 썸머 스파클 퍼프 니트 4종</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>최저13,900원</t>
+          <t>73260</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>판매처 2</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>등록일 2020.04.</t>
+          <t>729</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>/--/</t>
+          <t>2020.04.</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>인기 13,900</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://cr2.shopping.naver.com/adcr.nhn?x=NEXEWMjzaRelIynB%2FTPfbv%2F%2F%2Fw%3D%3DsLBlahWSZajfDWKvgJ1lzhrXkAdzrcWWemaa%2BxsU8jDCGSJdhCjFgNrAQuSje4DQbJuMXoaBOhmE%2Fo4NGOE2eoijInocc1jumWGWaLsm6MQTLIPqi0vdOoY%2BvKquECIub9DkSdMMHZTed4yrJke9hsF5BWcvuZaOzglhOCDGahMvLk2PhCFSRyJew88HkcVcRd3OfbmquyHBKWMVH6XbSk%2BjZLqMiH6wIDtvAB1g%2B2W1lcn%2BHxHiMKYtViUf%2Bf6UX%2BNW9U730MjWu4XIlvq9yYWWYkHDWI15lHgDJLrSaQu1ENthDQXDo4FtBkIfSIUM4EiAKcYU6%2FbGG6XjcFuKPKVfxN%2F2BrCF1%2FAeuRd8saoPgsjqcfEyQuQ40nTCWWUjE2eMBC3N4jVs%2FOABGE6BtJlPfGSR5dt%2BqzLiZGLaVgBn1knemvTZ2W1aD8CKNOS7%2FxZEaqrp7t9TQGcbGjMeMMzH22J9rG21uWPEyjleREB0%2Fr3U%2F6QNOu75cHwxj0SqhLaxEimOQZznSUQmM2tmRype1ubAUOvyLJ28YwDNUCzFkCU4JeGkU8BJm4irOI8DaP40Jt6Dblijj%2FaaTp%2BsYCPh4YNkppC3ZLLJFqq30SQi33iMUhflErjaUmhyTxMIg4ifDTjeX0moHbJB%2BMihIAt5%2F%2FdmiG3qxR0waXl8K6DePmUqwAC09bOKTFitXTUyrJvtWcxyvftYyfX8gkQJ0W8CorTg0XCIFUHbBMJ9aEis%3D&amp;nv_mid=82430162496&amp;cat_id=50000810</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>무료배송</t>
+          <t>https://cr2.shopping.naver.com/adcrNoti.nhn?x=f4LHtq7UVuU6QvrVxogAgv%2F%2F%2Fw%3D%3DscoHpBeTb6252V%2FJcYR13yzwv%2Ba2dfvcLFRyxULS6BwX3EqPsLNbZQ2gzq%2FKKWhkpwj%2BXYiNwqWXBvPVJSb4zCJ%2FSiugjR60qWd57t5RtNtMxqUo7nEB5UXy1Rgg14oVKxkbVxNTT%2Ff1MNSiXrBcjKy8U5HrmVtdmYiBBYX0cS72fvc8Q%2FOcGK88dZ2yUz2K2ZlrBwJcYrABr%2FJ9X2bGWXtgJcB3QQP7NUlPIT7lnJ6Q0hRjoBj9ERYP5ug%2BlQNbDa1N%2Bxee7tP6RFUnArfBOaNrfkeG756Le9wYOwEChkyKNyQ29mAZUk8gqPsND4WCqHd8gEw9lzl%2BRKFP4AUtntEbpbGYvomUslDXkgI4AksGlGDIh7UEyBe6GNCJLcIVTiYTLmcombCBrcFeVnh1LP9hucTuK9WaSEWZhelmXtBehVnVj3%2BQQuiVJ5BggiyZpKVJgNVH3BqlRhedsZlm9cFmWaWxy1%2BAYEWfowAiIjenVLc8q1Vl2D6aXxRrgtWmjDVTGRsoWWRCwZiJmjVwt3juPKUgw%2B0YLC4NWX27g5b9OcfMLDtKnZPK7FAiU4aMBr1AmqHczSzfMjkYLYQVrRfWPljcSr9VKXqZ%2Bt8z%2B5qoy30CKWc4f8ctZVBs7dBNDkrJqXUiLAZF%2F8NbuxZelgjvDDIeWvYYz7g6hKXnYQXO7fOzNlloEwnmxbSM%2F%2BqW%2BsP%2BjHqRsL3SfvmnB02Lvdj6Lx%2FtYP3soWoioVyibEGI%3D&amp;nv_mid=22522282169&amp;cat_id=50000805</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>카드할인</t>
+          <t>무료배송</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>/--/</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>지오다노 여 크루넥 반팔 티셔츠 솔리드 320522</t>
+          <t>타미힐피거 여성 로고 반소매 티셔츠 YA2 T32A1TTO026WT2</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>모바일가격최저5,950원</t>
+          <t>22170</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>QR코드
-판매처 1,082</t>
+          <t>131</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>등록일 2020.03.</t>
+          <t>178</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>/--/</t>
+          <t>2020.02.</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>인기 6,710</t>
+          <t>한섬</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://cr2.shopping.naver.com/adcrNoti.nhn?x=MHNMIvUnSybxxW%2F7%2BsIOtf%2F%2F%2Fw%3D%3DsonBeuU84TCyNbBAheqKAAGGTv91mCC5BUeXjBm%2FEjEEcvaFCsybKsi8pwWOqt%2BzY32ZTijEbMZRcm8rJVHp4kNP2DWeq1F9MfpsZuVVqpp8nRx6CmlEOdniytO%2FUM17vOyGJdxwfziw6dToaMTkMQw84tw5BlX7%2FZ4ikv1ZtZ1Q6OqKy20e0jK5yhfbK4%2BnS4oPmlclzOYgBVBAg7qMjX%2BXDtOO464Bl50CGRCdwsC06fEUX7WWG%2FtEQMwAmldluJouuNcwYDa9NKDcMu1qqEaZYwVCAg8GZDYBeVxvcdUCkVPSoAjTXYwapAJvXHMcW%2F0lzHppVezxkUS%2BcKi%2BZssVSjeiL%2FqRGyALAHVmWfx0NtvmkR9AXSVzSVIC3GMCvUtDJRPWYadGXXsZSxq0ev0vzvg%2B7Sk2187HPMvJEPpVgUd4F%2FfCyytaTHos9s5LdOCRRqkE1J8awlFdtfcH0pPwtUSgiHvm3BH%2B6yMIyXq9pzlHH5t9VD4t1WVcP7dsMVDxKJqbLrhJpl5quj%2FZEkYW%2BEi2Dilmu6010fKBkJIaPfvG%2BeSBTs2ptUlRnnibN1xZLxwE6oeLwYPx6vN7D3U0QydVL7Cebv7WzRbHq6My0prEthjceInjp9sVNO%2Fy4E2LmRd1THoLDLIKJCJYy3T%2FcpOSFag2sGNBaxCTIWPWSskmN06yi9ZrF%2FAmgy4R5DsJ2rkwb0t6eXGfAxOlFZAZBHHz%2F%2BlS1HHj%2BbYShnlg6xLs%2BP57LCO68MHOhd60jaJse3MGyIxmbOjmvgudfT2KW%2Bp4CO%2FibLWICLtxkHhHVQ1eqhd%2Bq2RMqJnnbWfx5&amp;nv_mid=22263175636&amp;cat_id=50000803</t>
+          <t>타미힐피거</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>3,000원</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t>https://cr2.shopping.naver.com/adcrNoti.nhn?x=4ZyptXb%2BoSjDtHOFo9lJk%2F%2F%2F%2Fw%3D%3DsgsWlXjai%2FGcrKzBTueE%2Fizjvzn%2BdEd5CmDjgdTQ6xE9JsOBoGLlChdJ6GXMOMNFY6LGgLDIQBh6YPhM0ZpA7hDLX2zTn2Epy83sGZgLvn0YF93VmYlzLK4yzybxmd0S6A9dqqeTmjsMksRWdD%2FI%2Bd0Z9EVHwEJkQAFqGEOiBJ%2Bus0he4ix5Tbkw6%2BC%2FCvGSZBi1%2BP1GjNc%2BBvhojqEWivf%2BupLgX15VIfUwolgW31eLj87tDb56TM3y8jFnmHpwEqUTIdUPGT%2Fr7nsXMENSj01QV8ZKjfGeDnfZLApyCaUzCQwanLe7vJRYUxUBBt85ZR242gPkjxZYH4VQwkXqzlTjbueC70q7lOLl%2BbIgptw1%2BbkgDyaRoIa6WGpHha1EeCquII3QhIWm1aXa3atmHsHCTdQT7u14kgU3WOSMwtTk4jPE4NUZhk9LFCRDQtoC4LGzLqCet9FdUG5SX91g1IIA2%2BCeaYcvSN2CAyrv8bf5evpUVNHCz7vOhrJIekDptY%2BK3IbUX0O722j5y7WyMR987IWDpVI3m%2BlpOAOl2BAw3AY2s352j38%2B01t5MvovycEhwvaCq0CyhYGu3HMrgQrqI0MOdmrJ9qXkzOQQPWMZoxJZ%2B%2B%2BzUbiA4Tapf27EDHkX22EO1cwPhMfgP3jiSHbcN1%2FHlGdatmtuP18e92z9x1e9rpNob5sddpA%2F4Ez1TtBluLHhlf5mQHoXPvJODfbypT4jqlV4M3tYmFacIC9J%2FQ6G%2FtJholsDnaGLoczw0tSjXwtqEP2gFIkpcipkKvkVIC5XJVRtXWhQpfURUAB2SArrdemSULQvgv6G5s71H&amp;nv_mid=22370051985&amp;cat_id=50000803</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>2,500원</t>
+        </is>
+      </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>/--/</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>타미힐피거 여성 로고 반소매 티셔츠 YA2 T32A1TTO026WT2</t>
+          <t>스튜디오톰보이 테일러드 린넨자켓 9100212999</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>최저22,180원</t>
+          <t>93020</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>판매처 150</t>
+          <t>112</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>등록일 2020.02.</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>/--/</t>
+          <t>2020.05.</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>인기 21,098</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://cr2.shopping.naver.com/adcrNoti.nhn?x=b6AmcX7l0mVE43JYgjXjI%2F%2F%2F%2Fw%3D%3DssXPzHRf1TLq4gIeMLq0LWvjSfuFYQVjQZUBhxRLFPqi5HLeZ4sVQ%2ByEv%2BfaCYm4p9paLQ7chvsw2IipOwItMgLRJS%2B2NqAHsaDogvy29%2B28zCrK8yszaGKjs6XK7%2Fk7LSCgNWUw81DRuS2C8dAYNpVnDCBC%2F%2FDksTJItRMGoPbicrfO6PcI06tEwGZ4j8JIry1COt1Xf%2BNYbZi41abP%2FcH8HJla%2FgjF1zQfNY0gb1HRQaRuKicYqfk9Ejk9eBNkn94o4QXlUxboG6scWGtJVFUFac15CqFghvAaJAKxxm698QMMrcWQrQW32KivpZ7yNdVW9V8ypow%2BiHWq7GqHLdKxGlHF9I4E3irLR6KPInsA15C5cBxII1AJ7ML9iiPdz6ksdSpxYEVxWgnorpfHwHLikQpo09Lhzx13vFW6NnpSRr14VciRcW8YRyFPCHMFotXvEXgdU2SnM4np%2FKk8gtkkQmpXZB3CW8uNN8av8opXM496NtfFTXlcZNRUv8QqUOEADYs9xswHFz6n%2Bi%2FetjRw57vaNI7FEFnN9UysuK%2FY5bzcI7jRRwxLLbhzBEFu2rG6xiPWytFSnY%2FpZUoS9kLsnYKh7%2FE3%2BuJP7qZdjQJ%2Bo7BssDmnB79yqvRUy7iJn6kFEgehhvaCZcPVeVjDn%2B2KhVya9Y%2B5hPkWMuV%2FHPfv%2BcMggDEgLS9%2BFfbiP5rD1cQ%2Bi530vTDzqkVg%2FGVlNjj1Ikb75A9ayAPYmBucvOy911UXdEAePM8kdqkYKMrfMXhLOPNa8t1t7s5EaGN9M6A%3D%3D&amp;nv_mid=22282836656&amp;cat_id=50000803</t>
+          <t>스튜디오톰보이</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2,500원</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
+          <t>https://cr2.shopping.naver.com/adcrNoti.nhn?x=2DhYf0R05ttgVZrnnp9EMP%2F%2F%2Fw%3D%3DsWSJFfkhAfzoIWlo7D%2BLnO0xqK3nLV0q5T7KFaQhAVKLxJS1didS%2FLdZVOHaadHGOmMi2tqiGlXiYlSvOQSoGn6FzWnxnyudIvzTSe6k25PMxoVNIvpcAFXMmFzA0qnPted1u%2BGZzvQTE9AISghTKhBifUg01cTI4tD9ClvlPO%2BdHpt2RT%2B7NmsqnhBJk1KSZgEGFQPJkjiU6etHZ1vuwm15C5JYwYxpH7HL0%2FHfppWbA%2Bj1eHKfBYFKvyjxwJlkBWH3i1ijLkGF51f9iwh30rqPJowvBrVy09B4f%2Bi2B2RTdODZHLS8csmEgCKH0QHz6gshoeuXggTVhd9iyPBesjsNjbvXN3Wxiau0h6XZ2dyyfc3sARuwnyJmefqehFstw8hG06Sf%2F1igFc%2BSQoJ7Q6rikQpo09Lhzx13vFW6NnpRoeTlDghZwXU2dceZqAp%2F5e5vKm7YAL5Vt4KUsr2Nbdh4ayRyMYGBJumUZkOcuZPaUTgZ7hr9mfKf9bwu55SxyKKL%2FDfWbaaB71IRa38Kevs51XsJ1HnTzSAAkvgHHmru3G4O%2BVQaODj2t9TnjHSh4UuhskoeF55UlOb6MmZDqtP8j1FjB8ClEDzeIc2blq9OtNtilHRVKYGw25c02G37Gfgqhep%2BVqSahYhFpV%2FBaPaBoG3H70Qy2HVZOA36obxoOwnauTBvS3p5cZ8DE6UVku6O1DnuZvmUgWwZjzNkOhB1O1tAvWctcYR29GHlxyOc4cufxiuKgDg79mUvGBVLC%2FECyCL%2FtGIECyMhgE4gw0FTdDSBuC%2BAx8dS3KS3Qas4%3D&amp;nv_mid=22319276006&amp;cat_id=50000815</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>무료배송</t>
+        </is>
+      </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>/--/</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>미리주문10 밀라 코튼모달 레터링 티셔츠 5종</t>
+          <t>칼라거펠드 미리주문10 도빌 썸머린넨 자켓</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>최저55,710원</t>
+          <t>84420</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>판매처 8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>등록일 2020.03.</t>
+          <t>203</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>/--/</t>
+          <t>2020.04.</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>인기 56,910</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://cr2.shopping.naver.com/adcrNoti.nhn?x=ae5ro%2FyR6%2FERhzRbbcD%2FYP%2F%2F%2Fw%3D%3DseQaLqHq%2BJ4zvy%2FX7AMGOo3z7Ea5mhHAK4NyabGcsxCvddSTqzFutXEH%2BJHN25Pi9jqyFNoOtxowMpWH9q50IwliM5IAKKiXS8HnAWrnikIxISQglJs17JodeUFeE2H2MtAEiom5UW7q%2BL3xMJxoYfhqsesffuUyqq0WCX%2Bdimru6vyDBnPPzIbh%2BhjVuu0osaEjbewnHPkj5feNjD1FsukpWnIrSR%2F1TV3%2FWOWSZwqljOcsEzW75A1KuNN29x65jr9UKO3zNyf3v1YZ4%2BSY0Hj70eUtzBzAvuV%2FSEH06pBqXDn46ZugiizSv8CHAbfkZ0nTAdq8UILAgcCsSYIP1Wjnco68EzAOWVu4GTtz1T1G27pZ87P9lJX56ngmeiDRFTqNOI9zRBfYMee4JzqL%2B4%2BjnK3e%2BrVSjEDYQ7xV0HulzgoAlnMtU4bFKoVh0PdsWxuoRlaUHpm%2FG7sIPdXmQFXc8iy%2FzCeg4b19YISuuaU9ojruMn8W%2BiuHswfBRUr7YaYhMOjf0%2FfeXqpUFI6iK4ws7ntjNmFW6DCwKw8vrzP%2FaW6vcM%2ByV433empv59VgXIYc%2FfZrFRBP047hvqQEGdkVRHAxQINqWQmKiAlqKRL9iVR9ZOGlosvHlxoJf8AqqcMP5zxhafZy5yI3faRFZ7hyLyc%2FWJ1apnOJ6sWxZD%2Bo%3D&amp;nv_mid=22154393848&amp;cat_id=50000803</t>
+          <t>칼라거펠드</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>무료배송</t>
+          <t>https://cr2.shopping.naver.com/adcrNoti.nhn?x=kAGbAlvuekzKHQldnO12S%2F%2F%2F%2Fw%3D%3DsuX2RQjSu0d%2Bjl3Dafwdpx2yEXk9z1QF2HGe4sAFbrd%2BeILQCKFwVi2JN1R8kmDlybmvy9glWYQTNPamzYqECEf8dWbCHdm8er7H81Oer6y7DUJb5s2kpg0If8iyxgTX5Khcf0DASgQjPyA0grxEsB9A6P6HKgNX7Lx20Azu1E3d8kGrAjm3xoO1BrHld9B5JyVyYIsyz86d%2FqU2qDt04ZPu6sJmYo%2BDADFE59vcpqwfWQhozw%2Bgo6qG%2BRbZKe4yZIQI2k%2B%2Fj64pxCnLSfnmSVql6LyjznO%2FsH0Pfuqo3X7584kv3d5pevne5%2Bv%2BdEntzBfhjbX32BwO1s7tV92hPpdWKYI7JIvC3Ad6xO1i5bHTHuIsMtVFZWPPClrNNmxfxU8SEsh7NhKlrlWx%2FzuBOFpnKDOZtHOU70BhUlc1Alz0AV8AVcT3uNup99cbWQr151%2FiJpr1QaMVKxBg85WbVk6x8Mb2bk86TqbQw%2BcdZrjW%2BLe6iAMCRjlVbnQ5YnW4F6pYT4V6TQhcLhHWDviMp%2Bu1HMgakEpeKIGkrfcp48%2BMbNsSAQIij1WQAeyZzWPXuoMW7%2B5eUvC48Jiynor7Vh423Pgm2yDU5htLwEhS%2BsCbiQxzc5HXn5uOl%2FpmVIhROZVfxtkhui0xU81k1O1TZYm9Y%2FkUiBDR9Im012s0iahz%2F14NaiWPKVBIcnNgRSMIn&amp;nv_mid=22646252086&amp;cat_id=50000815</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
+          <t>무료배송</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>카드할인</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>/--/</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>베스트셀러 레터링 반팔 티셔츠</t>
+          <t>타하리 썸머 린넨자켓 1종</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>최저14,500원</t>
+          <t>64450</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>판매처 2</t>
+          <t>QR코드
+ 16</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>등록일 2020.03.</t>
+          <t>1165</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>/--/</t>
+          <t>2020.04.</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>인기 14,500</t>
+          <t>티비에이치글로벌</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://cr2.shopping.naver.com/adcr.nhn?x=coBB1chfgWF33nZc4Us4MP%2F%2F%2Fw%3D%3DsybX0vQKn4fcgfD9owPsq7SPpaT%2BEpsZ7WinjtPfaUCKe05M6VR%2F4wcgE8JJQfLIYxD%2FvtNoBYSRAF4Mz3M0RluB61fX%2BmAPYT9ECBQqZip22MFuJLz74PmdIvf9C0WkaP14fN9k0fh%2BDC9UTx4i7qiQ6yRPz0Bok6MuLLO%2Fx%2FZCS3Oes4rKR0k3eyKcb%2BXBmP6YI550UUvdhAKdsLclk7iECNpPv4%2BuKcQpy0n55klapei8o85zv7B9D37qqN1%2B%2BfOJL93eaXr53ufr%2FnRJ7cwX4Y2199gcDtbO7VfdoT6XjvyZ43ojaxUrDwSbzBPbdmjpSmwKs1rPkqe0sCjKl6IhRNUgaXArVAqsWyQRmqT9lEg0yeFB0fQ%2Bl%2FNB9sKRT87jaMVgx6Cssm%2FJLtsbGaJAqcHy0anJ4igOxBA2iAsEP02GsEMrmWcOsb2CVdJ9CP7pz4BtyEODka17GhNDO6SRiRtTh4ckRliie3eJpKhpLvrrSuyNbaHoOanFJFUsp4xpZcXz%2BIEtrerM2IaYaWLVyYUBo%2BEeCwRK6m9Mf%2FOAW1ePtZG16NxBmN8ts2ArPKOKpvmI6ltkIZnEu9yeQUM8isaPAey%2BB8YMk%2FCuMTR37XaJ9%2FLifRw6N3ehLGErROYiA63qexJlg6fJa3Gso1JltS01ZOqiSpljm8P2bpBPDKhTSIw9LhLjuyRGdw%2FtsN1%2BSR0cQde5HUknktbgjpw%3D%3D&amp;nv_mid=82413214073&amp;cat_id=50000803</t>
+          <t>타하리</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>무료배송</t>
+          <t>https://cr2.shopping.naver.com/adcrNoti.nhn?x=52cJ89mZj71KpAEKGsLscf%2F%2F%2Fw%3D%3Dsu1DsHyC2R5VvzooIQi3FJLig9%2FJSvYCyJI8zox7IX0VJwtDpjbJSmYYUtpNW2ZY2hU8CcykSuw%2B2WoUlwJyZxobqj0JnC%2Bp1mKRSn9FLD5Sh%2BIveRk2D4s3DLdmDjbyWxkbVxNTT%2Ff1MNSiXrBcjKy8U5HrmVtdmYiBBYX0cS72fvc8Q%2FOcGK88dZ2yUz2K2ZlrBwJcYrABr%2FJ9X2bGWXpcoYGMoMjj3wUc%2FKv3JkjPxBeqV5Q35sJ5j%2BmtKfpf8a1N%2Bxee7tP6RFUnArfBOaNrfkeG756Le9wYOwEChkyKNyQ29mAZUk8gqPsND4WCqHd8gEw9lzl%2BRKFP4AUtntEbpbGYvomUslDXkgI4AksEbK6qr4nwVBGvlbmZDStrRYUGR0jXDd6btfFD6%2FfNtVJM6dCBW0FmegpxFHerVpU8NHeneVY%2Fd%2Fyixw1hsdfYdKNAv88GukZNW32CwTVa8PGfJFxCIhMt1CMmYacOi%2BJCLkboLN3j9AXoXjCVj4Va%2FMyCzeSs1mYB68Og5NCp%2BK6lDC3sn5Wh2%2Fyz6nfjv8zwEzGL2t4m6KTcMrknd7k%2B60EnTKJdaEaiQ4RIAvML5RCfjf8bj495EUF%2Bl6BxcpzMz0Yxp2MO4r67tozDn59ok3BFP9XuhwP4hBxwy%2FD6pigOwlG96fyBWh%2FT%2BgjjI7W6ozGmi5bkJXIcLGXXOpV%2BJZVfxtkhui0xU81k1O1TZYkO7ujl7RzWnSDtxknLk6wNTx9y9XvBAfZf7DN9FO7A9&amp;nv_mid=22435428270&amp;cat_id=50000815</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>카드할인</t>
+          <t>무료배송</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>/--/</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>오조이 자체제작 감각적 데님 팬츠 일자 부츠컷진 연청진</t>
+          <t>지오다노 지오다노 여 코튼 트윌 플리츠 팬츠 410509</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>최저14,900원</t>
+          <t>34060</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>판매처 2</t>
+          <t>169</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>등록일 2020.03.</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>/--/</t>
+          <t>2020.04.</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>인기 14,900</t>
+          <t>지오다노</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://cr2.shopping.naver.com/adcr.nhn?x=Ky3DHnKMGeTqFCRQ4ooX8v%2F%2F%2Fw%3D%3Ds5I0enK5T24fUl35yBByxksxUfJxxS0dYeI5Fpu8yfesQbEdWtmZGQsf13sT0DtoU2Muo5CoNr4p2Z7D1ED46WWlN9oW04Wk4QavrxRp1ILX3AZFEaUGIP%2FvTSZxuml2xt8GwiNr2u50NfBoE4uPPBmjqzAI07v9t28ej8vJLVXm7b%2FVwgE9yMZMG7TlzJDgHudmqkSUlRSjgyRKredwWJIF3H39SfgKJzwHzUoTkqsGGJRQHX9ThbHrbD0wiAZwLlr2MJibGuG71Ivr98%2FRFYS3cDQosRlq2vuVtmOyZFRGOUh5FhOS9cyrs42Rbl5KyMVq%2Fc7qVVsQzIv23MdA6Wn59TSmgw%2FWO6nItwsi00SUY%2BdvBBoJ2avsGiCoPt15UUip3c9QUS0W%2BA5yw1BBjAwm0NTyY55eGIh4sIcQfbYUdsqRdmFj5YTsVpoamq6LbvjSzUIIG64w7btetNpgeLl0Xs8LFz2Krr%2BWMzLxU%2B8RpGxZkQlv6G57%2ByZKH9112zL8eNmDoC6sEaABDRG2l9veJepdlRb%2BeRDt%2BdNnA%2Bl304McBmVpHVrgO6jF6xKWrzfbIxPXWuT1u4cK6Xwru1HHjczJJ5a3bu4HPcpn4F6QIBfofbrSBjOYUvduGkXZUn%2Bl0Zn%2B11rjqwZCV2brbTqNN55tvbY7Nze5IeXr0wVLxREvj6PIWzsnKMUnj8oo5iJfqtaoVzlgRmOr5L6l1HdMvL7dYn1BsbWmtF9ne%2F8b9IlGYJEa6zqy5Gr7HV0Hu&amp;nv_mid=82411849049&amp;cat_id=50000809</t>
+          <t>지오다노</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>무료배송</t>
+          <t>https://cr2.shopping.naver.com/adcr.nhn?x=1tEe0bzJuCIDaFvvsh93%2Ff%2F%2F%2Fw%3D%3DsjyfzEoQ53iFoBDinBP95DYzU3CZFxKNomcXqyq%2B%2FMFp4mD5uAuGs%2FCcRkH%2BMk9Y9wJb1j%2BlRdrKcOQRS5toLaLJXnV%2Fz6rvzVIj5dMjtr407hrDTFkZtV0CqrRS8f6pPP14fN9k0fh%2BDC9UTx4i7qiQ6yRPz0Bok6MuLLO%2Fx%2FZAe8xZ8e2OBTBfpE4IoRuA7Rz167yCKOUVSTUbkA9HkoyECNpPv4%2BuKcQpy0n55klapei8o85zv7B9D37qqN1%2B%2BfOJL93eaXr53ufr%2FnRJ7cwX4Y2199gcDtbO7VfdoT6Wfxnkl9JNUTHuKbCgMR%2BlJUHfW8rm5z9YtRczfDVhqcgeuLwBl72E5Tan5TsVG1RjTR%2B16kKOmjWjvNdOlaFmg87jaMVgx6Cssm%2FJLtsbGaCLJqaRf%2BUfJEO4tSRlZMIMOx%2BaGCsaXP3Dmthhk3drYqfrSTDoTioZX7WcAebE0X9%2BkYPn4%2FToOuWTnoZX9cUSp%2FgWVo%2Bu9YfoGYqlP04CXOwfbaknb48RayHn4L%2F50Eo%2FRFl6wgfcEHK3ZjWtp7S0IBfofbrSBjOYUvduGkXZUTSBJMOJjZFAhbEhzR5N8WywJffyLgioC6Bb95fpN3lafjn3ZyX249a7OPE6GMxB85lTDcwCt8PWyaACUtZ%2BHTMXz5yARwnOZWbtpvp1hP7gGmwbZjPsP%2FVFw7xJX4zkH&amp;nv_mid=82436789725&amp;cat_id=50000810</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>카드할인</t>
+          <t>무료배송</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>/--/</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>마리끌레르 레이스 체크 스커트 MAABSK01M4</t>
+          <t>지오다노 여 코튼 린넨 셔츠 05 05340510</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>최저83,028원</t>
+          <t>26590</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>판매처 11</t>
+          <t>571</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>등록일 2020.04.</t>
+          <t>55</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>/--/</t>
+          <t>2020.03.</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>인기 83,930</t>
+          <t>지오다노</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://cr2.shopping.naver.com/adcrNoti.nhn?x=kQ6w6DpljPTWpAjjAGbnd%2F%2F%2F%2Fw%3D%3Dsov91Onb5a7wm2khtU4n7WKmsECE6lxyZ8rBvhnxzkEmXg%2Fb2puEfEFj7vM%2Fj2yI%2FKRfA%2BPozxZV7%2BnKBn54qx751SnxeouZLJU1FX4D0F3i0%2BGfaOmgfROpXw6M1V8doKhcf0DASgQjPyA0grxEsB9A6P6HKgNX7Lx20Azu1E3d8kGrAjm3xoO1BrHld9B5JC7bk2usm1lmNsLMeRMcu9IjJyjMqp446kuqkm7hgdZfWQhozw%2Bgo6qG%2BRbZKe4yZIQI2k%2B%2Fj64pxCnLSfnmSVql6LyjznO%2FsH0Pfuqo3X7584kv3d5pevne5%2Bv%2BdEntzBfhjbX32BwO1s7tV92hPpb1FmwK2%2Fy7u5tgxBhRE%2BVxcT5FFj%2FTiEHKbZ6scMxutqEEPUJDVboXpAXpNRJJCqBmPni%2FEuf3IPT2%2F4crke6B9CH22V1RpvYVCMLQqrAnfUmZIQiMpr1U1Doohk4pXMns5lds%2BfTKNFtrU38mNx8tzlj1%2BP9gCy3TAWFN0%2Bw%2F55us53zr1%2BxJk6EUBDBhjMqpdPhV7y%2BZhW13sAc9MRstiQjpFd5OFktd4AniC6nfzApkQ7r8FoSWK4cpF4dqPVRbv%2BU743%2FrCgUNE0hMxgMf71VqoQ0zTp6G6FBEh47USTOgsA4GV2akZwY%2Bjtl7j4Y23Pgm2yDU5htLwEhS%2BsCbiQxzc5HXn5uOl%2FpmVIhROZVfxtkhui0xU81k1O1TZYoc9RQGAa3RgJDDVimlrlND%2F14NaiWPKVBIcnNgRSMIn&amp;nv_mid=22579593335&amp;cat_id=50000808</t>
+          <t>지오다노</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>무료배송</t>
+          <t>https://cr2.shopping.naver.com/adcrNoti.nhn?x=g1S0j9x5q3oVBz6VFpdmkP%2F%2F%2Fw%3D%3DsBt0pcH4YloKJILKNKcWHlt5O0T8z1bzT%2FS456Ss9CteOjvsB8JnRpIt6NYvJb265mV8%2BjAFNzI%2FvtisP%2FfpI53E1NBxoHIYybi9DVW2nmKNJ5AxFlxknLPUF%2B%2F2D%2B%2B45CysHbyYGfotTd%2FrFGyq7PGoSsbGUrLgN7W2FCqWqjj2bs36BlFpsc9O0LeIIDEQKG%2FCZcTOBn7YaoIjKcDgr6hayKOAUD8kn85ASoGCXzDonfTtep6lh3ajOm%2Bf%2FGW0HgXcff1J%2BAonPAfNShOSqwYYlFAdf1OFsetsPTCIBnAuWvYwmJsa4bvUi%2Bv3z9EVhLdwNCixGWra%2B5W2Y7JkVEVWNVkqMl8KPW0ppwngfStNcT5FFj%2FTiEHKbZ6scMxutrPE9ToYoTAy60B06DhHi1DDWeFn6jjHO2dq8AiSuLe19CH22V1RpvYVCMLQqrAnfJiC2SNOs8DKNFuikcwKbANAZzVl%2BdNtWrtb8VhK7LBFMbxTPOlKLrzmfwHNPJ6eOX8QpVFGJDN%2F%2BztEqv5VyKTH2%2FeYK%2BuE9YA7OSgF%2Fwe72nafEYJucn9pneJJDMIiWvmsURJD%2FdVVzBU1qG8qlNxVCbxFO6HvWpKQisPuGPR1ku%2B3oRye3ZHrsz3ybfF%2FatSjXwtqEP2gFIkpcipkKvv3IaDmXHVsPVPINk7bZ9UiSArrdemSULQvgv6G5s71H&amp;nv_mid=22712842534&amp;cat_id=50000804</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
+          <t>무료배송</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>카드할인</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>/--/</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>지오다노 여 반팔 크루넥 스웨터 350507</t>
+          <t>머스트비 쿨 린넨라이크 텐션 재킷 1종</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>최저19,910원</t>
+          <t>32710</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>판매처 513</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>등록일 2020.04.</t>
+          <t>45</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>/--/</t>
+          <t>2020.04.</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>인기 21,750</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://cr2.shopping.naver.com/adcrNoti.nhn?x=BEMQwqBacpORBwpYzfkB7P%2F%2F%2Fw%3D%3Ds91gPbdDWS3mXa8HcAHlBpc7qSILsGm2zHqt1qZgufjxHNkR52sNpx6WkFIF0aGiNvCN7aFe7t9QTsccYmK0uZ7ZcrSmyVkvPbgvnFhVx8R3LxVQRjQ%2FTF8HHnefeVlInWn%2BdmmcBsG4MAtMjpzm%2BKGddqqZdIP2V3%2Bej7F1033LZNjwTQ2TXhrIqpNGZWqcNO2rqnOvIi6V2gyBlDKBbAjG%2FIqwhx3pHESEzCRATYcYb7VizCqezlc4vsFbXfnti4LBYhASul5xoHn6kheqgcBkaKX7pTvXs6WG1e2oAbVVm%2FIc%2F321FKQ1wHMEwgxb6M8vuusueBMT5SXD29eC0%2F1SQ3ZSaZojEEN24UAoJYZ7%2FdSXahsmRQzvnkYEGk%2B41SfdcbokSdWduYatgNNYrs12bAR1ophmcfhSulN9dtaQ%2FbdMEcDWVZU3%2Ba6WjRxBhDpQlRPcSW%2BwdYdbRUywPHm37THGhsPDLoYVn9G7GrgElRRrO7Ih9EE96VwiuXaB4ILqBHD1oHMo9dDKVJJNreExaN3zcYalkznApL9EJk6rEKhzBTH8PIZ4uYDVR4rWcBPrboJrzqdY%2FTdE021HGsiPdmJ3HK5U8TcMrfZ8UZzmF8WlGM%2B%2FQo%2BEXDO0oVvWfBq7LMswgKmP%2FefHE%2FeVKH25cANqAqmZWG0evBksjbEn3rKKi7XCTEA2dGZS5ZEvZ&amp;nv_mid=22398312892&amp;cat_id=50000805</t>
+          <t>머스트비</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>무료배송</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
+          <t>https://cr2.shopping.naver.com/adcrNoti.nhn?x=P1D%2FpXW0QfzZY1rX7oz45v%2F%2F%2Fw%3D%3Ds1r9ohtWr%2BuTA1p4R%2B0JmE6j%2BAxItSVeb%2BMwLuCTYkbiESMwq18v0U0bNVdAVo%2FmyKclqbMGbKGra8Ph%2BLtfud1FsVZ0v4tIVTT5OZOYTUlWLo9igMPaRxFspM3FYq28ACztrCLZNQ%2FIzxWePSI1aGTln4aYsvQENxb3qLorl2oeL%2B7FITt%2BuxXTo%2FXy9NlGPG6NuFjfMkdw97g1n5e9LJnLsZntRpdKkAyFhwaOc6O%2BhnB7fKMcSVqwLZ7MSzJGpR242gPkjxZYH4VQwkXqzlTjbueC70q7lOLl%2BbIgptw1%2BbkgDyaRoIa6WGpHha1EeCquII3QhIWm1aXa3atmHsC4E7mC3l2zIB9od8NffniJIyQb%2B54SlSqegFGDhjterh70uMunt6UwSb5GEsm8bVoDtXLM014hnAW4HJx18rtf3n4KL%2B9saNXjlGqiF1TLCh9VRRKvHd4iGtraFM3obqwm1X6QkuYWhQQxnHa3hoNCBIH0SHcsSgFaQ7BnrnvHhjfsfUspJjtBe37sWQtLd4oLKF6%2FFAp%2Byav6xp%2ByS85eulZgxebQ1vk%2FUjriN8RucHlb7JIZ2lbunRzSvk%2BpyhTHdrXF50xb9DJgYp4NoBcX6g9CBWEyaOQSHqBHoROALgr1gQKKXpVIyP6k71Hp66J%2BOfdnJfbj1rs48ToYzEHzifXJk3LgEvV83iFx1dohgSMfQMnMqu7dxWG0YraqDDBARTXG%2B1mjpgAjE3XwoX%2B8%3D&amp;nv_mid=22413165171&amp;cat_id=50000815</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>무료배송</t>
+        </is>
+      </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>/--/</t>
+          <t>카드할인</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>미리주문10 엣지 린넨100 자켓 SUMMER20</t>
+          <t>지오다노 여 반팔 크루넥 스웨터 350507</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>최저71,100원</t>
+          <t>19930</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>판매처 15</t>
+          <t>506</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>등록일 2020.03.</t>
+          <t>47</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>/--/</t>
+          <t>2020.04.</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>인기 74,550</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://cr2.shopping.naver.com/adcrNoti.nhn?x=qdybpSvzxjsIs%2B0B5B%2BpRP%2F%2F%2Fw%3D%3DskzufVRt%2FaAwJsETNpNaTZr%2F6L80gsnVhidO5isETadpoH8Y%2B90qg%2BS1dh8J%2FEkmRH%2F9ZdawCnA9Mnk9ZG6HBKJisRUrSs3ET105Id5%2BV0IuHL7tU65YbRsCkoukUHgoIngu01orXw5THnueqGrFmTGkwbkK1ewMe2wqUfaNlTNKir7WRzhAk0kq0McAJuwjNi%2F8OH08jUtsPfDP2A6nG9%2BjZLqMiH6wIDtvAB1g%2B2W1lcn%2BHxHiMKYtViUf%2Bf6UX%2BNW9U730MjWu4XIlvq9yYWWYkHDWI15lHgDJLrSaQu0OcRZnZkp0c9rVI9NPYHm8ljoPk7zWmBK7XCyfU3xfri%2BBbw3Veatc4ErSoTzNlwPHPvuEpAiV8k2vJW7Egf1UhpQ256yNJ%2BkInUBZgl4n3VrYZXn9geMYVTXuXKm84kw9VKoV71U1x3NHbxE%2Fkbz9%2BWpiZxr4x83pK6%2BfN0R6FEpxANCKXaf7Rq3ZnUuIzWaBCmkI6vCYkxik37zvUuVNgYMD0caoTCt4ow4yVNrCykX8rS1jjmy%2F%2Bv5%2FrgJ9WixSTPlA0MYAflS1Sevx1TkLfzDBUqwFeKLyl91BjvnImp%2BOfdnJfbj1rs48ToYzEHwNvJaYqByDV7CgdhghzbgtbmpOcUA1xMkWUuZIpcNQZVTdDSBuC%2BAx8dS3KS3Qas4%3D&amp;nv_mid=22246326767&amp;cat_id=50000815</t>
+          <t>지오다노</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>무료배송</t>
+          <t>https://cr2.shopping.naver.com/adcrNoti.nhn?x=BsGFOueKykhUWXRJ8HYP9v%2F%2F%2Fw%3D%3DsyC1AdzuKB%2Fr0eEh1WaZQxD%2FUgAyS8AFMXfRocyWjc8zbQC6maZOt1M9Jx0RfzrZiPGW8oiARB6oQB0BGt6wtzluIOzXKipWm69tsjUUd%2F1uIj%2BQatqurQ2MNg4vllYEced1u%2BGZzvQTE9AISghTKhBifUg01cTI4tD9ClvlPO%2BdHpt2RT%2B7NmsqnhBJk1KSZgEGFQPJkjiU6etHZ1vuwm%2FMcMv3Q4d8bjUHKy8Al9hcHLoZrvKq%2BPGlTgInoK2N9WH3i1ijLkGF51f9iwh30rqPJowvBrVy09B4f%2Bi2B2RTdODZHLS8csmEgCKH0QHz6gshoeuXggTVhd9iyPBesjsNjbvXN3Wxiau0h6XZ2dyx0ZpJUl5Feav3Wcw327RBZ87t6KEQL72ZBI%2BbEkyiMAdhucTuK9WaSEWZhelmXtBcGNM7x0HTm7A5NHiBDlXV%2BcuJZ96jEDdvHxJbdxfIkfzPhEwcGaT8ujXAfFqWf55P9R22LTk9U4Zb6DuB1CK2fYaAssmBhDOQPVH5QZ0XzUaFcDERNo9Ca9K6DRTHvGb6ZPPTk%2B%2ForXon9N6qVCYwlgM5shhoN%2FH8yrCRrR%2B08NvHwosGDGwU%2FEpYbIhhLNEZddhhK5JvhFlGaMAYoDnuY8zW6ZTYSQoyyZ7mqXcM%2FmeTPfcZ6EmkxnqNHfCgDb7Uy%2Bp6mjrQAvWCliQAvc9kcJGeGdVOMQNWIQhR%2BR8%2FIXo2yXSaUk5FkFFzdP71bOqAe4iLnd5BiG%2B%2BpjVipRwg1F3rSFCGYW%2BgMxu8vIDoGyg%3D%3D&amp;nv_mid=22436164731&amp;cat_id=50000805</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>카드할인</t>
+          <t>3,000원</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>/--/</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>스튜디오톰보이 테일러드 린넨자켓 9100212999</t>
+          <t>나이키 스우시 런 7 8 타이츠 CJ1980-010</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>최저93,030원</t>
+          <t>30500</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>판매처 111</t>
+          <t>257</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>등록일 2020.05.</t>
+          <t>91</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>/--/</t>
+          <t>2020.01.</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>인기 93,590</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://cr2.shopping.naver.com/adcrNoti.nhn?x=7msfH2OGphMYfjBfqNE%2Fm%2F%2F%2F%2Fw%3D%3DsCfq%2Fo2eN21Bv6mOLJ0ArCpEAwZzs%2BqAq82x9flBS3dlWhMkHQ115HPKVYvrUQCWy7jQpB0q%2F9jBXsGT6ixoPrhjF5qjclSQLIZjzZ%2FPu8hnLy9Ja6Vr10UDG7qIBNOA2MjFLuJOWN7Ni6OwF1X7b1jW2mYzcAZB2y7UdY21L5%2FPF5Jq%2Bh2bMcmaOfFAw5rjz0PohMpP8YBiSP5hP59WZw%2Bmc3cDavXkMWgluo8TFfjY1zwYS2RRwzpRLAfdbbh7a9mcmAR5sqvy5FVm0Gh8Wz3cccuNa83Vo4SXDXUqvgWKLCovAgpZUeUtvubg8qih46NkuoyIfrAgO28AHWD7ZbWVyf4fEeIwpi1WJR%2F5%2FpRf41b1TvfQyNa7hciW%2Br3JhZZiQcNYjXmUeAMkutJpC7ZtK2jqBrHGcHKfdT7hcXOKHJ%2FZfGQkcZnrzlyFg6RL4UHNgPj063vE6wex8mDzvIrp2H4f1bTcVBd8S6vBMOdoM2wHKnLlPuOrndAi96NsCdFADGDc75IUSTifQUjCpJhz2vtU1pRAEax3rXlNCimvF0iazlGp30EaHUxP2%2F6CA2jY0KVJ3HWTVTD3gZR9wIAxnu0tt8MjXhq63WAnrrmnqizDJ3jYumvnCcXaOAudwrtTaur0mTWSArlyrOqPhmXLyqnYCUiiGGxejRfmsBt6sQukEmQWzvpREEoInH%2BBkrjR5XyfHmQlmOf5Hn4nVcA4rTsQUD3JDGBu%2FOc2U5l7hxYJVXrTPVW0ytUb12rraZcXez90DLkS6sJQwNZMDQC1xySwIgLVfQBVMbKesyzSbVktbD4XnHxYf4ABq9Bam&amp;nv_mid=21929967762&amp;cat_id=50000815</t>
+          <t>나이키</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>무료배송</t>
+          <t>https://cr2.shopping.naver.com/adcrNoti.nhn?x=ZXNLl%2BoOmVagSW4SYtRr%2B%2F%2F%2F%2Fw%3D%3DseigtExrcPCT0oNKmgb7T0eBn7vnbwS4hXOJTjSe7scnyYPwPxNUXenM71RsdqSD7lgzyLMW%2F1cd%2B5FNMm2H0t8TfljyHVgLGcmThL631FJiGgoymQVtYnKWbHjXfbqQ5%2FAMlLdNoLxZQOO8OtBWh7R72I82MVoKGWYB54StOjgw9BYTYpmNjPkTaFmL05kNmY2XCyhKYZTDSlCxUbPr1%2BtRcCSvd98LIopD1S2JruHxm9NJDz7rhnPdwXfaoXIvBPgRxHSe87JX3OB2STWvcwE5qbkY6jjrKsMRre63FmhEpsnfDBN24PliExjy3dPoe0wJdntGKydbWS%2F0xV4peVHdnY%2FAZFeQMcx13YnxKjV6lopbpieagPRoipJ%2FEZ19DagiK5o1NShQDksdLRQC9a2wx1KUZJVUHxfedy68wMUr%2F3BgcJst5OXoD%2Fhww0WLFgKic044x72wWSSp%2FKdisvnmiz9ILzHPV7pgyc4v4vnpKWasoY0hhClCaXJcapZh%2FwbtLgi4Hnt7DghY6%2F39xdKFATJJfbmFZlBOCaRIJX%2B4RYIR3UMJgIkUqtzVZIU0mhltKZLxjKZP1znJvVLP8taGEwTnQ%2BKQ5YE4mXsg51cfia8eA6x0I%2BWc6HKDoIAjj%2Bltk1xx92P1f3yy5tqzrVfOu2rDuWGtI5GiQGglzcMR%2B519DgoNkhdV7Q9%2FI%2BjnTrN1m2C7nxUNroMlEDKejdAeOed0Fj1mSMRo1ZcyMLa7Q4hgPT1TneO2NR6LMjL34u3zszZZaBMJ5sW0jP%2Fqlvp7YNfpdHSR0VeVaOkCsO3I%2Bi8f7WD97KFqIqFcomxBi&amp;nv_mid=21778684686&amp;cat_id=50000812</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>카드할인</t>
+          <t>무료배송</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>/--/</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>엣지 SPRING 후드 트렌치코트</t>
+          <t>인스타일 여성 썸머 실켓 레터링 티셔츠 5종 반팔티 여름</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>최저23,800원</t>
+          <t>40760</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>판매처 84</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>등록일 2020.03.</t>
+          <t>60</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>/--/</t>
+          <t>2020.04.</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>인기 23,800</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://cr2.shopping.naver.com/adcr.nhn?x=14UZ4h5DvMqsWoGBxUpiv%2F%2F%2F%2Fw%3D%3Ds34vJ3I%2BYfkDwDOJpJqtA7OvyWB0Kp%2Bn%2F3okUrv6uLzjxNAfDfAFFEIh8DZqrM%2Bktk5zCTh6ph2hCz8bGTNrvIHGyTB2DcP2pZQzZm%2FuD4kErgoJT5ZEYfgWfKWIO8S4zRIi5tDHzsRqj5sgdyWDrr0IJPERi6aV%2BZLQJJ8iFzevDukc9%2F0MX0rXSFOxF%2BquyKnUjZKMamjTfoaTpnCwX%2BnWLLT6eGX9Iln79ZR%2Fs4bDalB7IBykas3ep1943L1MDQMidBOWWeCcDXI1YpKRJL5hxgkZwwg%2F7PYaL0vrdYCbIgnEkEDd0ZGrH2r9m4hZhiKTcrzXFCKjkEZd9XtrJkqNJodL%2BF2rm5vrY5SogwgB4jMY2jRvNJ%2B8zznYMmu0zL0Zg77KV2m2bFbzOQ8LqmlgbBjRl0%2BOmcySflRQbFJqe7r9AS2kTd8omKZQPc6YvYjArJgvP7t%2BshN%2FKoGyLmNIA83xhoOirUmw2QzVIfaVXQzUU8BtRxSkIJPPx3l80QUHt7F%2BNmdOb4M%2Fe9wYQXBc62Ne4JZvhyl10vYNqB5KSmzfp5nlRKJYeqnJ8X2rrvXrj6HCin%2B2XTQ4GHbdvVkn3HiVuDGtLUut9KkSg0dG5AIVu%2FOlKxSgZ2FLNFDhyBq7LMswgKmP%2FefHE%2FeVKH%2F8VPP1ZpWSgyymqgKCDywUDOKUeYAYz56wt11oD6ex7&amp;nv_mid=82436272108&amp;cat_id=50000813</t>
+          <t>인스타일</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>무료배송</t>
+          <t>https://cr2.shopping.naver.com/adcrNoti.nhn?x=UC5idkaBEJRokg0H6GhIAP%2F%2F%2Fw%3D%3DsqAMb%2FhWgelpHR3RFk9cRT9E20f5pSK7RUnRzHZRxMRTi0REO72aG0WtDDHanSfAMI2Vub3e6BzLx18eq9sebs%2FhgtpblEvohOvJxZ8ACHuhaXUSjN1MbdSNp0ICfB1S1CysHbyYGfotTd%2FrFGyq7PGoSsbGUrLgN7W2FCqWqjj2bs36BlFpsc9O0LeIIDEQKTXMpVJGHvfXSeMC1lOVNe%2B%2Fzi59aaxmRDFsVzBVfXKAnfTtep6lh3ajOm%2Bf%2FGW0HgXcff1J%2BAonPAfNShOSqwYYlFAdf1OFsetsPTCIBnAuWvYwmJsa4bvUi%2Bv3z9EVhLdwNCixGWra%2B5W2Y7JkVETl3FECge8ToyY5glFc0U5VcT5FFj%2FTiEHKbZ6scMxutOkmYaipDI7AtxxMnrcyoPsA0PgiXqiquvYnMHyGno%2FB9CH22V1RpvYVCMLQqrAnfWNeq8tExLBuOOF6C%2BrXnj%2BHzOJQLS3gpsK5gxF2v%2B0ILH%2FaQr6NrBFY5HflhgVaZLZIf%2FZHKgCzPbG5%2BiwRIeK5eEwVmFVtgikwkWUfIDXVuheD4OHivo2VNXI%2BZATHoRjY%2BVOI2aIYAiHV5pcvUtCYy6Qy%2FpI0qKt8xryknkeHlYsk%2BeTSveIfxMM111FaZ2lur3DPsleN93pqb%2BfVYF9ASnSMv28%2BRwXwsy6rVadyeibOSjjGGqOx9FrIbLxJ1WDJ1YyhPspvYZ1NRcdaMFfN33Qcqkqv%2Baai02DDNpfzAKprmkqeK0XqHN%2BialA03&amp;nv_mid=22508959407&amp;cat_id=50000803</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>카드할인</t>
+          <t>무료배송</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>/--/</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>지오다노 지오다노 여 코튼 트윌 플리츠 팬츠 410509</t>
+          <t>오조이 1 1 플리츠 찰랑찰랑 세상편한 조거 밴딩 팬츠 5컬러</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>최저33,930원</t>
+          <t>13900</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>판매처 174</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>등록일 2020.04.</t>
+          <t>1662</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>/--/</t>
+          <t>2020.04.</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>인기 32,370</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://cr2.shopping.naver.com/adcrNoti.nhn?x=7DvmJx0bJI3QqSeACIBrT%2F%2F%2F%2Fw%3D%3DsfS0y6GjjwsaUfALOJtSaXgm4jQLExyPGwB0O5m2Si5x%2FFNYEXaAjwQsWlvjl0IGcxADiTNndr%2B3BRI%2BkLjKZegYnIzWjx%2Bq48vngPbyAKDIyn9oWq7RP%2B63Da7NocqILMjFLuJOWN7Ni6OwF1X7b1jW2mYzcAZB2y7UdY21L5%2FPF5Jq%2Bh2bMcmaOfFAw5rjz0PohMpP8YBiSP5hP59WZw37RO7juKt%2Bl0pUkhG5qpZE1zwYS2RRwzpRLAfdbbh7a9mcmAR5sqvy5FVm0Gh8Wz3cccuNa83Vo4SXDXUqvgWKLCovAgpZUeUtvubg8qih46NkuoyIfrAgO28AHWD7ZbWVyf4fEeIwpi1WJR%2F5%2FpRf41b1TvfQyNa7hciW%2Br3JhZZiQcNYjXmUeAMkutJpC7ZJTUcM0RjY7kllH5BA2Br%2BHJ%2FZfGQkcZnrzlyFg6RL4l49YMK%2B6xAZo72touHcVi33aRy18bvLwNCHfWMGGM%2BaeYvj9mJjfM1jMJPVfCKJwuCdpVJ71EDpqT25YSoRjwrzfW8uaL7z%2BrbgPNW1%2BqKPDlqG4yAELo1JYRHbWowtOKYQa0CTAu1Rr4NfgohveHRAMecFv26DCeS%2FpZYDcGdMIXCow1zFshgJiZiXnPJuYKWoQBClKd2CVtFeZZ87voRhPYCg8vfH7hRNZOjNzC45ZcwBx7GSocssFrpgs9E0ZAvrL0nuQRENpuqbm%2BeFvH640eV8nx5kJZjn%2BR5%2BJ1XAOK07EFA9yQxgbvznNlOZe4cWCVV60z1VtMrVG9dq62mXF3s%2FdAy5EurCUMDWTA0AtccksCIC1X0AVTGynrMs0m1ZLWw%2BF5x8WH%2BAAavQWpg%3D%3D&amp;nv_mid=22456114318&amp;cat_id=50000810</t>
+          <t>오조이</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>무료배송</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
+          <t>https://cr2.shopping.naver.com/adcr.nhn?x=%2BpbVv4fnf9%2Bpj5K%2Bw%2BHf6v%2F%2F%2Fw%3D%3DsUV3spz%2FcqlGu%2BWUW6qFrworFxv3NjnER0h8jplseq8IowpAKrOBtf5F7UHE%2FeQkBSdfUy%2Bfb%2BhP48z%2BG%2FYI8EeR7ufgSW1WyEmFHf1HbVIBYqEQQBs3KnhJmGBjpo%2BaXmkENP2DS%2BLZ5Rg%2FgyD7eelPyFbOv%2FHrJi3xiP%2FOWqRCEcEiJFV2OLrPClLGaYH9xo8mjC8GtXLT0Hh%2F6LYHZFN04NkctLxyyYSAIofRAfPqCyGh65eCBNWF32LI8F6yOw2Nu9c3dbGJq7SHpdnZ3LMxNBWQ3ZwWqIuOYFYe0JLVC%2BaqjZENavymFe0%2FP3MG%2Fr1BxwQYc8BQcdksAnsJJIUQpn8yPp5xwH2q5Ek%2BuCKK4j7un8NBjCnlKO6Tmezm8oYGoAloHVffWJgGp%2FOi75m4gA7yBJMMVNaAMlq7GEyz5ETDJV1Pxye2H498kodq8veBXlo2Gmy6r2IY50Kk0sqBZtXCcbbttmfdfGiGuD3lqr6RuJXI7lFyclGNipglfKAcVi%2FdsLAa1Hdl22GJWFW7BeinoXcoBStfGjNOFD9t5ebsx3pz3EczTn1nUGs5mpDoRBqN5BmqpOMnf%2Bx8sW07VM9pOgKlCCgnAIw5H%2Fig1YwdYn7ZQtvX0%2BY4NlYx7yMSW2b7JjIo9ibTIfSqR%2Bj1Ikb75A9ayAPYmBucvOy%2BYgRrmYyQAgb%2B8Ag8bpHWj%2FSJRmCRGus6suRq%2Bx1dB7g%3D%3D&amp;nv_mid=82430162497&amp;cat_id=50000810</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>무료배송</t>
+        </is>
+      </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>/--/</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>타하리 썸머 린넨자켓 1종</t>
+          <t>마리끌레르 레이스 체크 스커트 MAABSK01M4</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>모바일가격최저81,770원</t>
+          <t>82610</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>QR코드
-판매처 16</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>등록일 2020.04.</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>/--/</t>
+          <t>2020.04.</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>인기 84,550</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://cr2.shopping.naver.com/adcrNoti.nhn?x=%2BFxWaXK801rMZjD4EcVtC%2F%2F%2F%2Fw%3D%3DsV67XSGMXNeYCoWNJpf51DSwla%2Fx9GcwmQ4kapWNrv7M29%2BrBVp3Ymonfwlk2UYUUui1V9VSnP1GjQ3NYBhBLllCDqZFTQ%2BT%2B2ourDe9afdHf%2Fc9BTCz4Cz1G0If4DeqACnp43dr9IcDsFcmf%2FoJkBv1DPWg8pID90yggXJTbPom9LHYvk6f7OqekQ0nvv4R%2BqJmE%2B74VVTc1%2BygvXAB2pt04NkctLxyyYSAIofRAfPqCyGh65eCBNWF32LI8F6yOw2Nu9c3dbGJq7SHpdnZ3LGMYodgzXw9CwY44qOO9wCwtE%2BCFjQFq35t%2BZtb5hr5duKRCmjT0uHPHXe8Vbo2elNU1PhyszorQqp7IGx4JY6dD9Dpv7dDVNPL3VNbuZ3CZk5Q%2BKZ6RyqxYvhuQGbWI1cM36BKofFlmX6AekXrC3v88dnOWkJUvE%2BLLjPhCpp4EDjxrSnMWeHFeQggtCdqkBc7oCtj35LjuFJFq2qsoks01hXEQE7NkRn95tn6fHKpuzuHucTvzjakLIcUHl0oKAbcUDRPH%2FdxPi98rI8JZTGYtd3dHWlbF5rrCGoY12hlzpYH%2BaeCaGRQG5GN9l%2BoFJkbr5i3wQOnDIC3%2FnY5qrqTaSkzqcRiZyYblZJY18jJwi8uhUgSAsBOB8dK3bpQaDw%3D%3D&amp;nv_mid=22433368000&amp;cat_id=50000815</t>
+          <t>마리끌레르</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>무료배송</t>
+          <t>https://cr2.shopping.naver.com/adcrNoti.nhn?x=7XoWom%2Bz8XDaCA5kbdY38f%2F%2F%2Fw%3D%3Dsg3gQfABENkr6IE4%2FLweD3H4XZ95lYEMGZcOOZVBrug20iLT2VSilYh31e5rAEqXZp7QYTz%2BVl4fCt5GXhRGj9tVHmArtqtj8q%2FoqPYuwcNK787S7QwnnUgGcV5q9fP24SCgNWUw81DRuS2C8dAYNpVnDCBC%2F%2FDksTJItRMGoPbgCl3Kg2NsQ%2FjDdGTZkm5zdne3EfP6Ta%2FlwMIQ7qDpl%2Bpkna%2Bm0lXW%2F1g5qBHBrxe2lIOx8La2ZA5g1naWIi0rK94o4QXlUxboG6scWGtJVFUFac15CqFghvAaJAKxxm698QMMrcWQrQW32KivpZ7yNdVW9V8ypow%2BiHWq7GqHLdKxGlHF9I4E3irLR6KPInsAFeJ3bbANCXeOtTnpLvcI33zYAqtatDCiVZOk0AkKraNJ0wHavFCCwIHArEmCD9Vr3sd08ZNLfOOry6ghkeGzuv7OCp9%2Fql3JAibLwIPMSAuXqhbQDxH2jXHmInDNvuPUM%2FBAXd4bCWXNONNBkwI61Bv55jR5xdMaWjEH1aLzn6peIin%2Bsv0X9OWHsMVXYR7rQAQAA0buma3BoCMYfJLRSPoy3Zr9GUM8LON54gS0Hd0qAUkcz6%2FzY%2FcQYmO4HRtjJl7GKeAm%2FNrGve2GMhSaMpR82MfbWoHl2ph1b0XTCGcgMKRDcme2aEqydii6Q59xioVcmvWPuYT5FjLlfxz37%2FnDIIAxIC0vfhX24j%2Baw9XEPoud9L0w86pFYPxlZTY49SJG%2B%2BQPWsgD2JgbnLzsvS17Crr38KxlYn%2BQ5%2FrZfrF4SzjzWvLdbe7ORGhjfTOg%3D&amp;nv_mid=22581535827&amp;cat_id=50000808</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
+          <t>무료배송</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
           <t>카드할인</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>/--/</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>오조이 1+1 플리츠 주름 찰랑찰랑 세상편한 밴딩 팬츠 5컬러</t>
+          <t>라코스테 클래식 피케 벨트 원피스</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>최저13,500원</t>
+          <t>88200</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>판매처 2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>등록일 2020.03.</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>/--/</t>
+          <t>2020.04.</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>인기 13,900</t>
+          <t>라코스테</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://cr2.shopping.naver.com/adcr.nhn?x=q7ECsYz%2BNAxWJ%2FfITm6jAP%2F%2F%2Fw%3D%3Ds80YaGj0jV4SMoXIFo%2BpJjpy2l8uZxJFVPFhIrAMw1Rk6uYGSs%2Bwf%2FpZtlgVoIkLFWXdq9elzlwzThFfcwa7vjScPDc0A81xBl2bK1TVEdn4%2BAgQwxHAr%2Bt%2FmzjfLcpZkt8GwiNr2u50NfBoE4uPPBmjqzAI07v9t28ej8vJLVXkwXgVaGukddUPgBvgU7%2FJlD8gEYSMY7bt7PGpHhoMEGoF3H39SfgKJzwHzUoTkqsGGJRQHX9ThbHrbD0wiAZwLlr2MJibGuG71Ivr98%2FRFYS3cDQosRlq2vuVtmOyZFRG6tTmBxOwsvLoTskw0EjhAEiAKcYU6%2FbGG6XjcFuKPKVfxN%2F2BrCF1%2FAeuRd8saoO2qYPemS1ckCNGCj08FXhq2eMBC3N4jVs%2FOABGE6BtJuWpKsDCHIB03YH7VgquuDGBo8FRu9CKcXrwEgHTxa3FKmy%2FaYkav7YNsAInC38L3VgeIltfiJvxqo%2FF8QjrobWq38Be%2BaVOaxG6IreV7TO3YnOWV%2FTohX9LNFfClYa4MY5p4TtmKHqGaO7i8xfeZQjFWaItHWvI0rmazzRdJsWBMt9AilnOH%2FHLWVQbO3QTQzMxN8%2BHNhhTR9OYDkPftbelMPMQ8auzwA4ALPctW7VPYEiUvneYKpkWCTsvXctN9f9X794Vz8K2r04TKAESpmM1ejSiZvttZ0Ncq2aiQYJmfDCJEqOAYVRuCXAIaTwMHTdfkkdHEHXuR1JJ5LW4I6c%3D&amp;nv_mid=82388408987&amp;cat_id=50000810</t>
+          <t>라코스테</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>무료배송</t>
+          <t>https://cr2.shopping.naver.com/adcrNoti.nhn?x=njAkSK6t1joRiQKYQIwt4P%2F%2F%2Fw%3D%3DsdmxsKFw6B9ViXesMvbb0fZ8kK31Ua98gMgl56e6N%2BMvsaom3x%2FfAOSSB6ui5FdARvsvdp6cpN8Wauo8eS8d83wDrL%2FgVF5DajZB5KTCizeEZGP0BljtZdVs2FUwiwcsEThauR7K8fQKyBlpmjDc%2Bc6UnEWBHe6L69gXxO2LLun9vqTUL3oo6L5WDjdviWXmZLrRjKzwKnd9YurcyKrxypC2CkjXehANPaAdZ1Vg3J9FHbjaA%2BSPFlgfhVDCRerOVONu54LvSruU4uX5siCm3DX5uSAPJpGghrpYakeFrUR4Kq4gjdCEhabVpdrdq2YewjtF2V25xEow2ZTTC0ekBxrtfdFnzkwu41CAGCiW50SvTYPBPZgsjR6yYxJuZ8%2B6wNmyMP9PHyA%2FCiaURxkkRVpE%2FKbfCQz%2Bnt9nccTB3CNbUgcMHCRjwlYYT0LYSWPvDMwkjfZ0TngPpPiywqOvyUKudq6%2FxyrD1lbGwTicVutUOmARYviYPKewu3LSQYqtT9QmmzCHBliXBZvK6upKf5qObZ5OmWbUk4QtO2l9c8sB7h4o0vw39DP8euByuBGNOtFUShy%2F4gEtXINTWIh2HxrikcTzjpYX0qJlSUXtms%2F59CwazxgwzVt4NiOcTz%2F61PUiRvvkD1rIA9iYG5y87L%2FUfKG5NROY%2F%2BR0wvmS2VqZVO3CPyWFMbJynk5NCrrtq&amp;nv_mid=22385382009&amp;cat_id=50000807</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>카드할인</t>
+          <t>무료배송</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>/--/</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1+1 휘뚜루 루즈핏 반팔 티셔츠</t>
+          <t>엣지 SPRING 후드 트렌치코트</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>최저18,900원</t>
+          <t>42140</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>판매처 2</t>
+          <t>78</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>등록일 2020.02.</t>
+          <t>3515</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>/--/</t>
+          <t>2020.03.</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>인기 18,900</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://cr2.shopping.naver.com/adcr.nhn?x=qJxdEcwwHS3yxvFoBLioS%2F%2F%2F%2Fw%3D%3DsR9C4wq8T7sM21t2sWuLzz3VQRkw1SngN9zHIUl3RsX4Wkz3yhOhlQqDOYgkdvV9fyFMMqIJsJAUhCPdmMCjV4k7PYJ%2FfqBsYYLx3E%2BcDA4fAaCjcO4eQMn9ICa4Ilr4%2Bt8GwiNr2u50NfBoE4uPPBmjqzAI07v9t28ej8vJLVXkVTheMq9yA5Te9b0bxwZuBxtz9gpw0rGY9nLvtPdwaq4F3H39SfgKJzwHzUoTkqsGGJRQHX9ThbHrbD0wiAZwLlr2MJibGuG71Ivr98%2FRFYS3cDQosRlq2vuVtmOyZFREta6glN2vM%2FnfreddW5%2BnefJAiulaP%2FKm6OLOKmJvkXDpJmGoqQyOwLccTJ63MqD7TfQvpwXEElxZ7lCrnQbXhRd4DFF%2F3Pw3kWvsusi47S3MEwVkKTv46M4TsdUIfyQskVXWIDypvGjoxphd8Am5eCroqR0%2BKuFF2sb0A0qle8QuFcKgK83KGKa8VbGBUY0B4B6%2FN3YxUnNc8NnzSfK38udwswKLgzSd6SMRjhfBTKNvjZ%2Bm28A3O%2Bf9E7mNNBlRzasO7VwS%2F1j%2BlPVFUg%2BrZP40Jt6Dblijj%2FaaTp%2BsYCI4Sk5jYf69j5Uk7CoGkipyfMFVLjvE5YwKOB1Rywz9U%2FrAIxGuB79CqUJQanxZTGNN96jxO47xaltfj4GASsMRX00T%2BupFOtp4qSmNOqHMKusE%2FYQEm9DiOx60wqeE2Pg%3D%3D&amp;nv_mid=82360127506&amp;cat_id=50000803</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>무료배송</t>
+          <t>https://cr2.shopping.naver.com/adcrNoti.nhn?x=Bv9qE7L9%2B6%2FWqgC5pXv9l%2F%2F%2F%2Fw%3D%3Ds1FR40lk4%2B3VqZPIgmn9wFk6yDmIJPjtZx0Ii4jLLrZNkuA32G3frO5QBE99GkF1w92dRFoVR1iSmnyek3nMwqHQmpnVzuapzXvH498g85m4EkJVi4f5ndnUO1UlkeSpJed1u%2BGZzvQTE9AISghTKhBifUg01cTI4tD9ClvlPO%2BdHpt2RT%2B7NmsqnhBJk1KSZgEGFQPJkjiU6etHZ1vuwm%2Fg9%2B74%2BwohRw0xtKZr6dIK0EoHVcOdc9Y5lNK6agHdXWH3i1ijLkGF51f9iwh30rqPJowvBrVy09B4f%2Bi2B2RTdODZHLS8csmEgCKH0QHz6gshoeuXggTVhd9iyPBesjsNjbvXN3Wxiau0h6XZ2dyyO%2B8KQZyZJtSnWll%2FG0%2FwStgiwNt5eSqSkyzkR6fVn77ikQpo09Lhzx13vFW6NnpQ%2B7K2FXgHxeGw9zYdEUcpS1ODKEO89hEc3W%2BVcJ%2FHEPpb%2Fkds5YrRMZYxCHrUiX4cPczQnpygjH7s0vDzPiyJeUZoSsQKM4Plw5P3y3rLq2YQgnlhFvBmWOWCDXGeY8bJo09re4ZPwfgoDjsLHFzICDaG3mLR3pOTCmTbOtD7p3dfxwNPjPGzzaymgo1hD94il1NpEbVqTAVtNpmQyJ7y7xbPjZiyLfxxgke1f8seZn%2BCL5kt9UdV5IZgaGvPzqaUGrssyzCAqY%2F958cT95UofCCNxOYoLxlj%2Bd9D%2BFc9hgIAleN2vadAEFS%2BZILUJ2%2BI%3D&amp;nv_mid=22289951385&amp;cat_id=50000813</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>카드할인</t>
+          <t>무료배송</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>/--/</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>마누쉬 썸머 스파클 퍼프 니트 4종</t>
+          <t>베스트셀러 레터링 반팔 티셔츠</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>최저73,380원</t>
+          <t>14500</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>판매처 8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>등록일 2020.04.</t>
+          <t>741</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>/--/</t>
+          <t>2020.03.</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>인기 73,380</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://cr2.shopping.naver.com/adcrNoti.nhn?x=0w274IM%2Fxq8rKFRn7EQ0FP%2F%2F%2Fw%3D%3DsMcM0Dp6UX2LKBFx7a2MoAElzzbzecuzPmz7AxRu%2BlKxAPqz15dAltbUi1a4JoqRccbOtEIzz3UswpNvM4rmM6HHkhQCN7vGf4%2BW1kCU7qsZtywWeCjxu0qt32hkRTl7F8RT0QxsaoldHlGHpdkp0f7OhzAe%2B9Oq6tq24nWCsISQBSFUaNwjWIHd86%2BPqBAH2IrO1F9duPytK6eytDX7uQE%2FY%2FmQ7wjUIZjH4fbD2tc7nSK8nDlE7VzooOURUYQm2Rx9XO%2FuyHZpQ5ArQ2DFIKIiRVNDRxUZccU0gSolSjPXsvX2P3EunpW27cFp8SHYh6NkuoyIfrAgO28AHWD7ZbWVyf4fEeIwpi1WJR%2F5%2FpRf41b1TvfQyNa7hciW%2Br3JhZZiQcNYjXmUeAMkutJpC7fA2frwMq%2BTqIXZCg8hB5DQWDLX4nHeIV9GHoZCfef6RjUjfHEk%2BCWfhZOhw5fb39oqGk4GW5VVYieO8hX%2FgAWZ3f4p98vVJX9QlXVzKL44vGIcj0UKPyEmEou%2F%2F3v4U1wYlqWyRBKZa32PJ1XMS2Oh0%2F7aNKv7LvbNCsgHhLgIbc%2FlS%2FhorQLVWe6hzqpRTNYDLjbB%2Fx%2FeC30RlwGP7XtoqUOBgfiUcTKBmA1KT%2FO9OPSLU7HABQN%2FMhwYOeAOMCtjrYy%2BrEveVXfxj94H1zc5cktCf%2FddkNkE4k9RWqkMhPUiRvvkD1rIA9iYG5y87L%2BWbBCvEQFue2hFpnRyywaDYr7%2FPD4KVbeNRn1GtROSO&amp;nv_mid=22378451319&amp;cat_id=50000805</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>무료배송</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr"/>
+          <t>https://cr2.shopping.naver.com/adcr.nhn?x=qhvgakszAcTVbdvvIoApcP%2F%2F%2Fw%3D%3DsgzHbcO3XjP3bcjTaZ0lcCDbh7E%2FhNO%2Fe61UQeAyVdOlfZX9N%2BwlsqIylyKg22DrZ1mopF2cCEj0MmlcNQYPSSRL8pBc5xwU18TgO38gDGkAAZCPxVGfD%2B0%2BpuiQpBCEWmkENP2DS%2BLZ5Rg%2FgyD7eelPyFbOv%2FHrJi3xiP%2FOWqRDPYOTqwx%2FouX0cj%2BabjfPWo8mjC8GtXLT0Hh%2F6LYHZFN04NkctLxyyYSAIofRAfPqCyGh65eCBNWF32LI8F6yOw2Nu9c3dbGJq7SHpdnZ3LGMYodgzXw9CwY44qOO9wCyzZ5AICF16P6D6pSG4uVmfOmQ03kOIn4a6n3J9AZblbxfJt533a7eXryjqwzoPqoKQO18ECG64Bh%2BPuqwVSzqcIi6HqSNIKGY8nXBw9pfAwOSDmVrvLvPn%2FgR7TXfBKzvCmGRwYYWZlsChfWF4J2uo5QgmDAZUqs1fYZvae23%2BenKuvEwutPQShCGmPxjHGzfSixOpvNocBZWyVx%2FYFgYnVJSaaJCrE5C6QvnDrwRyD%2BD4mkpBRnN5bKUk%2BBIrYqIJb35y7%2BBTzaa%2FeSr2%2BhJiILP3qldjl8uAKcZ9YOdJDCnuIW5ffAMtj2SpNlA3C0PFIl19RAJDqPLctAzK%2FMJFaJse3MGyIxmbOjmvgudfT5v4KXHdWKFLkyr2wI69luu6wT9hASb0OI7HrTCp4TY%2B&amp;nv_mid=82413214074&amp;cat_id=50000803</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>무료배송</t>
+        </is>
+      </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>/--/</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>지오다노 여 T R 슬림핏 슬랙스 410506</t>
+          <t>지오다노 여 브이넥 립 가디건 05350506</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>최저23,060원</t>
+          <t>20960</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>판매처 468</t>
+          <t>179</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>등록일 2020.04.</t>
+          <t>33</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>/--/</t>
+          <t>2020.04.</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>인기 32,960</t>
+          <t>지오다노</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://cr2.shopping.naver.com/adcrNoti.nhn?x=kea%2BZTESj34eSVqdUtbwqv%2F%2F%2Fw%3D%3DssL3UxRNFNGw62q8E1EgUvrBsVN1bF3VfNbj92cdlAV8ziijIOTRPM1V7v4HoEP%2BWSFPkpqgc5kh2nG3xOUfH9YK3yoAZbAqH7FVVQ842BWBRfO5P8T4xeaItbQmg5y9r%2FAMlLdNoLxZQOO8OtBWh7R72I82MVoKGWYB54StOjgw9BYTYpmNjPkTaFmL05kNm8UWxep%2Fw7Iu6stdDe7vI7F4RYgTEAWKOPKrJOhosrW9HI02%2BR7D0TG%2FHg0LEmAy5weTy1pC9Q3qfxE82faggTU5qbkY6jjrKsMRre63FmhEpsnfDBN24PliExjy3dPoe0wJdntGKydbWS%2F0xV4peVHdnY%2FAZFeQMcx13YnxKjV6lopbpieagPRoipJ%2FEZ19DagiK5o1NShQDksdLRQC9a2wx1KUZJVUHxfedy68wMUpdB6m7dNUdNFve%2F%2Fur%2FxE0UWnS586yIu24xp4nA5jB9yXcksXcH2bTXXLKgPtM9AGP%2BZpmKoqEihQatrQyco961%2BL50xomC9KoA1j9J8RmMo3T3FciC%2FWZXaqhKWZxmXZ1VP8FI3PrNNonOr%2BsSkcyBSXY0ujB9VMGO%2BR2P8%2BwAqkZn7YH2HT4BO3AxTrcmP8kappXEAd6B2yWQNHuZHPLrsg3cTvvSmlp0F0kl9UwChY2gnJFEDthg06%2BLo17U0Hkz33GehJpMZ6jR3woA2%2B1NFZQMzzpyYoQsz0GgH0K0CTSkL%2B0k%2FEhtqpyW1KF77OGszQj0DmMJqnRT0zerZuwiK18Ic0YNAs%2BxLgixLMSGrsMPrFaQ0Ufbb9MievEUm0%3D&amp;nv_mid=22453235712&amp;cat_id=50000810</t>
+          <t>지오다노</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>무료배송</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr"/>
+          <t>https://cr2.shopping.naver.com/adcrNoti.nhn?x=uYkUp9JGwOwRRYr4zUD95f%2F%2F%2Fw%3D%3DsdefllvxoFQZRZu80TuF1kSOW88olop2j1tDq57tf5i48Db61xDiXQSlNrNVyVrjcnB0FIcCw5Ey1c0xU%2FA3i5zRJ1k7FL22wLG9LAT1tF1uQuD5DZZbQol922EF935hMbe4vrwCjBfIHBdFu%2BUgYqBJ%2Byqh2Ud4iODYB5H8L77n8omU9kdMRny8%2BbUnaMzBsPvD0TzGI0p9%2FL4muhkFk6pnhd7V1rAR%2FsUFlGYkK7Py6qIlR1lBj0Hsf6lOUMT1NNCXxBGhvqBqTzNMCk9nqV9gXmaGcXKPA0liOrIlbZ53MEXeMptd1Htam8mk%2BHYICSlacitJH%2FVNXf9Y5ZJnCqWM5ywTNbvkDUq403b3HrmOv1Qo7fM3J%2Fe%2FVhnj5JjQePvR5S3MHMC%2B5X9IQfTqkGpbhhx0EDgqN%2FiScFW596I3SdMB2rxQgsCBwKxJgg%2FVaGrUYahFO%2B3kN9BB3IbWT0asx9MqOwBc%2FbygKwDsZvlSmV0Y%2Bv%2FH4p3S5%2FGXdlZ0WeYb%2FxGDU1SkcAVQFLFfqkJ1HqoOfRitmDp%2FOpoMTqeBtmDx2hse7zQn%2BE2e8ZjFIm3G3DYaMYC3WyLbX4LMB%2BN87PJGkkuo9nm5S%2FKFd8LXiMkVHX%2BdGUwgv5qF%2B5MnsJ0%2BWZGoDFYU0DpH%2BsJjW5udv5vzidLyI7UfiRtWt2ca2GPdYbRrRO7jDbtV30vLbxaI9W3so9Gajw2srWyJnjnEDcjzgRPQkWMIcfVvTJeyeibOSjjGGqOx9FrIbLxJ1WDJ1YyhPspvYZ1NRcdaMFSxsyG%2FxO5mcVtnVxKhDxJvAKprmkqeK0XqHN%2BialA03&amp;nv_mid=22382921980&amp;cat_id=50000806</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>2,500원</t>
+        </is>
+      </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>/--/</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>라코스테 클래식 피케 벨트 원피스</t>
+          <t>미리주문10 밀라 코튼모달 레터링 티셔츠 5종</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>최저88,200원</t>
+          <t>56840</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>판매처 3</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>등록일 2020.04.</t>
+          <t>2002</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>/--/</t>
+          <t>2020.03.</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>인기 88,200</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>https://cr2.shopping.naver.com/adcrNoti.nhn?x=pIvR4TM%2BqhVOB44jnR1Pav%2F%2F%2Fw%3D%3DsMYUuFHS8CDY7wCOhbZ735hBxkXZlH4s%2FBgEFgAMgS7cXVbvJp2bKwYeOHP5jNP%2FsdG06rDWliExdp33rkqMYLMaUXN0VHHeFESXXkpP9qs7HqcACO5BszqG3yqavLJGcVV%2Fiwot9O6SDWwsTwpBnk2HTam7KsiOOTFTFqvFGTzrG0W9vucex7RReEh5CYAWglqJyEgwLzzqvAXF%2BU3yhBThwtjbBVr51g7Z2s2%2FqikWBdx9%2FUn4Cic8B81KE5KrBhiUUB1%2FU4Wx62w9MIgGcC5a9jCYmxrhu9SL6%2FfP0RWEt3A0KLEZatr7lbZjsmRURMY3rDor1ROl1xATDd9Ri4qVPUnJFfDmdECAdr08EGNcoZeHSBj6AT4dlmiymsO%2Bqaf4oExlUnV9KchZL1PfZeeXBz61WWdNCNm%2BvcB6nZBf7%2BNaimxNSai%2BmpcLrzdFhify%2Frf2Y5XxHg3irOlhDu%2FaS782r5xeTtuCEEmPazApsI%2Bdih1yonV7Z5yj7qRrYK9MeF%2Bqr7W3TMZPSPEkswDoLCHePiOcdCXwrrlkH7NeGY3a2CPMdMK8e6Rkomfegx1RT9DQVgXQGID5hc0kp2V5yfsGRe75tnBAbtOXBIWPsg8AZE0sRUciEuYJmYC0B%2FIIKd62hS7fP7oobw4PcgyHZHDQAfJRzET%2FHWgbdZ%2BaZu06zlafdRy7z8jsy2510&amp;nv_mid=22385382009&amp;cat_id=50000807</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>무료배송</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr"/>
+          <t>https://cr2.shopping.naver.com/adcrNoti.nhn?x=%2BVtlYa0l1JWPQPgqkztbnP%2F%2F%2Fw%3D%3DszgsktN0AnRKgEd0rf7pYRkBwqyeNfvbpFjBvqhkt2DdNmj159yh0%2FYPs86WEp0DrY7usbyrUJR3UoCCWS0cZ8vjGql%2BZfsnnA2OdBW%2BIpYDAdZnyONqRjfcfBB7b6wzdSJ%2FVgEcvaCCc%2F7rMSb5HmhnnSmvhp%2BKjlGfDEMwPDmMrGo6rLrqFdFLlq%2F7tZDlluOyCQtZkrkMhnGGHBxJmd%2BLz3IS2eU02bH3LFNKbFgejJLgo9jGuZrObNB3julqV6DcSu%2FAedtBM9tCkInmhtApFnxcHznLdPniaIOEOB4CyU7TaV1lA5fv6jI2L9QARu03tZPdgwNkCQLoORfEmmBvyzBxCVyCtlGqwJkn30ZNczeV145y97f6f505W0XqtautRvlKpYJ6h8CHh3zdpUVSQ3ZSaZojEEN24UAoJYZ6oYLXnGcOYk58AhWEyB%2FC2SfdcbokSdWduYatgNNYrs9i1XYTg%2BChCiWHzc%2FSQVdyjGAAxY%2BgqbJ8PvweGmbhoqExc2kYgFNDXB7opHQX7Yq8vRiV%2BaAeBFu9hOjvVidSC06kGzTYs9DR5OcOwH7H9qGfr0bGZi%2F%2B021OkkwqJVj5itaAW3hvOCWWXJoPf9Zq2bW3UnAKAc8UmjTkF49QeeMJImIxTVl6Sttcz8ywlZKpFCnT%2FbMzxNBvdFNL8mS3hxYJVXrTPVW0ytUb12rraW5p2jG8DMx1dtCRhwg%2Baqo38JOPn%2FiLuffQNs4SOwJqbVktbD4XnHxYf4ABq9Bam&amp;nv_mid=22268576212&amp;cat_id=50000803</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>무료배송</t>
+        </is>
+      </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>/--/</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1+1 찰랑 레터링 레이온 반팔 티셔츠</t>
+          <t>지오다노 여 린넨 테이퍼드 핏 슬랙스 05410511</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>최저14,150원</t>
+          <t>34060</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>판매처 5</t>
+          <t>156</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>등록일 2020.03.</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>/--/</t>
+          <t>2020.04.</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>인기 14,900</t>
+          <t>지오다노</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>https://cr2.shopping.naver.com/adcr.nhn?x=180sgWl0rC9BILrbh5pCjv%2F%2F%2Fw%3D%3Dsa91pizCTeKDDITu8ZzjqwtJygK8mAkQ3W3%2BabfC3lw7kW8PQxwQgBjaP3AVE8OU1CZQoWhTK9kKeeGnswiBfuK%2BHyzuIRrRLxWghNMHj%2BeyWN5btvjrlpQfCn%2BYz5EmFt8GwiNr2u50NfBoE4uPPBmjqzAI07v9t28ej8vJLVXnhdNsfT8FdUbuvM0dgxAB3X3w7dyob7xeHnY07lo%2Byc4F3H39SfgKJzwHzUoTkqsGGJRQHX9ThbHrbD0wiAZwLlr2MJibGuG71Ivr98%2FRFYS3cDQosRlq2vuVtmOyZFRE5y8YL%2B9So9bN1eh2SvD86HiW8ut%2Bs%2FpVdCNIedDK0sDpJmGoqQyOwLccTJ63MqD6JZG4fFRZdODeW9bR2ncBmgX3NEq0qpCI1bwm%2BeS2uCM6Hb5mEr5ygYZ7LhMn3KK9z4bNR2KSWWKniMIIXOOhHBe5eCzl27%2F25gECIz4FVmD1Lf%2FT6hhw2KUWauRvo702TsYKxwJsW%2BYvkVwN60fBV44U8zZwgFfCTw5qJ%2BOy3XkBFoESfi2mBkWzXU4Il%2BgEY41QvNqB8cQQWkeSy6wbjlLQWEKypjgKDaCMAudIp657KqwMJmbDetlHnJMFdXsc6V2vHU9325mi1sYroRRpIoNiiHqDq4TndNCTofr9NlTktlIokyPdsakAMS9Cs8tYtk0ndLOI2xNlcl36rLVgdDy9kqjOJWVAiFDDYpyO7veFy%2BXHRYNUjFF3CAXMsHNw%3D&amp;nv_mid=82390064301&amp;cat_id=50000803</t>
+          <t>지오다노</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>무료배송</t>
+          <t>https://cr2.shopping.naver.com/adcrNoti.nhn?x=NhQkSMb%2B%2BoO3OISPaITYNP%2F%2F%2Fw%3D%3Ds9DXTgMwPQVRMnlamkyfoPfQ1gDO467moBstWqqxv%2FTu6hUmRyHWN%2FpD9nAqaQWfZk4k5aLG5w2GTZOydoU12SRvXHe0w6hEi6FqdT0pQS1g9Ip9OW1b1QAt%2FqvnDZLtwCysHbyYGfotTd%2FrFGyq7PGoSsbGUrLgN7W2FCqWqjj2bs36BlFpsc9O0LeIIDEQKG%2FCZcTOBn7YaoIjKcDgr6s3VBpbdW3thnuQB3ewKrssnfTtep6lh3ajOm%2Bf%2FGW0HgXcff1J%2BAonPAfNShOSqwYYlFAdf1OFsetsPTCIBnAuWvYwmJsa4bvUi%2Bv3z9EVhLdwNCixGWra%2B5W2Y7JkVEdH3xwfjf1kEbIaqOPvlmGfHuIsMtVFZWPPClrNNmxfxV%2FE3%2FYGsIXX8B65F3yxqg4%2Bg%2FK7PvVxv6JRC1WP7GvkAV8AVcT3uNup99cbWQr15F8D0s2XMnaB1ScCyt6cPgASGaTuVbXziNslUcyZx6m%2Bnt4LTDxk0W4keMrt70l7cipq2L3XDTMXzeOLTvTgxf2hIRZuxiC0cf6Lse9JKDqWWWLs8gUf9UWpndTXMb%2FhiqXaIBM5LspHl%2BDmpw7%2FkqSPdmJ3HK5U8TcMrfZ8UZzmCcff9LsoXpoE5824TsLjGBq7LMswgKmP%2FefHE%2FeVKH3gJFlWl5tiGd9p9eSLuwyGzxi9RVCGSPSycYCaVIYAX&amp;nv_mid=22682689945&amp;cat_id=50000810</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
+          <t>무료배송</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
           <t>카드할인</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>/--/</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>데일리 린넨 자켓 6컬러</t>
+          <t>오조이 자체제작 감각적 데님 팬츠 일자 부츠컷진 연청진</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>최저34,900원</t>
+          <t>14900</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>판매처 2</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>등록일 2020.03.</t>
+          <t>1755</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>/--/</t>
+          <t>2020.03.</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>인기 34,900</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>https://cr2.shopping.naver.com/adcr.nhn?x=X2BP%2BI6xC08zYBvylhVNMv%2F%2F%2Fw%3D%3DsudiyqmEGWAr2VlmdwvYUqnC5ge1rmUVKt2NSA47gvvJRWL3uJc8CZAn9nxayrv%2FJMeKoFWLB8mLGAanHEJPzLIMQByt6mcXaUyYo0nWfJZghU%2FNHe5e4MeSYC5%2FaUZ0kP14fN9k0fh%2BDC9UTx4i7qiQ6yRPz0Bok6MuLLO%2Fx%2FZBaV3ZlUEnaXyx0l9mHE0EoSqeI7uBy0p16E8giY6HLdyECNpPv4%2BuKcQpy0n55klapei8o85zv7B9D37qqN1%2B%2BfOJL93eaXr53ufr%2FnRJ7cwX4Y2199gcDtbO7VfdoT6WagQNYOikgi9nwgtDYsLQ9Ec0Ee3cA0Vf5hIrHCIERZI66i22444xAL%2FN5YnnLnbDaZATj%2Fo5Wlm%2FwUzhSFatea%2Bwyr85LxFhbSZcp0MMBqDCRogiNFGNtvoto5HCTyw2o%2FGInIUEyH0vyi54g%2BzSCl9ffLBpW2KTETtlWAyItD6okv3IHHSgONTidtgvj%2BEqVh64VLMs5koheJX1JfNKVeFRBuZ1CFR1I3jtWuSXBvZpdUpFs2T92opTCUxn7panSJiAEEZiDbnXBF6P0zr2npL6bx9VaPKuXYhMrSHU3lBx7UeuM6v3EW3xx0FBZGA%2FKEN0IbWpE4dLtA1CTdvehaliL3IqkaQaw%2FtojBFovWIiX6rWqFc5YEZjq%2BS%2BpdR2fTkbphO4ACBCSCFE3K1EH0tomouV2wM%2Ba705JPFV1Hg%3D%3D&amp;nv_mid=80264238363&amp;cat_id=50000815</t>
+          <t>오조이</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>무료배송</t>
+          <t>https://cr2.shopping.naver.com/adcr.nhn?x=DC2oUXUfD2SzS4OJvTORjP%2F%2F%2Fw%3D%3Ds7oVKVVNXn%2FiiSnTj1YGAUIpKXiPoUGeO6TkgYZaLiRDG8TSXqowazmTlUytSG9%2FfN1%2F0JuQuo%2BZ2JfVbbnqnEvRTGir5N5EzHl4l08e946Sa6Cen60P8EELHr68fP8xWSCE7%2B2jlJ%2FdNlgPcGHqZPCWqSQWm4%2F1%2FAHc%2Fii%2BQ14xZYJ6mUnLzAYwdI%2FTKyKrju9Ua2HXoe6a7s6hBQ5tX%2F%2BjZLqMiH6wIDtvAB1g%2B2W1lcn%2BHxHiMKYtViUf%2Bf6UX%2BNW9U730MjWu4XIlvq9yYWWYkHDWI15lHgDJLrSaQu24sCk5j%2BU6mskk1OxhLPm4EiAKcYU6%2FbGG6XjcFuKPKdMl3CVb3l6TmD66CGQWnjXvei6mZj7viDC%2BF6nbtozd2eMBC3N4jVs%2FOABGE6BtJqXrcJvxBf2FZWteNIijy%2Bdds8HF5fH%2Blhn3uemkpj9TWu7MOq5Qxco9MuFkXmyqJWKFURBcDbnnUU1T89cDnUzb5RL7MLqYuAznmV9BS1tw46wEXOw3DARIqmJp3OOc6Z5xke2zoh1z9o7dSKc6tZArM8gqrsP%2FqxY1PajqA%2BoF9rmN70SKlp3nH5H810%2Bb4h9bXQR7a1rVpAejDo9ty5XlmgsyaX6K2OPjWJGOl%2BSm%2Bn8KRd64bMGw4Cb0ylHI0Jhfx0z3Kbx5zfVCMP1X0pieibOSjjGGqOx9FrIbLxJ1WDJ1YyhPspvYZ1NRcdaMFbwPJUNHIFnPbxi9vDatIKbzJIqN9z0g0LIuksvUz5ay&amp;nv_mid=82411849048&amp;cat_id=50000809</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>카드할인</t>
+          <t>무료배송</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>/--/</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>안나수이 판타지아 수피마100 티블라우스 3종</t>
+          <t>블랙마틴싯봉 수피마면100 시그니처 티블라우스 5종</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>최저71,880원</t>
+          <t>73300</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>판매처 8</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>등록일 2020.04.</t>
+          <t>692</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>/--/</t>
+          <t>2020.04.</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>인기 76,710</t>
+          <t>현민</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>https://cr2.shopping.naver.com/adcrNoti.nhn?x=DPihFkxoLdr9Dwo%2FCwpfQf%2F%2F%2Fw%3D%3DsY9604Gm6WadDeL1QiJfCu8OsIHaUcVVhGfOrlclakhmYhWugNh%2F%2FIoaje%2FOmJcQaZCTn8B8ebu0qxaQip%2FxMYKyEzvSAG7dd88UN0xe1MG33I9LudAwCKKC7pYbmqHu0ed1u%2BGZzvQTE9AISghTKhBifUg01cTI4tD9ClvlPO%2BdHpt2RT%2B7NmsqnhBJk1KSZgEGFQPJkjiU6etHZ1vuwmw1e2F4KmlARQjsX0wWOY2c0CuJay0ygFWTFYf666px0WH3i1ijLkGF51f9iwh30rqPJowvBrVy09B4f%2Bi2B2RTdODZHLS8csmEgCKH0QHz6gshoeuXggTVhd9iyPBesjsNjbvXN3Wxiau0h6XZ2dyzgUSQq7HW%2ButtuzE8czKjoXkQZKI%2Br8%2Bh5SqVlx%2Bvi1NhucTuK9WaSEWZhelmXtBe92BklrXx5pbAEGnjMUIdoJ6i%2BF5k%2BU%2BUbcU8KxMcJl%2BAdnEkQN9dA5BZ9pPglCoM%2FiQ0%2BabkocrL7U6uqCzOL8hoX%2BFGyojmHQy0mcPkM2RYd54cgYReVfdw2v2fGAHIJA6Nfjeqbh53e7Vx1Ea7dTi8oY7DVU%2BCUrLLBFV0V3GPhNwd78wJCRxgxuvWHjnsMWfTtV0Ks3NaDc9JXRZF8dHd7rNLqgY9aDKxrGbrS3jLfQIpZzh%2Fxy1lUGzt0E0OSsmpdSIsBkX%2Fw1u7Fl6WCO8MMh5a9hjPuDqEpedhBc8k%2Fk%2B6vGEyGxfvHxxjp6Kmw%2F6MepGwvdJ%2B%2BacHTYu92PovH%2B1g%2FeyhaiKhXKJsQYg%3D%3D&amp;nv_mid=22392427790&amp;cat_id=50000804</t>
+          <t>블랙마틴싯봉</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>무료배송</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr"/>
+          <t>https://cr2.shopping.naver.com/adcrNoti.nhn?x=h0dN%2Fn%2BbQF8dqsd6GhvM1%2F%2F%2F%2Fw%3D%3Ds08Pnzl1dalj99lEcozCLT7IDHXhirL4cqu8qsddBuFf%2F2H%2F0vWBlTxcIExg6FMhyWPvqqMiVlROkL4uHWxNwoCDGLrOWNrsqzcSzm%2FWITkgssfiJjUrphdbmbrGeOpInHOASqjduVcFDWkaeDXUScyzWCOIjVz3V6cyYd6GJCKDcnpDnuXQlKh%2Bd9F09msUrL3mYiZdgjDuOwNbPndIfByiiQnbecLCaVDSZQLsX1Spi37CCvsj9%2B3Gb%2BDCmHabbN%2FffpM2pgF%2FHHhDu3s9WNuGYbMtgp5O7JT3lCLVs33h1iy0%2Bnhl%2FSJZ%2B%2FWUf7OGw2pQeyAcpGrN3qdfeNy9TA0DInQTllngnA1yNWKSkSS%2BYcYJGcMIP%2Bz2Gi9L63WAmXhITKobV6vU%2FE0YHFIG5ALikQpo09Lhzx13vFW6NnpQUgSX6M%2BgFWZMHWzjZEqqpEDLMJDQIcsdIOJt1xKIJD%2BXlK5kYd0L3zYsKddWoP%2B29agRMpnB0d4McVATdpvhZdOEFDVl3%2BRiAy4KK%2BMIwXRTD0SZ8HbQq94iaq%2BSi%2FnDYGjP0cpk%2F7OBApLAyxPRaqwYffB9%2FXRbD%2BzHF0lW96PpzH1ixxgjPgU%2FoIJZlDvsmHzX2YiEVgwKppYu4GnuSkYHtJuRVN9BaP9PymDc%2FEojeHyr7Tj7POhUfKPeDJqt4wkiYjFNWXpK21zPzLCVkqkUKdP9szPE0G90U0vyZLeHFglVetM9VbTK1RvXautpbmnaMbwMzHV20JGHCD5qqjfwk4%2Bf%2BIu599A2zhI7AmptWS1sPhecfFh%2FgAGr0FqY%3D&amp;nv_mid=22471827481&amp;cat_id=50000804</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>무료배송</t>
+        </is>
+      </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>/--/</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>아노락 바람막이 후드집업 반바지 트레이닝 세트</t>
+          <t>지오다노 여성 브이넥 반팔 티셔츠 솔리드 329523</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>최저28,790원</t>
+          <t>5530</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>판매처 10</t>
+          <t>332</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>등록일 2020.04.</t>
+          <t>720</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>/--/</t>
+          <t>2019.03.</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>인기 29,900</t>
+          <t>지오다노</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>https://cr2.shopping.naver.com/adcr.nhn?x=wSH5DEN8Xbldul33mZDAPv%2F%2F%2Fw%3D%3DsKRjoaEV8GLJEwa6r5gAq2iURtVGH%2FIWdcfeCrNszUH4ljIq4bA2Ad%2FPmZuOxK%2BiBWN9TnzUDdT%2BK65gUhSM62IPrMErd4igdqM0VPT%2ByWp64nwvHgSLijPmCyPSY%2FLf1yWS4ypyDpg2hADLoEMiFbRH4WQ0wX%2B8g%2Flt2iRmYuK5Ff55nJ94nNStCk2x3W8S%2BF%2FLnigH69dq4eau7%2Blado0pWnIrSR%2F1TV3%2FWOWSZwqljOcsEzW75A1KuNN29x65jr9UKO3zNyf3v1YZ4%2BSY0Hj70eUtzBzAvuV%2FSEH06pBp0%2BS6VYh2rnslveCsWjwTdZRm7MgY7SYDNR21zFjF8ea0lrtYns4LzLXN4Dqoz%2BxzTaK0mauSCVUnArmXtR1g6PlxQH7UaL%2FuXfhLuJbvFaQP8sHV9oCNzAKP%2Fiio%2BeHAMQPY4IoAW3g9dClPuwpkHaNEI8LJQmxefwiko22mxrUX7pmtNq%2F4ogon8neLUYCtqZTs3nq9whIZlHUqpBPaM5I1Bsui3hKkheAOkds2MV74wZgK%2Br17O9LeoUrkuyN6EvYpWbBXOPaPokXqSUgKG3IEeckfDOU6OZ8wA2AglTVKL16W6UoVwBPksN6fQAhQpP2RNjsk4due0n%2FvvjPe%2BHU7W0C9Zy1xhHb0YeXHI535NrVL4wnXQhuwT8UGXHwunm%2FkEx8irTnx0cQurtpoDdRk06jtEEatv1lUCoVMtzg%3D%3D&amp;nv_mid=82427771397&amp;cat_id=50000818</t>
+          <t>지오다노</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
+          <t>https://cr2.shopping.naver.com/adcrNoti.nhn?x=TDJV3ErbXWUnLCacBkzEA%2F%2F%2F%2Fw%3D%3DslsP73%2FqavfqOKQf0P9YljTFJb8PI9L8w2hIztw%2FjiHIttKvGt91HcdBuBrh%2ByDKqN2uaVRsEDLCVnfvO0u%2Fw1QoQoont2F6zDNea7FOW9XzNS8CH46AsQNedVuvWJRHDOyGJdxwfziw6dToaMTkMQw84tw5BlX7%2FZ4ikv1ZtZ1Q6OqKy20e0jK5yhfbK4%2BnS4oPmlclzOYgBVBAg7qMjXxG5aebsxZQD3YYEbCqJhuX9d1ic0Lr13CnSSVsQMDokumWW5WOgJQe79mxFDItlaKZYwVCAg8GZDYBeVxvcdUCkVPSoAjTXYwapAJvXHMcW%2F0lzHppVezxkUS%2BcKi%2BZssVSjeiL%2FqRGyALAHVmWfx0NtvmkR9AXSVzSVIC3GMCvUtDJRPWYadGXXsZSxq0ev0vzvg%2B7Sk2187HPMvJEPpUrQs4ufrtaYXwpxBeHcMd%2FBxSjHjytME4dccDtLkwB%2F%2FwtUSgiHvm3BH%2B6yMIyXq%2BIjtsCkUdr7kZhYldPZhdgVDxKJqbLrhJpl5quj%2FZEkYW%2BEi2Dilmu6010fKBkJIaPfvG%2BeSBTs2ptUlRnnibN3qOWBj4NCKDFsIxUDYM4kOMByjrjmdUX5bWFH2zqj9n2Avw0G6308FzFMJLD84yYNMmJxFiJBSR1GPOjvWVcsbLMs6cA%2FKzzO6A76OOTa0XNJBnUl%2Fr2W5IN8oVr74qwMt9AilnOH%2FHLWVQbO3QTQ59HTw%2BwL%2FiPxVbNHWgCP2SQeWfJqt7TqoJ5zjXEe15zgoqe42AIdfnbw3NUrRZQTvcFq5Wll2L5nsiJ0DU73yXYQiox%2FWfRvlkukeWRAgND&amp;nv_mid=22648635138&amp;cat_id=50000803</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
           <t>3,000원</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>카드할인</t>
-        </is>
-      </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>/--/</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>보웬 타임 주름원피스 2컬러</t>
+          <t>지오다노 여 T R 슬림핏 슬랙스 410506</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>최저47,300원</t>
+          <t>24630</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>판매처 21</t>
+          <t>476</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>등록일 2020.04.</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>/--/</t>
+          <t>2020.04.</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>인기 47,300</t>
+          <t>지오다노</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>https://cr2.shopping.naver.com/adcr.nhn?x=UC5T%2BDVczrAb5G8Icmry5P%2F%2F%2Fw%3D%3DsGmHyObPvhZgC9j8sc8vRd3%2FVGyWYrEJ%2B6cU0eTJNdwbis3EefKJ3enYg3l%2F8ao8I32o3AH04UVuVLgD%2F3%2FAiAOcMrfYrfTR9tQ9wx21gXnNXcuKmbIzGjzOG4TWyy2XayWS4ypyDpg2hADLoEMiFbRH4WQ0wX%2B8g%2Flt2iRmYuK5%2F5g4KEef%2F65hSDrQyc4ip%2FqOXpl%2BTTHKvGxjUpVXSxkpWnIrSR%2F1TV3%2FWOWSZwqljOcsEzW75A1KuNN29x65jr9UKO3zNyf3v1YZ4%2BSY0Hj70eUtzBzAvuV%2FSEH06pBqXSoBeh%2BrpEUbKLWqUdhfqpLWa%2FWUDVAuAnX4fupea4SJOQRIhwUAx%2Bspn8vX8oYCD%2B%2FZncnYSh1RbvxakKTQUVDfqsq0hjjJ8bYzSf2ZM7sj9P%2FiGDQ9kwHE95uQPGcaFNV5NhGJcCopcb%2FdMqxOQ%2BJ6ba0h8a44XYFN3fMMqCl%2BZq%2BmTdlQPhkGsX7KXeXve6LCZ7IriU9fSjLCSlkO45M99xnoSaTGeo0d8KANvtSkWu%2FlFCtY%2B692Iiz1TTJuO%2B0lavMyw2KuMx5gA318JVfCa9L%2FuAK1%2BOQK%2Fe4D5R%2FyCCnetoUu3z%2B6KG8OD3IOkK6cQh6HsA3AHhEXHLnI6PYFW0lYc6KThAgJsxWPd%2Bg%3D%3D&amp;nv_mid=82450816403&amp;cat_id=50000807</t>
+          <t>지오다노</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>3,000원</t>
+          <t>https://cr2.shopping.naver.com/adcrNoti.nhn?x=vbg73Z5%2FjEjP1RZakip0Qv%2F%2F%2Fw%3D%3DsMSBLCz1bUMLuLwNAxhtjt3k%2Fxuhe%2BYfiufngLN1CcySmt6cueva5QYzEehX21oogkAmw46Qvtwgparg7bTiXLlwf94XcT4fvKdBgjonsA1U4nlDbjlBYnjgkBZf7W3TK3YPZ9FyDRX3dW98FVjVbo8QKZf3fx8ugI%2FzAmPjCdl%2Bu8eJz4JY7n%2FYZrBvOMQZnOmpKKzH6vUfWEJNSf6AgeDt3EWNs0vtr%2FM%2BqBT0UD1s9fkhUbrie98Hea%2Bf15Y%2FmT56vi4AeTrW8Aya%2FzOgyBFk7C8Gbmd%2BhBLk%2Bb9%2BSfh0dgFtyp%2Bo8P%2BgijaulGBvPgXcff1J%2BAonPAfNShOSqwYYlFAdf1OFsetsPTCIBnAuWvYwmJsa4bvUi%2Bv3z9EVhLdwNCixGWra%2B5W2Y7JkVEc1ULICAIu5HD3ltraMZQLLF8v7AsoHgcEjrccZYtXjCJeGTHSjEkzjv5%2Fvxbu4VmHlJSQHU14HlUjXcomCBvqmbG4bJ4h4%2FGaxhQvA7LEXd2%2BqOuP7Mzi0ENkzUIes0R4uvDrvh6%2BzCq8cpxipwD7GqABe9wtXWsOJAy9iOZOqt%2BTT3jh69SqcAEGlqt0HajbyXgCznpbyP3GCDdfSnn92qIN73Q3Yc%2BpU%2FA5A%2B8spbPvfXTz61kEfW7mfE%2Fx6%2B5h2pGLysvBYVRaIiyVspTh7kz33GehJpMZ6jR3woA2%2B1pzQMHSPDFMm0fszJxDJYeXFXSv4e7k2yNnhbEQPHSKeGszQj0DmMJqnRT0zerZuwaUIKgEhrpccwqOIqAJClX3X607SlmJ4q%2BdmLz73O3nE%3D&amp;nv_mid=22388582737&amp;cat_id=50000810</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>카드할인</t>
+          <t>무료배송</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>/--/</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>써스데이아일랜드 멀티플라워 쉬폰 맥시 원피스 T194AOP801W</t>
+          <t>오플 엣지 데일리 썸머셋업 2종 SUMMER20</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>최저143,400원</t>
+          <t>74050</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>판매처 27</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>등록일 2020.03.</t>
+          <t>235</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>/--/</t>
+          <t>2020.05.</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>인기 143,400</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>https://cr2.shopping.naver.com/adcr.nhn?x=qQjuiC2swBrwdTRgi59iw%2F%2F%2F%2Fw%3D%3DspZ26JYmE%2B6WGIhNinXCtetgfa%2FeeZDZ5gthIC96ZLL1oXhVshH0hYcWCRexSDtygA6D9VrGGLOrrl9uFgMItBOe%2BJ%2FxrIpXBMbaANHzpblnNDYEXgV38wOwq855aZVwfyWS4ypyDpg2hADLoEMiFbRH4WQ0wX%2B8g%2Flt2iRmYuK71OHE544bz8iBiSqHhI8fqJpSRzDMYsnFllvsQcZnoWkpWnIrSR%2F1TV3%2FWOWSZwqljOcsEzW75A1KuNN29x65jr9UKO3zNyf3v1YZ4%2BSY0Hj70eUtzBzAvuV%2FSEH06pBrqL%2BmL31AOl2QC2Y8krLD5hF62byqUTEsW6DbkWQIOHCJOQRIhwUAx%2Bspn8vX8oYDeeLj7%2BgsdACYyVKfNNAXoVDfqsq0hjjJ8bYzSf2ZM7l%2BWdueP74MA6KDab8GZrKcBNymDjD6D2o4CPmV8xDX6Q54R9D17yfCEOWLknJkH1UNQqfJ19AAemE1vUr6Kner%2Bro6E2QCDm0i2LBU7Rj11LuL1XSjpbXIR%2BIIn8GHIemS3usxnmh5ATZyxXYUuu2aUtBYQrKmOAoNoIwC50inr4q0a31mKpCNU932J3b%2BwZicrfZPHFk6o7DQt06vJooUCv%2Fh5%2BqqdmZ%2FeqT7Jek%2Fo1HVOB4%2BoeIOHuKImaeY6YaZay4CdN6GUTewOvrzA2XRJ80lVv5P4zNY1umlgOw64&amp;nv_mid=82376764345&amp;cat_id=50000807</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>무료배송</t>
+          <t>https://cr2.shopping.naver.com/adcr.nhn?x=JOshMwVDERdPf2mSIq%2Fj2P%2F%2F%2Fw%3D%3DsXeHMjZuc4WPig7cEHe5zv2lZfpVS6zBgDQIvdq3u%2FTC8dIMZZIxl6t1VtgVH%2FoWOXHsN8P3P5DII%2BTyvE23Zqm388%2FHc8eplPfYtF11wrQAn2MS%2FlVXziyWGqUmNmgn8yWS4ypyDpg2hADLoEMiFbRH4WQ0wX%2B8g%2Flt2iRmYuK4o%2FBxnPGBsLAOjdM%2BN51gs%2FgQwchUP5YvtThs5tmke0EpWnIrSR%2F1TV3%2FWOWSZwqljOcsEzW75A1KuNN29x65jr9UKO3zNyf3v1YZ4%2BSY0Hj70eUtzBzAvuV%2FSEH06pBpI66BZtQlv9%2Boie9TggB%2BGGDToY1R6wFtFkRoZH4j%2FCcVHh7Aj5BV3Yyan5wc%2Bi1RfCJKOWJXeppsIMdh9Gm22PlbPNikyA3A5OqaEkmjr%2ByDNVC7tA0Gy8cYaBA8QQqbkKmyNw4Hek7OhFoA%2FmEFH58ZhZwXUNq8d%2F6ASPVtHNropJeENQ80%2FhXrGo1aJsWiq52jqlEtb6ouRYQpxQuQSepMZbsmHUjq6AkYyJ0grSfK0olapV%2BNERIWDDPDznoNwayze14brS5TEJ3Peghq%2BPxxKLMWNOAYQg3L1ZIvs2kkcX0H53KiOakVI%2BPJmn696CMq0GgBpotHGvaHvLO0%2BAAxtfC0VL3%2Fq9RUJJFdM9uHFglVetM9VbTK1RvXautpaD796qtvdzPYx8o%2BaUq5KDUlD%2BpJj%2B1wQDd9eX%2Ba6bknzSVW%2Fk%2FjM1jW6aWA7Drg%3D&amp;nv_mid=82422114920&amp;cat_id=50000816</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>카드할인</t>
+          <t>무료배송</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>/--/</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>오플 엣지 데일리 썸머셋업 2종 SUMMER20</t>
+          <t>게스 여성 L톤 보이프렌드 YK2D9079</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>최저71,830원</t>
+          <t>43050</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>판매처 25</t>
+          <t>174</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>등록일 2020.05.</t>
+          <t>83</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>/--/</t>
+          <t>2020.02.</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>인기 75,910</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>https://cr2.shopping.naver.com/adcrNoti.nhn?x=C%2Bj3ZAYJrC9DY6fjMEuKav%2F%2F%2Fw%3D%3DsGE8oifusTh%2B9%2Famnl69%2Bd2cegbMiFYAFumNlcp1FEE1fRcBCPHd3z3PNy8TV4n3sJ%2Ba72%2Be1IVYImZrzoDJeoiIV0IbiRILtSQm2C%2BosoG9mvUgBSh%2FbYvqcbEVBygP4ngu01orXw5THnueqGrFmTGkwbkK1ewMe2wqUfaNlTNI8hpGfKYhMSVvSO0jS6h8Ri%2F8OH08jUtsPfDP2A6nG9%2BjZLqMiH6wIDtvAB1g%2B2W1lcn%2BHxHiMKYtViUf%2Bf6UX%2BNW9U730MjWu4XIlvq9yYWWYkHDWI15lHgDJLrSaQu1SsE%2BBUAjecG8MeG%2FNqLgjL%2FkjAS6iQ6qU3h%2BD5GdqiUL%2BXvE%2BIOyUlGtdMC31E1Xg1JX0RWnY1c5Mea4xYg4GpAkSINx9Fyw%2F%2BpuiOtGKMudK5DCGvGgQRI69xHTDl5pAR3SxVcw5tZWvWE3O4r5c0K7bBPV68S0T72dcppjzMVFZNHVHV36gEE8wn2eDHFtvU9GbARyhCqAzo5hBuWxSB%2FhN8VyjDfY1zDP0bnIc5EaX%2BIDBSklFebNolHQGFv3SSHPbvg5ei6e4wiSLZB4pJlZKFlPDYCKILwgcL%2BWmcB1O1tAvWctcYR29GHlxyOd%2BTa1S%2BMJ10IbsE%2FFBlx8LVMfe2fXqVZg8rT6HlwQTPptWS1sPhecfFh%2FgAGr0FqY%3D&amp;nv_mid=22680587728&amp;cat_id=50000807</t>
+          <t>게스</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>무료배송</t>
+          <t>https://cr2.shopping.naver.com/adcr.nhn?x=5K6iDZTcv4lBXamtZkNjAP%2F%2F%2Fw%3D%3DskwO7NNGENG51jLEh2BAununNqhBTJKG2w4JDbFabOPjOa4RKqm2hfAOD5tUTjukc07OSjBv0jMnURiTNEL0DeNn66IMBKGgdMa0dgZ6MMh4vuCO2V5oj7GCl6n48x2SAP14fN9k0fh%2BDC9UTx4i7qiQ6yRPz0Bok6MuLLO%2Fx%2FZCIPYGzaaiZ%2FZ31Oc7PMmMQBXDdTjdEeEKHwzVh2NmsyyECNpPv4%2BuKcQpy0n55klapei8o85zv7B9D37qqN1%2B%2BfOJL93eaXr53ufr%2FnRJ7cwX4Y2199gcDtbO7VfdoT6UV0X70ZcfpaMSxGJG1XtphhQOMKxF3qozx4G92SRmcJn59TSmgw%2FWO6nItwsi00SW6HOCCsuue5qPMG4rXeEv%2F87jaMVgx6Cssm%2FJLtsbGaED%2FRZdqYIoqTowh%2BlJv1BCRbNRzE70XBu6rZMHTlsQ%2BLxEQIQKW2kn7BDD%2FtsJF%2BnxwJkBy%2B%2Fbic3B%2FIbh8UhfV1CkfADzFXSoqizCg3pxVb4nfK1ahHRhL6Cc2nCLPxWg80zwkeDCept2xhVi2lXoC%2BsvSe5BEQ2m6pub54W8fOXV0EmR3ZzJZh78nRMW0DqBWQjcpQoJMSgJb8SONNBKwnhfMDrN4Yq89IF3on89oOS2UiiTI92xqQAxL0Kzy1gsYwrtgcP2fAkED2aQ%2FaTxZW07hFyp9eM9%2FluCUrCSh&amp;nv_mid=82389389442&amp;cat_id=50000809</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>카드할인</t>
+          <t>무료배송</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>/--/</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>아디다스 우먼 아디컬러 3ST 쇼츠 FM2595</t>
+          <t>1+1 찰랑 레터링 레이온 반팔 티셔츠</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>최저24,220원</t>
+          <t>13900</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>판매처 85</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>등록일 2020.03.</t>
+          <t>678</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>/--/</t>
+          <t>2020.03.</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>인기 25,900</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>https://cr2.shopping.naver.com/adcrNoti.nhn?x=O03juy6S1riAqBIVTrbM8%2F%2F%2F%2Fw%3D%3Ds0dD69xR30R7zOstKHgHxM35O80o3817tFTM6uhUuWPzX2ECHSilUlr4f31UbtiLUlRO5%2FFnaNQybgb31lDR02NYG93VVV9LWm1G4FbLjQ6NRuCBmsgTzZRknvHllEXWjALGxUj2OT3%2Bac8wwJkmFdSDlKLZbh294pWmL9wOhr3lVMihdVjesLbDShmuEwroxnb2yT%2FvXRDekjEg55OfwWndnY%2FAZFeQMcx13YnxKjV6lopbpieagPRoipJ%2FEZ19DagiK5o1NShQDksdLRQC9a2wx1KUZJVUHxfedy68wMUp9ns9j5EQ1NXMQOnuhnWnHzF1WCSSPctcLG8ZeRBB1x2oegTabQXCF%2BKofqT7MmyYMg06vwdYQBb8YCbv339UckozfopCw6uSrhIf0Z9QyRLSACCSmuhenhDJZ%2B0uDvDWTFYtJKZmNL4d0xQZgn0uJodFQB8rvW8hm8tSIyqQRkbZOZ%2Fgo4idktl2jGAygR8bhCi0j0L%2FmXbKxk%2BQHpGZ5jeMz3gFC1lkzkJ1%2B9f8Gy%2Be238QDzrSrwIXHWYNx9Ad5OQW5gRT%2BhDFy107ztbHxDcRuR0fLaloR806k6Cxju5%2BOfdnJfbj1rs48ToYzEHwNvJaYqByDV7CgdhghzbgtTFeC%2FlbvS%2BtUi1NIjOejUBARTXG%2B1mjpgAjE3XwoX%2B8%3D&amp;nv_mid=22436135806&amp;cat_id=50000818</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>무료배송</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr"/>
+          <t>https://cr2.shopping.naver.com/adcr.nhn?x=8pM106l%2BgxHlt00oDvbdyv%2F%2F%2Fw%3D%3DsByArgG4v1hmHHJs6rc3XfqrUl%2FwrsIG69lro8LorUnzvJOBP8mZsYLRYJXphk1dPpmcsA09d94POQC0tD8eoI3gYfPbS%2BCd1jJtyyLW0UYo1w70OwRopTJ2yn1Bo1LUORIi5tDHzsRqj5sgdyWDrr0IJPERi6aV%2BZLQJJ8iFzetUMYV%2BfaIn2eQ38wOm98VEAjNKjczNjXVm7wIxRT1GYnWLLT6eGX9Iln79ZR%2Fs4bDalB7IBykas3ep1943L1MDQMidBOWWeCcDXI1YpKRJL5hxgkZwwg%2F7PYaL0vrdYCbjyrh6O9QM%2BnZTPZ1VfpjV3TRKN%2BgrtZoy4Ttlux3CahIkwDFvjY0cZQ0KnHrKY1djnwFc%2F%2BjW30a9aqku8Gq1rtCjroQL986Lt6PNEuSs6L5zRX%2FZAsrS3JWwy3J9ewfR80CxeiXRXGB1f%2F7UX9m9CC0kFYubqWnuRp1f5r0EkpmrL9ctkGvjkZ5iGASZTLJdS6cooSSRAq%2FgaWGKtqtuaH%2BIUv%2ByxUtQsky8faFUCUrfVjrF%2FC7JqFPPte9LH7LoIUaAozMwjlIafafzqOVwMt9AilnOH%2FHLWVQbO3QTQxQfyik3GtVnp0yUfMhRn8MBE%2B3BVjksClPsr%2B568Um8BaVtgSEMgdpCIoML2cW0QC%2F52kHeqZdztrECbHmW1KWnmRlbm8%2FdBQ8vct%2BAk1fxLMYOFGfMi%2BrRFWMW%2FVXRdMCorTg0XCIFUHbBMJ9aEis%3D&amp;nv_mid=82390064300&amp;cat_id=50000803</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>무료배송</t>
+        </is>
+      </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>/--/</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>1+1 캘리포니아 라운드 반팔 티셔츠</t>
+          <t>에셀리아 썸머원피스 1종</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>최저14,500원</t>
+          <t>74970</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>판매처 3</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>등록일 2020.03.</t>
+          <t>223</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>/--/</t>
+          <t>2020.04.</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>인기 14,800</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>https://cr2.shopping.naver.com/adcr.nhn?x=vXjBArjb4JMwsUQU3bryPv%2F%2F%2Fw%3D%3DswUWaJMrpIaey93FehtYrV9IFcJuxIPDqMgTdj382aT4yjbhOpO1Y%2BFUzeCQwNZS%2F63RMh3xbUZXGzB%2F72cSKsGOdTI0MlnmiYMWgtyX7HLtaKOYj8DEBECvkToBywJZzt8GwiNr2u50NfBoE4uPPBmjqzAI07v9t28ej8vJLVXljDUC2JotmSWjMLpZqnCWKhdExPnCPd1q%2B8hlBAJbbyYF3H39SfgKJzwHzUoTkqsGGJRQHX9ThbHrbD0wiAZwLlr2MJibGuG71Ivr98%2FRFYS3cDQosRlq2vuVtmOyZFRFVGa%2FvzTEuu7IqqOo%2FwQkcJAqWHMi1p%2BMMO%2FHuqcR5KYhRNUgaXArVAqsWyQRmqT%2FuNGAY%2BzZJOo15uednArTHTW2bEY5GeEj1g0%2F4yLhQKC9P9YHhX0Ml%2BgG2VJM87ygPVvZVwY6Acdm3EqVcpE4hH36jL3O2TO9AwSQBrl0UpO7hGUQnZmYOj%2BCaLyPrmO9RhAQA7XGaEbo3WI96Hw9Vuxi4S5q7n2ynN%2FlSJMdGc3f88q%2F96CCqW4V9gaeU6a5aUI7K93h9oMXMQAtmdvRhJ9L4BBo1eBTIFn1h%2FYWG9%2BVzrPX80v3MfdrOyThJ5PUh%2BZX4DFVYrhc2TD2ojsT9urXJxpG2ueWdbW1RVnQtyOHFglVetM9VbTK1RvXautoYp8bC6ecIqW79RmRAzVaYuJSTjQ8gNOJzLuD8aHFLEknzSVW%2Fk%2FjM1jW6aWA7Drg%3D&amp;nv_mid=82407350938&amp;cat_id=50000803</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>무료배송</t>
+          <t>https://cr2.shopping.naver.com/adcrNoti.nhn?x=SeIVQ6HOaytzkTF9W2dN0v%2F%2F%2Fw%3D%3DsxuFm%2BSweeRmaydkMMCkanQIkhFlg5rxeCJEAkHaxvBU2Hd2V%2Bg4ptWeQmg49tNp04DeRU5HH33mWtZD6JJhymfLx62JYKm4bHDa3lY2KuCdqSRMWZ75yxr2E%2Bc%2Bb5n9hHOASqjduVcFDWkaeDXUScyzWCOIjVz3V6cyYd6GJCKDcnpDnuXQlKh%2Bd9F09msUrL3mYiZdgjDuOwNbPndIfBwLWQDqTuxWhhjaHfIcanrxRS3G7mtX%2Fn8M0Pw5%2BkzfBN%2FffpM2pgF%2FHHhDu3s9WNuGYbMtgp5O7JT3lCLVs33h1iy0%2Bnhl%2FSJZ%2B%2FWUf7OGw2pQeyAcpGrN3qdfeNy9TA0DInQTllngnA1yNWKSkSS%2BYcYJGcMIP%2Bz2Gi9L63WAmCR0ZX11UyjGUUzbTPBY%2F2tJ0wHavFCCwIHArEmCD9Vo1JAGjwdApKiFRtgBjv21jfkm%2Fk%2BuIHb1jqO1Mm9Lr%2FkuklaEM2C%2BPaRGQzkZ1VasT4GNZZ9nDQ8emf%2B6Ut1omjO7wWAS1vhxS2Las3kb3VxV0Zmecf3e14kGXIFS6%2Bugq3r2sX1M2ZaeFSxSksH3zBXY2IcOycElRWOnisaEVni73w%2Fmzx0npZAvLkl1Pbt%2FQxvz%2FOaraw%2BK6P6VVfEn6DsJ2rkwb0t6eXGfAxOlFZLujtQ57mb5lIFsGY8zZDoQdTtbQL1nLXGEdvRh5ccjnOHLn8YrioA4O%2FZlLxgVSwvxAsgi%2F7RiBAsjIYBOIMNBU3Q0gbgvgMfHUtykt0GrO&amp;nv_mid=22468418993&amp;cat_id=50000807</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>카드할인</t>
+          <t>무료배송</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>/--/</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>인스타일 여성 썸머 실켓 레터링 티셔츠 5종 반팔티 여름</t>
+          <t>지스튜디오 20SS 시그니처 원피스</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>최저40,830원</t>
+          <t>74940</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>판매처 18</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>등록일 2020.04.</t>
+          <t>516</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>/--/</t>
+          <t>2020.03.</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>인기 42,690</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>https://cr2.shopping.naver.com/adcrNoti.nhn?x=O8%2BV2Gn6JNu7OW3rahbrzv%2F%2F%2Fw%3D%3DsdjdpWJQXUhQ%2BtYnryqs5tUf521m0jEu%2FCbCl7hu2I0HfBEZdguQb%2FhcLUepm4BARwLN9BTaOoKtVuPcDZ26nmOH0nCCn2HulC5Rnbc9tXfgop7%2BqZ3GxCzeQqy0dQMz0SJ%2FVgEcvaCCc%2F7rMSb5HmhnnSmvhp%2BKjlGfDEMwPDmMrGo6rLrqFdFLlq%2F7tZDlluOyCQtZkrkMhnGGHBxJmd63droyoosb%2BmRznjQrLQ8WjJLgo9jGuZrObNB3julqV6DcSu%2FAedtBM9tCkInmhtApFnxcHznLdPniaIOEOB4CyU7TaV1lA5fv6jI2L9QARu03tZPdgwNkCQLoORfEmmBvyzBxCVyCtlGqwJkn30ZMn2%2ByK7Pd%2BBYi2ax%2FRU21IN%2FLPxaOcXJN%2F0fQd4gJWR9hucTuK9WaSEWZhelmXtBcTdtbROX%2FGBZY%2B1ejg2noKaRjx1bM%2BkjWGUUYBSvzYhmli5Ma5slu8KL%2FBO8EJH0Pd1w2Mkf9VyAxyW4HsmkesRc4O6H7E3P%2FPWfDygtwf9WtKZq6jUgHjHQO%2FbsaV7yT0Oy5xI2HVCHoYoWo7%2B%2FU4RjY%2BVOI2aIYAiHV5pcvUtC%2Fni4wfANIyhlM2CTHgmeuZKyNVKO9EoXwmxrTUeIst2lur3DPsleN93pqb%2BfVYF76bEQBkycb4jxeQAS6ec%2BCeibOSjjGGqOx9FrIbLxJ1CbNGzxZJFJ8mY72UxKs6SrEDTPpaT0ssWxEpxoMQ36LAKprmkqeK0XqHN%2BialA03&amp;nv_mid=22519179382&amp;cat_id=50000803</t>
+          <t>지스튜디오</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>무료배송</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr"/>
+          <t>https://cr2.shopping.naver.com/adcrNoti.nhn?x=1Dy3UNcr1HD9RVHHPRqpYf%2F%2F%2Fw%3D%3Dsg%2Bq7nPeCtfn4bK73XACkZWQlmwmC7r%2B4BXXvPv5hqXn6E2i3RWwQsFhZSrJdwLqeEagIBqaOu4pBrynnmMy5g3vyFew5AIIQ5KjATaeeld35NpbkZssURnDYciWEzbhWKhcf0DASgQjPyA0grxEsB9A6P6HKgNX7Lx20Azu1E3d8kGrAjm3xoO1BrHld9B5J48kba5c%2FwV%2F2KxsqwPMvP%2BQJJPRFAR8pyQEK1jEOL3jWQhozw%2Bgo6qG%2BRbZKe4yZIQI2k%2B%2Fj64pxCnLSfnmSVql6LyjznO%2FsH0Pfuqo3X7584kv3d5pevne5%2Bv%2BdEntzBfhjbX32BwO1s7tV92hPpZAsnMjD8P97%2FxeLn7jrkHNcT5FFj%2FTiEHKbZ6scMxuthc0T8M6os%2FEMM4pw8rffrt3w0%2BQP1pTEcxN6Kq2hOeR9CH22V1RpvYVCMLQqrAnf3FwNC6UrzXgV60wIscM%2FOdwUDsAwPNseIvl%2BkkoZ8%2FgOmhYp%2BxFVqPs0O26u59Z4733IgP7Ms2XiCfgsp8r%2FupQA9vVzc2jDmeMiprB9oEU2FB%2BesxZIFPRJ917VEISR20ucv5k0OpR7VEMgfvVwDXk5BbmBFP6EMXLXTvO1sfGIkbDVZhnbTqBjL5fkoUrPn4592cl9uPWuzjxOhjMQfOJ9cmTcuAS9XzeIXHV2iGB3auZkitiMobiA1t6EgcnyEBFNcb7WaOmACMTdfChf7w%3D%3D&amp;nv_mid=22281091122&amp;cat_id=50000807</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>무료배송</t>
+        </is>
+      </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>/--/</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>지오다노 여 오드리 팬츠 410508</t>
+          <t>s/s 무드 브이넥 원피스</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>최저27,060원</t>
+          <t>21820</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>판매처 223</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>등록일 2020.04.</t>
+          <t>1107</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>/--/</t>
+          <t>2020.04.</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>인기 27,120</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>https://cr2.shopping.naver.com/adcrNoti.nhn?x=YERQfvByl9mIMeZIWZmhn%2F%2F%2F%2Fw%3D%3DsByqmEFaDjkBOByVod12SlPh4fC3191bhWoBWUGM%2FN12SWgytxSyOUZuAS1fqWLmWWBCCGtk%2FSaUX9YfGfMc8Do5DuKP9Lc5RQRZLlpApvyGKKxR3Hlg%2BrCIbmzh4k1UYMjFLuJOWN7Ni6OwF1X7b1jW2mYzcAZB2y7UdY21L5%2FPF5Jq%2Bh2bMcmaOfFAw5rjz0PohMpP8YBiSP5hP59WZw7eSCVm9kyp9pZk06ZRo6PA1zwYS2RRwzpRLAfdbbh7a9mcmAR5sqvy5FVm0Gh8Wz3cccuNa83Vo4SXDXUqvgWKLCovAgpZUeUtvubg8qih46NkuoyIfrAgO28AHWD7ZbWVyf4fEeIwpi1WJR%2F5%2FpRf41b1TvfQyNa7hciW%2Br3JhZZiQcNYjXmUeAMkutJpC7Z3doTT%2FmNaZuGlkR%2FDSCmXSdMB2rxQgsCBwKxJgg%2FVaHwHdG%2FV8Cenl%2FF%2BkSjbp9Q%2BtFP25Lj9gvyIyMkZpNIOmV0Y%2Bv%2FH4p3S5%2FGXdlZ0WeYb%2FxGDU1SkcAVQFLFfqkJ1l9YFiGXJwWEUP8oYG2Ej7nLzIf6pwjl6HaZLRC%2BEpE2%2BcDt8g3eiD%2BpyQcJ3AL5ZqL%2FZJp8ByCgrMuWy7b%2BdN9bVDcHRBOfhenUbvjz6tpLCx1kl7p2YXjFyNl%2F%2F1LUqG7b7r2ng%2BC4bBrFZP5%2Bx9nJ7pXiQQjeN1gi%2FZ4MErrjs5jKdeRck7GPsMg1bRdJhPOuPzDzeB7YuGhXpzEGbJP5PurxhMhsX7x8cY6eipB6pmwPjRYJlNCVLp07takj6Lx%2FtYP3soWoioVyibEGI%3D&amp;nv_mid=22520741553&amp;cat_id=50000810</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>무료배송</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr"/>
+          <t>https://cr2.shopping.naver.com/adcr.nhn?x=ZrPq13S27sS0oL1dkrhvD%2F%2F%2F%2Fw%3D%3Dsq0QoFBZYYfT%2BVI%2BRNpG9XuF5g4WS2Gh0U%2FbTOlsSkhxCHys3A6TVMzUuEs0lmWHXSyGovWtA9OeuYpz4dgwe78qYLSYdVo0Z%2BtSV%2FVt81PvCyRngM8EgGHwlJrvYT0yDRIi5tDHzsRqj5sgdyWDrr0IJPERi6aV%2BZLQJJ8iFzetav5mtbaZxOqzX1vvyC%2F97WK2uhUgD1%2FAJjmcx46hbf3WLLT6eGX9Iln79ZR%2Fs4bDalB7IBykas3ep1943L1MDQMidBOWWeCcDXI1YpKRJL5hxgkZwwg%2F7PYaL0vrdYCa%2FVUBmy6SG1vqmcNyfCUqYzhxHVzloDDOhfstnvoASpnMGUelY0TTx7TgKTNQ%2FbMbH0krEweL6gwk%2FOPt7aZ1zPlxQH7UaL%2FuXfhLuJbvFafTEcSP6HJRUt7borrMcBsK45bq2AyvNVy33oLPOLkY3w%2B5zUKXU%2FQ7j4bLh1OjVTjlN4B43B0Bz6B7lhnbjB7RpGrUwBXZtnpC5DFeKEwW3iehH4CWnG5C1niDt24bZdFa%2B6KcLpJwqMXX63rlVAUyI1EcIQyg9BqTplvUulUhkaXQ0tG%2BmOwbw1ZR0jDDJImibHtzBsiMZmzo5r4LnX0%2B5erVv%2F2wuAr2VJCNhe2zbxmbUA3OgLryvO1sTUMhTkQ%3D%3D&amp;nv_mid=82453773758&amp;cat_id=50000807</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>2,500원</t>
+        </is>
+      </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>/--/</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>지오다노 여 린넨 테이퍼드 핏 슬랙스 05410511</t>
+          <t>1+1 캘리포니아 라운드 반팔 티셔츠</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>최저33,930원</t>
+          <t>14500</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>판매처 156</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>등록일 2020.04.</t>
+          <t>711</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>/--/</t>
+          <t>2020.03.</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>인기 33,930</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>https://cr2.shopping.naver.com/adcrNoti.nhn?x=6fCnIFycj61khz%2FSjC0SdP%2F%2F%2Fw%3D%3Ds%2Byt95Kyxz00F7IrihmPIspVtzQDpnpsp9OxlQwB79Mus6nw0gTwavNpduXJ3oHbcTLVY6NCoqEjmq90kXjk%2BZ2NUP1fkcd38TSndBDDHHT1oGXiTSevEA6McD3EoGH03MjFLuJOWN7Ni6OwF1X7b1jW2mYzcAZB2y7UdY21L5%2FPF5Jq%2Bh2bMcmaOfFAw5rjz0PohMpP8YBiSP5hP59WZwwBLxfmtggDCkMjhVZsQhgc1zwYS2RRwzpRLAfdbbh7a9mcmAR5sqvy5FVm0Gh8Wz3cccuNa83Vo4SXDXUqvgWKLCovAgpZUeUtvubg8qih46NkuoyIfrAgO28AHWD7ZbWVyf4fEeIwpi1WJR%2F5%2FpRf41b1TvfQyNa7hciW%2Br3JhZZiQcNYjXmUeAMkutJpC7cwAACC0ImDUURG5ESQcjdzF8v7AsoHgcEjrccZYtXjCJeGTHSjEkzjv5%2Fvxbu4VmPEJdSdZeRbReJuabrWtZg6bG4bJ4h4%2FGaxhQvA7LEXd2%2BqOuP7Mzi0ENkzUIes0R8TsdSvs5QJbHQJSOU7WnoxCKISAWAIEpm9J6thfVATtNIvv9N7NOTPftFJCmgAGsl3CS%2BUwEtgs9jWUeaZusVzzhWTClSbMnzTZXmJtFOL3Wz3off55%2BsNleks7vUQKQ2hIRZuxiC0cf6Lse9JKDqU4%2BDz0efw3fr%2Bf7j0CpzjF07nZlE%2B4x4%2B28dQhdp2BwVStyr72i6zVKv2sJwhXlcxMXWEAwQR28z2QnjytyjU2XflI0ozLynKmJrPEoOnVFNR1TgePqHiDh7iiJmnmOmFlvW4bWo3npk%2BtyI8EtxI3kgK63XpklC0L4L%2BhubO9Rw%3D%3D&amp;nv_mid=22497270487&amp;cat_id=50000810</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>무료배송</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr"/>
+          <t>https://cr2.shopping.naver.com/adcr.nhn?x=WYF5rmmtSWu2WSJNJyd1j%2F%2F%2F%2Fw%3D%3DsA%2F9FPrVMNw5TtjWruPGlmnes%2Br1TUhtHAFTj5tw7KxildHQHSaxsWY0fPFWzEyrQQmXLVHO95PUcM%2FaupifRgRzQd4KLW13L1YVtqCfQ%2BaQg4QbllrAVN3Lku212FJ1jyWS4ypyDpg2hADLoEMiFbRH4WQ0wX%2B8g%2Flt2iRmYuK4VIyXcfacfjxk9tW4c86XmiE%2ByIu1hrOv14Yj%2B3VMAkEpWnIrSR%2F1TV3%2FWOWSZwqljOcsEzW75A1KuNN29x65jr9UKO3zNyf3v1YZ4%2BSY0Hj70eUtzBzAvuV%2FSEH06pBqDIXK9s4rWL340Y4G72QfNzPOxawx3r0IOIWzbwtapgCxsy6gnrfRXVBuUl%2FdYNSDO8y9%2FtrksJ1ph5u9ZY18THY%2BoFwMYnkBmLBp8QrggV%2BM4NTLKSGPkaDY9dRA3wQdmo9Ox8e%2F82VIFYpZsbtGrecCA2K%2F7SQlJ2QhTh1k%2BruFcoDGPDuUQlMQP4B2a%2BjszPiZw2TlLzRiy2DZW5ZZdmP54M2OXa%2BSOwXDaamhZdZQUKrJZTkkyMNfNMAje4eLqhZBsjDXq2hreUm9SG1ChCW9%2Bcu%2FgU82mv3kq9voSYrRvsDWAsgVJOG1j5G0fIBoLzvHvGvrI6Wr3cS8cHQBHCt2QDLOPXSkbovhtDp9vuAauyzLMICpj%2F3nxxP3lSh9SZARnxnYyG%2Fx1HD2ynmDAexds20DpmsNeQcV%2Bamtq3%2BFy%2BXHRYNUjFF3CAXMsHNw%3D&amp;nv_mid=82407350937&amp;cat_id=50000803</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>무료배송</t>
+        </is>
+      </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>/--/</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>미리주문10 지스튜디오 시그니처 원피스</t>
+          <t>엣지 린넨100 자켓 SUMMER20</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>최저73,440원</t>
+          <t>60330</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>판매처 7</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>등록일 2020.03.</t>
+          <t>377</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>/--/</t>
+          <t>2020.03.</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>인기 75,050</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>https://cr2.shopping.naver.com/adcrNoti.nhn?x=Qatm3zUiCncvtjq8XzkHav%2F%2F%2Fw%3D%3DsOKlEzFxLSXQRxPugPhZ39HNHYB7mYCZ1Zh%2FExhdorlvj3JC56tBMzeVVSyvTSrF87Yi2D2fdzTpcPn7H0K16uBVNACxA%2BCuXO3TORi0OZ5xgQxmKKCOkBGdS4oEPXxFotAEiom5UW7q%2BL3xMJxoYfglaUn48FSVy6rNI%2B3INTfDobpuk5bnVtnCMyzawN%2BhkaEjbewnHPkj5feNjD1FsukpWnIrSR%2F1TV3%2FWOWSZwqljOcsEzW75A1KuNN29x65jr9UKO3zNyf3v1YZ4%2BSY0Hj70eUtzBzAvuV%2FSEH06pBr0Jz73ZWPXyQxIEtioRxrPFgy1%2BJx3iFfRh6GQn3n%2BkXaETTzNHs5%2FEGWNFb6BqN05vRejNX8DEiF6YnTzECtv5ZpR8tF0hvjdvBjBF2nt3B7iNoOUqPc7iM0VU6HEmIASgM47qO5JK7Xs1IqQ9ulQM8zXxv3blvXAOCuxkpCl2gGnRrnc%2Fncgwy0lDvhFY8iOzNNIrpZtpRLGp5AlSjclLIv%2FSSKKlVhRqDLItkOu%2BT1LeQR9QhBlBS%2Bg%2FCZKQxJSTPlA0MYAflS1Sevx1TkLfzDBUqwFeKLyl91BjvnImp%2BOfdnJfbj1rs48ToYzEHwNvJaYqByDV7CgdhghzbgtbmpOcUA1xMkWUuZIpcNQZVTdDSBuC%2BAx8dS3KS3Qas4%3D&amp;nv_mid=22278437000&amp;cat_id=50000807</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>무료배송</t>
+          <t>https://cr2.shopping.naver.com/adcrNoti.nhn?x=%2BUyYLHdaDNpXj3c8s9tN%2F%2F%2F%2F%2Fw%3D%3Dsyv%2BenPjsJaRG58MrA93DT1ynQtiJfEc73bLe1%2BofAtdgwi94jR0mJeINhG9TYBRkeUOUCTtDmO9WEV6vdPYBOgiWjpT2LJ%2BOdopQXHokaxOc3zUBzzZdST1bMCERMWQSThauR7K8fQKyBlpmjDc%2Bc6UnEWBHe6L69gXxO2LLun9vqTUL3oo6L5WDjdviWXmZrFqBBL6p1SeOSYIaiPo0%2BC2CkjXehANPaAdZ1Vg3J9FHbjaA%2BSPFlgfhVDCRerOVONu54LvSruU4uX5siCm3DX5uSAPJpGghrpYakeFrUR4Kq4gjdCEhabVpdrdq2YewtbVKsYPaVnOs%2F4pUDRWdHLtfdFnzkwu41CAGCiW50SvBW%2B3jvMk94Q14zMFMUtlAIR%2FrMeTnUm0AsXTlT2%2FCz5E%2FKbfCQz%2Bnt9nccTB3CNYMrTQq35YvHx4l7yyTK8zQdFk5j%2FNz0Joa9l633xgwxND0s942SwWOFiZmCfkKo3YnWIZJLUuN%2B2M53L%2Fz6hh885RjqTEzQleuFSVloFzPpRwuWNtaqq98tYwXE4wZXhE1NM%2BDVe9guywhYUcRbHTCDsJ2rkwb0t6eXGfAxOlFZAMHCYiHzYEkWePjMzZTgYQ6YQOkVfNqbgxN2o1iSImtaJse3MGyIxmbOjmvgudfT%2BPsxAiu23M0p%2FX7esxvNwWVX7iC8ZhNiwvQdIKhYiiC&amp;nv_mid=22279773293&amp;cat_id=50000815</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>카드할인</t>
+          <t>무료배송</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>/--/</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>s/s 무드 브이넥 원피스</t>
+          <t>롯데단독 여 레인코트 지오다노 379513</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>최저21,910원</t>
+          <t>17900</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>판매처 9</t>
+          <t>467</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>등록일 2020.04.</t>
+          <t>386</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>/--/</t>
+          <t>2020.03.</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>인기 30,700</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>https://cr2.shopping.naver.com/adcr.nhn?x=HpO4WtbknEFVx3ZVj9TKyv%2F%2F%2Fw%3D%3DsOdNh3EwdjDBG0KkbLMnyatehVXqCfQ5G6XscQum2PDFkdN32cjmAhmMYoGDHGfECfwLtMluBZCPwWbPdSUVq5snRixipLQeO1%2FhPVIlOwcqDmGxaAPOgOv%2F6Z6x1cSQTP14fN9k0fh%2BDC9UTx4i7qiQ6yRPz0Bok6MuLLO%2Fx%2FZDuZbF47s6tP8LtTrw1GHHXYkxPGTG1NX8MQJjhEpUEuCECNpPv4%2BuKcQpy0n55klapei8o85zv7B9D37qqN1%2B%2BfOJL93eaXr53ufr%2FnRJ7cwX4Y2199gcDtbO7VfdoT6UywmhQDtHOeuk4VjwADepTbJAZ9WThIsIBOEKa7BqVR4XNE%2FDOqLPxDDOKcPK3364jy%2B6q57bLavkcTt1H1ZX%2BTKJca6YMLi9D1jgNVXN%2F9Z1qHyw07yZyzVSQtrBATvuM1IT0Cw8X0CHOZmPttvxFRGD%2B90ibM3n9EpTRXHGoP%2FnieDgiFGy8kDy0Q5uTxmXn6W9%2BIklHkHCsocr1Y6YfrDcimu5VtpeLyLe4rkyMtTLfQIpZzh%2Fxy1lUGzt0E0O4nKSp7wjNsd304DO7oXqmIkhlsec4dQbD3avXoLjiceqOk0ovUtp6ootAb1La2cIWcmEx2pvsIuYeDnzxsN8X4Wt3n8hN%2Bw5%2BgL2V97mDlplBZCSjIewnOsOV5zcDAu51GTTqO0QRq2%2FWVQKhUy3O&amp;nv_mid=82416131469&amp;cat_id=50000807</t>
+          <t>지오다노</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>3,000원</t>
+          <t>https://cr2.shopping.naver.com/adcrNoti.nhn?x=XmJda%2FyXgBzr%2BkZyoH08Ef%2F%2F%2Fw%3D%3DsafAvJbwGVj8223w6cPTuTaJQDFYVHd%2B8yxwD8XSzVz%2FWJ9QiyTkll3iJFerANNlxNrz2ttFizXwsRaeztxDjfIqkorDMI1ZxgG2PFkEmLIgio2f6G5Kd4l0d1zY0aTkYKhcf0DASgQjPyA0grxEsB9A6P6HKgNX7Lx20Azu1E3d8kGrAjm3xoO1BrHld9B5JBWQPXD%2F%2BgEqJf2Nncq0lg8kLZzijA5onjbH12MPEzWvWQhozw%2Bgo6qG%2BRbZKe4yZIQI2k%2B%2Fj64pxCnLSfnmSVql6LyjznO%2FsH0Pfuqo3X7584kv3d5pevne5%2Bv%2BdEntzBfhjbX32BwO1s7tV92hPpUaObNFUyvia24M8PgoWcChcT5FFj%2FTiEHKbZ6scMxutyidr0UtWKXKnrUDAYqikyFxVMO6KlPLIdXge6ABQ%2BgF9CH22V1RpvYVCMLQqrAnfyP2ifg1NPBH4RICFJK2ZeQH6NStWTPpONav%2BwOgG%2FQYFRctORycbd5ari2iyzp3%2FT34aRgZ7xumLnqrh3cUZfp%2FLEqCf8HaR7d22DEVFPH7DKZ46BVAKZK7XSaV1jr2geTkFuYEU%2FoQxctdO87Wx8YiRsNVmGdtOoGMvl%2BShSs%2Bfjn3ZyX249a7OPE6GMxB84n1yZNy4BL1fN4hcdXaIYHdq5mSK2IyhuIDW3oSByfIQEU1xvtZo6YAIxN18KF%2Fv&amp;nv_mid=22237763058&amp;cat_id=50000822</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
+          <t>무료배송</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
           <t>카드할인</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>/--/</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>지오다노 여 코튼 린넨 셔츠 05 05340510</t>
+          <t>데일리 린넨 자켓 6컬러</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>최저27,060원</t>
+          <t>34900</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>판매처 578</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>등록일 2020.03.</t>
+          <t>1973</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>/--/</t>
+          <t>2020.03.</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>인기 27,120</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>https://cr2.shopping.naver.com/adcrNoti.nhn?x=%2BHnmTobmK4cG2m7g8OLEOP%2F%2F%2Fw%3D%3DsthygIbQYJXQoa89CY%2BL%2B%2FpupCX1Gj9WHS6A6fUmxJty%2BVWZa8uAHijvkiea9e9GZIxJC849D3e9%2FzaJtb%2BY8HsC3GMjYYfIAvDPOZhppKn6IBfoabMQORrA5%2FR6zPGvL3YPZ9FyDRX3dW98FVjVbo8QKZf3fx8ugI%2FzAmPjCdl%2Bu8eJz4JY7n%2FYZrBvOMQZnOmpKKzH6vUfWEJNSf6AgeBLaxytvqnWPawEQyiRHSBU9fkhUbrie98Hea%2Bf15Y%2FmT56vi4AeTrW8Aya%2FzOgyBFk7C8Gbmd%2BhBLk%2Bb9%2BSfh0dgFtyp%2Bo8P%2BgijaulGBvPgXcff1J%2BAonPAfNShOSqwYYlFAdf1OFsetsPTCIBnAuWvYwmJsa4bvUi%2Bv3z9EVhLdwNCixGWra%2B5W2Y7JkVETqM4I3z35xMaCQTKqrn4ErF8v7AsoHgcEjrccZYtXjCuoTfUyiPF89%2B%2FliaOduEp7n6mjrXYRSJdNXWF%2FTUhUqbG4bJ4h4%2FGaxhQvA7LEXd2%2BqOuP7Mzi0ENkzUIes0R22LHN9AlUrctQB6%2B%2FP3ubPBn5N6ER27fjkyZmyby9yiQgJquhhwmItljy%2BUB9s73luEz%2FR07ZJBLLKTpZkancV%2Fyp5uwfZFChRzpoLtgZ2ABqr2z5p7RznxUa%2FSfENp7dIanUFLCxCOEfflgHyiF4Kp1mRLnm0SehkszlAEYP2iwnQQylMIYLHqqL35%2BSmrLLDOd8Gbz9Z2AgHDTEGhl3ufjn3ZyX249a7OPE6GMxB8DbyWmKgcg1ewoHYYIc24LeYw8SBE4ocCG0Kt%2Fnse36sQEU1xvtZo6YAIxN18KF%2Fv&amp;nv_mid=22262937615&amp;cat_id=50000804</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>무료배송</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr"/>
+          <t>https://cr2.shopping.naver.com/adcr.nhn?x=Q4yVPlepEMfL51rQkXLQA%2F%2F%2F%2Fw%3D%3Ds3fdnHXIj5SmzlrYVsM3qR9CVHgHlF3kyfNJ8b3gXx5XCUvzjrx%2Bu7%2FoRO%2Bp6P81PYzOfsEzzC0J8NbXT4f0lhPpvIb6iSF9sLlNkmtwKO%2BeIoMJ8VxAoGaRDo6UYQGFDyWS4ypyDpg2hADLoEMiFbRH4WQ0wX%2B8g%2Flt2iRmYuK5t0xYbdBYIP2R7YYCbHpmdi1SEoZTXSITbuDszoiJRoUpWnIrSR%2F1TV3%2FWOWSZwqljOcsEzW75A1KuNN29x65jr9UKO3zNyf3v1YZ4%2BSY0Hj70eUtzBzAvuV%2FSEH06pBr30P%2FjOlMyD5gY3sMAu%2F3SnYcUbYxBOauAr5ggAUdAIh39EMKZUSr8gD%2Fw1UyrzQwteNYafmEbJs66HdHslk2MD8Jvi9vcL7ywJ5s6LwAk%2FlaS1KZPxvik%2B7Ni4Bp6L3jLWaulJlKwlaMNUA%2FOSDcnJ1WfIEbpeThQkT%2FdliPQfYAXyAqhmxeB0TBZv0kn9ObVWZrZs3HVLjeV8eGVlPfHw7iLCht2ZI6qdVyD4yIm56qvatjapcdpZutB7M3ZzTaAug4GRgDKazIG8dL1nSMm%2Flmq29XqUYBbDwOfkctdCz6czAgSI9bgPkZ3ghpuYND3PjtpUvvwXmaSsVBgITtPwbAcIJLvn6sdoPZCIYxYObUo18LahD9oBSJKXIqZCr6OY8l9bsIhx81yeb1faUfRVhH4RArSpYQvo29QlLqjOg%3D%3D&amp;nv_mid=80264238362&amp;cat_id=50000815</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>무료배송</t>
+        </is>
+      </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>/--/</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>케쥬얼 더블라인 쟈켓 NGJKJH99</t>
+          <t>1+1 휘뚜루 루즈핏 반팔 티셔츠</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>최저44,030원</t>
+          <t>18900</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>판매처 114</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>등록일 2020.04.</t>
+          <t>3839</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>/--/</t>
+          <t>2020.02.</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>인기 69,420</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>https://cr2.shopping.naver.com/adcr.nhn?x=smTVGpsg6vPbuEDeK5WEbP%2F%2F%2Fw%3D%3DsX3HbxhzZHF2YGHOkjMTOuKrj0uA1MFAo81QJIttBgOK24zN6LvD6VtS0HlZ9hNtUo5a6oQlJhXxRabUhjixMQIenagn3QfXh7rEkTjBYwelIcrLkQQ1Az8nud6E3LFbhRIi5tDHzsRqj5sgdyWDrr0IJPERi6aV%2BZLQJJ8iFzesuvYWodV4fGMb455uDEyqqGs8dQi4i57V5%2BWlmZwt4VHWLLT6eGX9Iln79ZR%2Fs4bDalB7IBykas3ep1943L1MDQMidBOWWeCcDXI1YpKRJL5hxgkZwwg%2F7PYaL0vrdYCYhDtQyr21lhTK%2FRR0M0uAGQXLk%2BQRAN06g6gsDuUVINh39EMKZUSr8gD%2Fw1UyrzQxYLI41x2NvbZ08ygbsejZFvXM8gsJtaoN%2FrD0pt0DpbinQVGLT6N1j9IBhAQbCN%2BOW%2FkyxvhLaE%2BgEOIXw%2FtcbCOCaNTLkFNIrVMutgSuBK6j9%2FMeK%2BnUFynrzj%2BozPEuYf5kOL04nvShfFrzlGPBVShfPtHdBlELDd5DgXWS%2F5VxcSvvswGjPBg4YMbz8eou%2FAVKmVniGwes3F5jQCT%2BeuwuhTm1b62uMC%2BGKcuNlQwJFz5CgG0IZUFrCqJwctjeeibOSjjGGqOx9FrIbLxJ1CbNGzxZJFJ8mY72UxKs6Skr29PzM6tgRtQh81HjIJLQTlzCToGX5dydbf%2F%2F5H0ZF&amp;nv_mid=82424406314&amp;cat_id=50000815</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>무료배송</t>
+          <t>https://cr2.shopping.naver.com/adcr.nhn?x=cFn20SE%2BEsOKsWMw2rZZcP%2F%2F%2Fw%3D%3DsmfnbcwCZSX14NHFf9Rxn46em4Fg4u2qBK8sZUp3Y3S6RniKBTD%2BkiNYQ992dWyBRGvGGfUoAUvnrjHvC%2BDezRlQ3NdRjDQHphHPU2Pk%2F6xHttRuQrmoKjbqZX4cV8fX5RIi5tDHzsRqj5sgdyWDrr0IJPERi6aV%2BZLQJJ8iFzeuJudIgQ3W0esSs0cBIJokybcm2g4Gii3cGWI9TGkkGjXWLLT6eGX9Iln79ZR%2Fs4bDalB7IBykas3ep1943L1MDQMidBOWWeCcDXI1YpKRJL5hxgkZwwg%2F7PYaL0vrdYCZ1WX9KQz%2Fp61YzkTv7G8Tavv8Ca05EgtC89YJukG9TQixsy6gnrfRXVBuUl%2FdYNSC7b%2BGOuvLdQ9FpWnZZrSQVPlxQH7UaL%2FuXfhLuJbvFabwtNY3vR30wHwymWJln7PyRiykx5DNeFHRMEu3sU434GW9YvD94IQVm3MWssqckOdic7OjQa%2BAvoXpIEijcAFXr7pnmedjfslTCO81qu8Jx%2F8UGR%2FMq67yEgUtrrdPZe8MDBZQuOlxehdBLby9DYryO3eRJje9aHyhvxN3rmOYmMt9AilnOH%2FHLWVQbO3QTQ6BKONnY2wZ37yZAnCO6rYaM%2FUdPopq%2BJb9JyjFaybaNRGgwZSzIJHRmU1P7VVFF0Y2yXSaUk5FkFFzdP71bOqCrq0aihoIurDZ3P54xyo6wwKeXpoVvkS3XOxmRMM1ifg%3D%3D&amp;nv_mid=82360127505&amp;cat_id=50000803</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>카드할인</t>
+          <t>무료배송</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>/--/</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>지오다노 여 린넨 반팔 티셔츠 320515</t>
+          <t>오조이 1+1 플리츠 주름 찰랑찰랑 세상편한 밴딩 팬츠 5컬러</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>최저12,640원</t>
+          <t>13500</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>판매처 548</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>등록일 2020.04.</t>
+          <t>3802</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>/--/</t>
+          <t>2020.03.</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>인기 16,400</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>https://cr2.shopping.naver.com/adcrNoti.nhn?x=cHLVROggz7fJwruvSHl9Dv%2F%2F%2Fw%3D%3DsZSYEEG7WSt6ePwtOcb%2BDL34K0NN8t4KOTm3lpRMRID6Ymcloc%2FRx3S8%2BK%2BLV8vr8M5nGCNGWgYSBUcCU1K8Gc3OB0zEJnqoO5ZGorcsfOkpRxv5oyBMlZdX41%2Fwjs6FLIEOnJD937ph5Q9Lj0Ppe1oay45fwm4PDs7thsevANcC24B5NOHz42D6Tv4VPejBSZny7OA61LeS4PupMd0a4vsfd8INri6ReTp1Jc6sZNcdTI84P2QoyQq17Na%2BfLYY5SOnfIezqxnOVTQFxZ7mHabvaHQMBRshCyYqNvNsZ9qYSEggXYblXJMT9Rh55%2BS%2B9YjK5B7NvKxTyCY0Dy6NmzSJowakOBHwiKyQbVOH8gB59LsW4RgipVPKA%2F2IN4cAJ4mmic2vQ8l3OPvPdLBTB59wUzXNaLvM9Oy%2BqxIs2zvlKozSfrAcqY%2BTkz4v%2FCWpxRoNzL4ypw98fnmUYgf1ZEDpJmGoqQyOwLccTJ63MqD5ViY5ju4nJl01STnKwFsdi1%2BL50xomC9KoA1j9J8RmMo3T3FciC%2FWZXaqhKWZxmXZ1VP8FI3PrNNonOr%2BsSkcyWMtCFM49bu0yz8uU8KATRIBsnmkNa5EC8cx1ya1B4Uf200UW4UUhc6v1q8FsOf9hJ%2FUqjn6pnk6lyI6Oek5dnGPi04m00UNpTuGIAPQG07q%2BaxREkP91VXMFTWobyqU3Jl6mPGPpe51LlgOlqXC5zdY7S4o7LNCdviszeXAibvYGrssyzCAqY%2F958cT95UoflTt2ayqe5eB4tr%2BA0HXn9cZRLlBlzc6H9bEGhB5c5Uo%3D&amp;nv_mid=22411935371&amp;cat_id=50000803</t>
+          <t>오조이</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>3,000원</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr"/>
+          <t>https://cr2.shopping.naver.com/adcr.nhn?x=D2QTyKODsmZ0sSyft2OZ0P%2F%2F%2Fw%3D%3DsN4VDyLJLGQSahlg9cCfQxjvY9wEmMa2trn8v5Tq%2BYeqSh%2BACoEmneZL%2BjrMEj%2BPRHUo7WtC6cZqIn18WG5yWmIDiqAQAdPmC5%2BnnJsgUuwyZA5b0c4f2F34ZOBXb0Hg2yWS4ypyDpg2hADLoEMiFbRH4WQ0wX%2B8g%2Flt2iRmYuK4AJPvmTkxySA17OCwCSOFKPofsDEqTj7wGLkSnVqztC0pWnIrSR%2F1TV3%2FWOWSZwqljOcsEzW75A1KuNN29x65jr9UKO3zNyf3v1YZ4%2BSY0Hj70eUtzBzAvuV%2FSEH06pBo9wTIN5HYhaVLt8dcPGhTh8lSIqv4YX1z7WOIgaB6JFNHzSmL1NbrvuZkkggBB9YCa8p99pu8V%2BI%2FKALU4L4JFJ5WV%2BuwU2Q4%2BwMjWYwtlsQFc5AOi764VPDBEfe2f4QbULrUFTasJ%2FYPs%2FN2R2%2FvfuxoKJ08eJb8FTxU9MemaXP5JtEEAQZPEbsaBFkUrUBhvQh%2FW1ggVVdhlN%2BZL3AzPdHiZugPaBtqx42ijlP2kstLCyX0L7muWnNVAErkcrBaW41gF%2BsZm59YZa1BhrRwm01%2FcnSZhzqFhBnkLm3f%2FteEUrU2qicPxAiS2mdvM1VkNgaSwh4%2FR1l6OiJ%2FBrXBuR%2FxTJlE6gHKAVqll6SGyoWVX8bZIbotMVPNZNTtU2WIqz%2BjYGBdDji%2BZLcjLL%2BTu%2BetNUc0V29EiFq%2F%2FC6WYmQ%3D%3D&amp;nv_mid=82388408986&amp;cat_id=50000810</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>무료배송</t>
+        </is>
+      </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>/--/</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>미리주문10 칼라거펠트 세르주 썸머 데님 컬렉션</t>
+          <t>지오다노 여 루즈핏 스웨터 가디건 05350510</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>최저82,770원</t>
+          <t>25440</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>판매처 8</t>
+          <t>547</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>등록일 2020.04.</t>
+          <t>43</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>/--/</t>
+          <t>2020.03.</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>인기 84,550</t>
+          <t>지오다노</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>https://cr2.shopping.naver.com/adcrNoti.nhn?x=ACedzN9r4h8B3rhI40vjWP%2F%2F%2Fw%3D%3Ds2RmYo7RG5h1ag%2FQ1qZkq3S0i3SK8DrQpJzHmH%2Flseyg1be4pLkXFf1KEXP06t4Tuq3rBQczUxV6j5LjEQoB1HbXLCOL8sjp7uxNUEaVsPqAngtWNVhGJEL3eYAI4hAyu5s3wyFascQq4L9UdnKLsymSJgRZiVhpBZWKlyCEU%2FaIthe0IgFIFXLWt5j%2B0Ul1eW1aWaHP%2BbLe5cTroC%2FJ%2B8oF3H39SfgKJzwHzUoTkqsGGJRQHX9ThbHrbD0wiAZwLlr2MJibGuG71Ivr98%2FRFYS3cDQosRlq2vuVtmOyZFRFN1yuCYfhaRebVcz%2FQvwGoljoPk7zWmBK7XCyfU3xfrpM8m4ZM8oORHTtVLiQ7y85VVSpsIifqP0K51oIAvvXLm56HcFId5S3igeK29UBnDlCXd1B4HIdh3P5U3XVGIU3u%2BXP7RdeN0FLU9G2c9waSCNFRp6ctZr99AULlEfjoDPDsC1CXVlQsnQjR6l2UYBWnPSQC71dVmbreetI1eL7ukxCeP6fvNNwJzmXPLMDzbOTPfcZ6EmkxnqNHfCgDb7Var9jhlTQ%2FEIE9nxl2hSAG0ZhVu4LKRHWVvji4tT2R4oKKnuNgCHX528NzVK0WUE7Hd1HIXuzavIgd7xtATFZdiVZlp%2B7wunIrhNZujegRFg%3D%3D&amp;nv_mid=22509072218&amp;cat_id=50000809</t>
+          <t>지오다노</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>무료배송</t>
+          <t>https://cr2.shopping.naver.com/adcr.nhn?x=JOe%2BYg9Ov1zLtx6yliIFtP%2F%2F%2Fw%3D%3DslpQuLdV9dC2EZx39akafLsnI3a3HGiJWAWS5S%2Bo9Txu9HcWHDSm8GBGJP%2FVqlXpr0DhBfBHPhRrbDZHss9ciMmhgJh9cuHT9edOaFWkEuLCyUN9sJVWfjspQeWHGKZ4p9DkSdMMHZTed4yrJke9hsF5BWcvuZaOzglhOCDGahMshJTXRjZnaZALfzTPeCepW45ZBKc6NYRNhR2oqvEqDv%2BjZLqMiH6wIDtvAB1g%2B2W1lcn%2BHxHiMKYtViUf%2Bf6UX%2BNW9U730MjWu4XIlvq9yYWWYkHDWI15lHgDJLrSaQu0zsCg4IG2o%2BsTmHM5QGGpX9L4Rr7rqpP2sabSC2ONcaronsR9AsvS%2BAM1UkESjuYxC5JefLwNWxYA4G%2FTtJcM7Rd4DFF%2F3Pw3kWvsusi47Sy%2FoOLutk9zmu2vBxQGVvggUeNfxzxGAqUcbrA5FBw0Qn3KPEebqpyxNFtYDclhBGtz5%2B7XiMsCAMABdzSH8z3%2F73A%2BnJWR57F4Q5wM7oGF4VFPRznK7qm%2ByZtKeo%2BfX1EhD%2Bh56u9jDy%2BGesRh5TYTMR4kz6RFZY71UhtATt8osJQpFSa5RgMNfyRNGx%2Buk1Q5kHoCo6IpPiPgbuv6ePMyfjn3ZyX249a7OPE6GMxB85lTDcwCt8PWyaACUtZ%2BHTODBTr71MJ23mTarmiGnbQsViqMbjjCVrKjaFAC%2FugVq&amp;nv_mid=82407505206&amp;cat_id=50000806</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>카드할인</t>
+          <t>무료배송</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>/--/</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>지오다노 여 브이넥 립 가디건 05350506</t>
+          <t>나이키 레거시 HFUTUR 여성레깅스 CJ2298-011</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>최저20,310원</t>
+          <t>30500</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>판매처 194</t>
+          <t>256</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>등록일 2020.04.</t>
+          <t>188</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>/--/</t>
+          <t>2019.12.</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>인기 22,030</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>https://cr2.shopping.naver.com/adcrNoti.nhn?x=dD2WzBkXjD8aEQ%2FXrtoW0P%2F%2F%2Fw%3D%3DsnttX4aFkhD63lnchWSBWsB0imUSsrBS7FxbIoLGHGhxo1hr5KtGGjl5DrkdK%2BKrRVcmfs2JCXOj%2FGqBmAjvH6KDO2tOOLA0EbHbWxYAKaCpY71G%2Fl5k7utrVWsrjmdFfP8ZeP7MjR5wT494%2BSxnuNzs%2BvfieEt3dhBZVDxR%2F7ommMp1J6Q0t1soS5Psi6qRIvQihym8d00SfjFbC0dXoS0Fac15CqFghvAaJAKxxm698QMMrcWQrQW32KivpZ7yNdVW9V8ypow%2BiHWq7GqHLdKxGlHF9I4E3irLR6KPInsBMBrkjKiVnfYLtWHKgajj0FeOvXWzAujHiYhVXSVJ05thucTuK9WaSEWZhelmXtBdPWmfLjEbKL5rbdZCOFpTjK%2B%2B8rfIKYi8QJHbcUvc%2BIUk%2BotrM3Y7XsJpvccSttXO16V%2F%2F8Zuty9cBltJ8h%2FdXdODDEsdNOEQw8cKrsPADmUc9stwYfwUgaLRp41KsU81eX9VZD91ZlgApuBM6dwGYGeqtYoTIdJAfYjYMPYmOhxY0PI58Dyi7n5Q5wJSsIt3sw7OAY6nP6pzQ3yTZfNnCSxDSZD72PX8VTkq14A6M2uBL4RvQcPPanOEaJYf0IW8Lrk3%2FbZBmisyQrZCQ8uXpaJse3MGyIxmbOjmvgudfT2V%2B92IMCB4g5U9qbagOs2gXy%2FI5BmZiyvJlN8SwDbrr&amp;nv_mid=22671551887&amp;cat_id=50000806</t>
+          <t>나이키</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>무료배송</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr"/>
+          <t>https://cr2.shopping.naver.com/adcrNoti.nhn?x=yxbyHoF%2FvecvKSMhUjy7F%2F%2F%2F%2Fw%3D%3DswnCAqailtuazWjgt9qziTa6mXb7dccMSjFNfl04K6Md%2BKaLkz5c4Q4H7dt4UnuOHRGiABfc6GVeVfzZ%2F%2FRZRzYdbgam%2Ff5nWyQjGwKHCAkbm2oHze7WqahShfPIM%2BweoIEOnJD937ph5Q9Lj0Ppe1oay45fwm4PDs7thsevANcC24B5NOHz42D6Tv4VPejBSpWzJVDnSqaPwhZ0ptjU23W98ldNYdAfyOR9VaYFnrAjDny6vIsMCGgq7HD8zrnURCdRcXPdQyh4HTeQ74HV4xLvaHQMBRshCyYqNvNsZ9qYSEggXYblXJMT9Rh55%2BS%2B9YjK5B7NvKxTyCY0Dy6NmzSJowakOBHwiKyQbVOH8gB59LsW4RgipVPKA%2F2IN4cAJ4mmic2vQ8l3OPvPdLBTB59wUzXNaLvM9Oy%2BqxIs2zvmlzILKLsBXbijeneyCC20Zkl92Z9ppxijuDWyHjTmDJnrWkmw5PAPsZQ186P3kA8pTkuhHg9z%2BqA8djzPcKyDE1%2BL50xomC9KoA1j9J8RmMk5fyGCHTU2%2BtF1yJBLGe00RYFe5sMWJAav%2BRzUsRsapJfQs7DgIgFqMggc5L89n6idWvKGnywQ%2BWbEfBvlMOJbq%2B1i9t8BQho7ljoxR4HcMqmVXyOve798Nv0eOW%2Fib5B9BMTBYL81c1H04b%2B%2BuYhA79SvCbn08PffOIczXeQHO4Q2S3lpKeHDLlmLiAmNSdu75fXBrM7ZBv0XDi2CUbceeibOSjjGGqOx9FrIbLxJ1WDJ1YyhPspvYZ1NRcdaMFfLH0C6JS2gbU8pbQUhKnuPAKprmkqeK0XqHN%2BialA03&amp;nv_mid=21889329140&amp;cat_id=50000812</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>무료배송</t>
+        </is>
+      </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>/--/</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>새틴 실크 슬립원피스 끈조절가능</t>
+          <t>보웬 타임 주름원피스 2컬러</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>최저15,900원</t>
+          <t>47300</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>판매처 3</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>등록일 2020.04.</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>/--/</t>
+          <t>2020.04.</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>인기 16,800</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>https://cr2.shopping.naver.com/adcr.nhn?x=oIVTS2JH0azDkV6R0G3aYv%2F%2F%2Fw%3D%3DsoFAt%2BRJrE6h%2BVBN7EleLq5hEGiQdPRVoHQ85tbVwesDiBsoRzIafJAPUVGD5nj7g%2BdoSDl4YPVlmIIddXxS1ry6FzSUs5ImX8%2Ff0UPnG1HbTgUaUvz%2BMomuWvrJl1dJyt8GwiNr2u50NfBoE4uPPBmjqzAI07v9t28ej8vJLVXkeIS7ilU%2F1862R6%2BhgJ%2B8aEub9NGhQ51q9moAsq73wFYF3H39SfgKJzwHzUoTkqsGGJRQHX9ThbHrbD0wiAZwLlr2MJibGuG71Ivr98%2FRFYS3cDQosRlq2vuVtmOyZFRFjT4QckKduRJTIjvN7S13uF7CFYOWyxbYUmNx4ph7XDIXNE%2FDOqLPxDDOKcPK33648d0xLaVxig%2FHnE7W%2FND9FRd4DFF%2F3Pw3kWvsusi47S8C27sbILrhly7nkU081VBOofUZvMzdtRhbcO1nxWEaj5BvdLFpF8oOAzU96Dd7aeS82dBdT5q4N16lHvL0Q4as63B16gJPS7ymHqZnz%2BHWsOEpZOhH3bF5e1KMbN9s%2B1q4D%2Bu8%2FhioxNfx5yTLjOgXsdX44z08v4guQeJqBjkK1bTjYx9eULpm48j%2F3VIbEsm8GPQcrXR4jJteosFeEc%2BxGZkf3AaGch8NDFlRdkaS5Jakog7Z5jfl42I38tpPgkuHFglVetM9VbTK1RvXautoYp8bC6ecIqW79RmRAzVaYGGgUdX5mptFzKC%2FU9Kyze3UZNOo7RBGrb9ZVAqFTLc4%3D&amp;nv_mid=82432453962&amp;cat_id=50000807</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>무료배송</t>
+          <t>https://cr2.shopping.naver.com/adcr.nhn?x=ZX4lS8lSh%2BRsFCE5jBbeMf%2F%2F%2Fw%3D%3Ds8aHqwMz%2FcAySHp8xVBQH1GFJ1KAu47MwNsAc%2BqZzsEtb0yNnl7HOMQJM85B3XftB1UhJrg3S4IRd%2BsbmBNXRf%2FRx3zpj3HsC52rak0T3BqId6oaUv%2F2GzrDhW00gKpyDyWS4ypyDpg2hADLoEMiFbRH4WQ0wX%2B8g%2Flt2iRmYuK4ZgRQza4y0zx2EZ3%2FC4jt4mlraS7olE5QKEYdLovoQlkpWnIrSR%2F1TV3%2FWOWSZwqljOcsEzW75A1KuNN29x65jr9UKO3zNyf3v1YZ4%2BSY0Hj70eUtzBzAvuV%2FSEH06pBohHicyrfNDn7jEPboPZHkbzpHpLrR2l9hM%2FXEDqu8cZCJOQRIhwUAx%2Bspn8vX8oYBYaKBJ5dnHjwOYJnYP%2Bkb9VDfqsq0hjjJ8bYzSf2ZM7kVgl2wjeSzw9GBBq9gd57MJzlhAppO%2BCM0K9MS%2B5bcqw%2FhxzmFH%2BqfotdAhRV6Jd6wiq58inOHTG8ifbAnTaALJNgerOJEOllMW5%2FtHDZzRboyz7IsdTLmSW6WDdruVlv%2FeLPLsGfO2dutQb8GZBMbyn7aGu0MzrUR37qYgXtlSgZSA%2BDtLkjsenwMHWkvgLBRkQzyN%2BI4K6lyG1%2FA2%2FA1iVR9ZOGlosvHlxoJf8Aqqogs3jhHyXkPOkUY9fkc6ZO5frez7yc3U5%2Bpr%2FfiRhCc%3D&amp;nv_mid=82436174314&amp;cat_id=50000807</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>카드할인</t>
+          <t>2,500원</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>/--/</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -2428,7 +2517,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2454,103 +2543,141 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>리뷰</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
           <t>제품 등록일</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>제조사</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>브랜드</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>링크</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>배송비</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>기타</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>지오다노 여 반팔 크루넥 스웨터 350507</t>
+          <t>마누쉬 썸머 스파클 퍼프 니트 4종</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>최저19,910원</t>
+          <t>73260</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>판매처 513</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>등록일 2020.04.</t>
+          <t>729</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>/--/</t>
+          <t>2020.04.</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>인기 21,750</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://cr2.shopping.naver.com/adcrNoti.nhn?x=vVW5gvbE66U98XZQvY12Yv%2F%2F%2Fw%3D%3Dsud%2FjX%2FT%2FwGfppo1LW5hf5y%2FfWfO3HJfAP%2FjTqnwfruevjLB0MsQC7%2BfhxERTK09q1I%2BegBD5PHJfnP9i66CRz%2Ffr09x71hMkaOMDxF9l7S5QEIDLxpP1udEYCzChPDLEP8ZeP7MjR5wT494%2BSxnuNzs%2BvfieEt3dhBZVDxR%2F7okdHifMXkzmqvOzQpGGe9MQoWLnCNBFgQ6%2BxJtLEGUEFUFac15CqFghvAaJAKxxm698QMMrcWQrQW32KivpZ7yNdVW9V8ypow%2BiHWq7GqHLdKxGlHF9I4E3irLR6KPInsCQeIZz372KqjW0dFuiek33qwxOPJoEvB73hBGfRdd4wpM6dCBW0FmegpxFHerVpU%2BGojjcclRnlujCMe2ZIDj5qPGKyfVN%2BBy3IcVEDEykRkOH3PAUQT%2FhhUrAscwghbpona9pwqL02utB4sIhuJEjdBc9OQf4P5g6fYrZ32acDCHDhinoTIabuBfORWvwIqvswzfTFMxZWnLFXcD60p6G4khYBOmreod7STiIl5IbEzEht1N3y%2BdcyLoHAkIgl9MftnzYggmuqmTf3rm9P1r7i7ZFE84IT7wmo5HnAbeqTsE2%2B5StpKreSxxZzChXhSxFO%2FBPthPZ2fygayZG%2B5fRhrM0I9A5jCap0U9M3q2bsBE4Lg54QmOtsDomie8c%2F%2B9dMlSvwk6GVVxO7cPFYkME&amp;nv_mid=22398312892&amp;cat_id=50000805</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>무료배송</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+          <t>https://cr2.shopping.naver.com/adcrNoti.nhn?x=Ct0vrn6p3UTu%2BCfPw%2F9Wpv%2F%2F%2Fw%3D%3Ds54bC%2FNQlbkq5AbxCu8L1fBsOg1QwEM1dfvUxOASnaCLMaqkdkA1fDmMRMPkxvzoKp22cPOV2DZGHNrPGWOuJCP%2BxNIkJls3CCGpq9%2BhoqjmsLSP3fqf8VeqdPjffhzpRSJ%2FVgEcvaCCc%2F7rMSb5HmhnnSmvhp%2BKjlGfDEMwPDmMrGo6rLrqFdFLlq%2F7tZDlluOyCQtZkrkMhnGGHBxJmdyR2wAjobCUKI5cV3WYma9rogLs0NDsmLPOZbei4kabv6DcSu%2FAedtBM9tCkInmhtApFnxcHznLdPniaIOEOB4CyU7TaV1lA5fv6jI2L9QARu03tZPdgwNkCQLoORfEmmBvyzBxCVyCtlGqwJkn30ZNvCQivXps%2BVAApc8dbah13I7iB1J7aINL%2BSQ8w0BiG45M6dCBW0FmegpxFHerVpU%2B%2Bc4rLzX7Qwq26xaXrBsdmp4Yxk1kR0VXYV5QmWKEUEX3yG%2FSD3BpIFAKYuAtoipCtvG3IktcN9sYau5NgSORYQ63SkF%2BuzA9mGJ2t5ALpKFAxBi0tiBOsRrpiLB5q7freKHlwgcc%2BdjvKpQoyh1HZpf815CKlbEe7twkRhWc3CTaBqW2dxX5JceFNojlOK66%2BaxREkP91VXMFTWobyqU3%2B4gH84NgPZv%2FI%2FHjuUy2ymS77ehHJ7dkeuzPfJt8X9q1KNfC2oQ%2FaAUiSlyKmQq%2B0QwnKB4HYc%2FTaDRlsoX1vZICut16ZJQtC%2BC%2FobmzvUc%3D&amp;nv_mid=22522282169&amp;cat_id=50000805</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>무료배송</t>
+        </is>
+      </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>/--/</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>마누쉬 썸머 스파클 퍼프 니트 4종</t>
+          <t>지오다노 여 반팔 크루넥 스웨터 350507</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>최저73,380원</t>
+          <t>19930</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>판매처 8</t>
+          <t>506</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>등록일 2020.04.</t>
+          <t>47</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>/--/</t>
+          <t>2020.04.</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>인기 73,380</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://cr2.shopping.naver.com/adcrNoti.nhn?x=%2FClF%2F4G6e7S1LHgy23f02%2F%2F%2F%2Fw%3D%3Ds2GQTCTzEvz%2FfZt%2B%2F4sN5YMrgCOcPwjcp89ErNlefYFoZ4zOpnpkZ8Yw0sSm7vu7%2FPDMkATe1koT9YRhlOCcylMLA3qs%2BYsMlAh%2FNJyrDJwLzvCTM%2BFQjPLXxJTUzlVVN%2FknjgB%2BMIHRz%2BTR%2F3mKcq8aDriZbWk7z%2FgkSDVQbx5%2BC6x5GVJuh%2FYwD6CaEBl9gKQXMQy67DuzDnqJVrFw8WVOZomJGbhs3S2oRIDDiM0P3wxY04oK3mbTRCREw8dCn%2FhOoTdpB90pw8TonNBHcmdOJRpC08szvZbKZ1weLtnaOMllvH8Tz3XcMYu3MVW92IQI2k%2B%2Fj64pxCnLSfnmSVql6LyjznO%2FsH0Pfuqo3X7584kv3d5pevne5%2Bv%2BdEntzBfhjbX32BwO1s7tV92hPpdM0ZeEt9bnqnecOhvtTY%2Bv56eHU1ysBrOgURitIBHcqxcOdaqd27hlQSHEINXAe2GoPfqpaue4x0xyH2CB41qVndUlDz%2F28CpldEtIpdg87GSbGV%2FopaUAhvmhzcNfm2rn2LR4jJ5lMNbkv6wS6RcMCk9G4N%2BcQ3gKZG1aVP7AF%2BO3THKsytNdWFS5nESVoeO6fATRM0kaiP2nedIVqMkEeCmD9MVSGCxGNWltdbzi6DsJ2rkwb0t6eXGfAxOlFZOhNizDoMKeidMZWmkAGP89UeHjM88rHUAT7N9a%2BJglwaJse3MGyIxmbOjmvgudfT2TJwsVHt7bXlzH%2FAeeUMs4nj0FFzxVQgb3XvM7jZjSL&amp;nv_mid=22378451319&amp;cat_id=50000805</t>
+          <t>지오다노</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>무료배송</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
+          <t>https://cr2.shopping.naver.com/adcrNoti.nhn?x=a1XGlRiRB9fuiBiJqCXIPf%2F%2F%2Fw%3D%3Ds18U9R7njOKD4eziu%2FHDcdj%2FUgAyS8AFMXfRocyWjc8yLgKBwLGJmepU6gyHNOAjvekPviXPbBvCJOLywZvvTzDHC0rMUZwEM3f06K%2BI9pUra215hIwXZP2Y%2BoTboYmhWxkbVxNTT%2Ff1MNSiXrBcjKy8U5HrmVtdmYiBBYX0cS72fvc8Q%2FOcGK88dZ2yUz2K2ZlrBwJcYrABr%2FJ9X2bGWXsJuefWRjp3wHZtaP%2F%2FrGUks6LBgeT9ZasYKKDP%2FcbtOa1N%2Bxee7tP6RFUnArfBOaNrfkeG756Le9wYOwEChkyKNyQ29mAZUk8gqPsND4WCqHd8gEw9lzl%2BRKFP4AUtntEbpbGYvomUslDXkgI4AksEusGVm%2F4Mbp%2BvH52w8Lsds7BpHakTBeNMhJyMcFsC7R9hucTuK9WaSEWZhelmXtBcGNM7x0HTm7A5NHiBDlXV%2BcuJZ96jEDdvHxJbdxfIkfzPhEwcGaT8ujXAfFqWf55P9R22LTk9U4Zb6DuB1CK2fYaAssmBhDOQPVH5QZ0XzUaFcDERNo9Ca9K6DRTHvGb6ZPPTk%2B%2ForXon9N6qVCYwlgM5shhoN%2FH8yrCRrR%2B08NvHwosGDGwU%2FEpYbIhhLNEZddhhK5JvhFlGaMAYoDnuY8zW6ZTYSQoyyZ7mqXcM%2FmeTPfcZ6EmkxnqNHfCgDb7Uy%2Bp6mjrQAvWCliQAvc9kcJGeGdVOMQNWIQhR%2BR8%2FIXo2yXSaUk5FkFFzdP71bOqAe4iLnd5BiG%2B%2BpjVipRwg1F3rSFCGYW%2BgMxu8vIDoGyg%3D%3D&amp;nv_mid=22436164731&amp;cat_id=50000805</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>3,000원</t>
+        </is>
+      </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>/--/</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -2562,47 +2689,47 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>최저58,000원</t>
+          <t>58000</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>판매처 4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>등록일 2020.04.</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>/--/</t>
+          <t>2020.04.</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>인기 58,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://cr2.shopping.naver.com/adcr.nhn?x=EZxH1u5%2FsUJjze05TIaNNv%2F%2F%2Fw%3D%3DsNqb656QeZJ7frN7YaokEUbPTb6ZFI1gibbAx22TTYnHXIzfLSAybPykW%2FLg5ZQyQGi7jFhwPsr1RL0qBqMaBh9zkmPbhB18GUNsbZb9trn9OnvX6o00cgTIZSCOjk2c9mkENP2DS%2BLZ5Rg%2FgyD7eelPyFbOv%2FHrJi3xiP%2FOWqRDWlQ1MHaK3Ob0UufM56o7xD8i%2BaFfERPWIiDknVbbwN904NkctLxyyYSAIofRAfPqCyGh65eCBNWF32LI8F6yOw2Nu9c3dbGJq7SHpdnZ3LGMYodgzXw9CwY44qOO9wCxQUsAz5pZmuSKHl96bWsSdC%2FVQ6gmarW1vKksEq9ORXm8PMsOS%2Fx5ghfrCuRLRzY6yoM%2BLXARP%2BRRLTGkFUqSkrDA4N2TlcHPxNysfAN3MhQKRj307dMj1%2BHmjk%2BT%2Bmo5zAsq0NZD78HlOSchyhttlqBYj4uGy%2BmvlkJh5jHVeRQzY9HwjSV7HXpeCAi%2B7y6PJuxUzaX7Z2Ihdu%2BUL37WgyCTCL4T%2BYffefz4UW0xNtiWqdB%2FRxZ1io7iUF8xqfd8bYymZwgW0LIxo9Jv8jTsAFXzjGHLbDQu2hX%2BnTnLK2XaxUU1By%2BDfPonvIdKE1saZYNdUqFN%2FQrzKg0MdR52alZNgLQmPS1vNJgHn7ZkmQYazNCPQOYwmqdFPTN6tm7AhxI%2Bomw%2BJmT1kVsT9KLAO97zN9WU0exoqm9802xIl%2BTdfkkdHEHXuR1JJ5LW4I6c%3D&amp;nv_mid=82449558143&amp;cat_id=50000805</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>무료배송</t>
+          <t>https://cr2.shopping.naver.com/adcr.nhn?x=eSRalcg%2F%2F%2FrI%2B5OuO%2FZR6%2F%2F%2F%2Fw%3D%3DsWBFiAc%2FpYmkjNwQjO1%2BRkmuwDXV265WQrzexx9xd9zMc4PuOa22NeXgwGoKwUlwEIEEz9qnzm3cAxjvYgslV9y0a%2FZVmfWTxRqTrln2V69OnWkfVFSb89RztESDQ14bdSCE7%2B2jlJ%2FdNlgPcGHqZPCWqSQWm4%2F1%2FAHc%2Fii%2BQ14xMMCb2PIhg2KHUO6%2Bkvq6EzFQS9oZw0km0b56HBAik3ejZLqMiH6wIDtvAB1g%2B2W1lcn%2BHxHiMKYtViUf%2Bf6UX%2BNW9U730MjWu4XIlvq9yYWWYkHDWI15lHgDJLrSaQu1x4JjNAfef2TCT%2FuxhrTWRTrX7z8r9zhpSowe8eeNh6FYqoYw12INTMaolka51gmOm1v%2F3bDZlCLOpHjQ%2BTMqeth86Pz8uzwga6oZtWP3YP2TRHHmYxNoj%2FDyZ2VLdq6fcde308%2BlXxUo5%2FJp31m0t2NMRaYNLdyO64GYRzRimbOcq2oIcWdygf4tzlrqQDdKcsP%2BfGBQrYWE8jmHAs%2Br3RssOzYItSqLmUypRyBeK1CWqdB%2FRxZ1io7iUF8xqfd8z7qofw60vHeeDC%2BuxTcWuMAwOYj1nuGKOzG9zQqeUU%2FEO702pDAaRewzu4r7xn4mIdz%2FTddGS%2FX8NXK8kIIAmHhwRGbZCZ%2BcHr8kzUgFXkZ6Js5KOMYao7H0WshsvEnVYMnVjKE%2Bym9hnU1Fx1owV9qvMSROf0LJvTSPbv%2Fv49I4HtCgYqjjNmnV3RwqKxqA%3D&amp;nv_mid=82451409023&amp;cat_id=50000805</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>카드할인</t>
+          <t>무료배송</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>/--/</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -2614,561 +2741,619 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>최저16,760원</t>
+          <t>16680</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>판매처 4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>등록일 2020.03.</t>
+          <t>650</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>/--/</t>
+          <t>2020.03.</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>인기 19,900</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://cr2.shopping.naver.com/adcr.nhn?x=k5wu%2FolhI23fxjlO1ATLRf%2F%2F%2Fw%3D%3Ds4kHbj%2FvkdUhXOOfAwCNugIewCes7jFUXyCW5%2FBTvFfLCJRV8oi55AK2eIn9Rqo3PoYxsoel8BybzJEeskIrImlqXJNTGzwAEAx3RJ0JOt8r5q0TFau8eo4ZbzPP0AZlbP14fN9k0fh%2BDC9UTx4i7qiQ6yRPz0Bok6MuLLO%2Fx%2FZDH0%2BrNadeFpnnVg9NlFqnWixYWCwBkoK72DYvI6KMv6yECNpPv4%2BuKcQpy0n55klapei8o85zv7B9D37qqN1%2B%2BfOJL93eaXr53ufr%2FnRJ7cwX4Y2199gcDtbO7VfdoT6UUWtHhHlAgy8mteYIX6oIWcVhvhgpYSObMADyNtYFSUq5iBkaVfw88mqZOBrfy6KWxsI3vJh4OE0qaWiszgGAH87jaMVgx6Cssm%2FJLtsbGaP0X47ctdfiw1Crx3jS9cpjFCzKY1JI2axIBKx0lru4JsdNJMvWIGqD4nd1YMZ8Jqe%2FJZi7TN0YfNeQDuo2rEXyXzcG2r1pVLfdt5mxfID8oUsI7k%2FnFb7QnHrXGR9yuoJdccs%2BqWeCz6%2Bc4JZZiFbgX1%2BY%2BNqqHB%2BK2hHBa3AwYP40Jt6Dblijj%2FaaTp%2BsYCAe6FmQGaJFDrBWbvHgWZBIG9JKG0ZTPLAVzMWBWfFbj9WeNtyl0i86VhnbfJwZARE7q0su6LMHOnDuFM2RqWDZRZdamtCmmDJD23XUS1cYxG6dxZvZqs4ohvDqWEsaGvQ%3D%3D&amp;nv_mid=82059639126&amp;cat_id=50000805</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>무료배송</t>
+          <t>https://cr2.shopping.naver.com/adcr.nhn?x=z9uXAJCItUGfO8F8JDu65v%2F%2F%2Fw%3D%3Dsnj7Iz3knOCNDMZB%2Fo%2BWsIQocdfCrXPGS7P5N2IJ98PeqxuwUeOh%2BeZQtrH3sxnOKf3eYaRIACXSb0quVyR9kY2xes%2BfW%2Fq3h2buVrj1xQ3k29KqWv%2FeIHIAuO1RyL4MayWS4ypyDpg2hADLoEMiFbRH4WQ0wX%2B8g%2Flt2iRmYuK6dqVzSZ5Ok6EJZikqDQ6eYmKiqeCUSzcyBhVcxtW1c00pWnIrSR%2F1TV3%2FWOWSZwqljOcsEzW75A1KuNN29x65jr9UKO3zNyf3v1YZ4%2BSY0Hj70eUtzBzAvuV%2FSEH06pBoR8kMdn54IyRYtCyMYw0yHFemqLpYVIlkkpwHJ6NM0%2F2fgsfzjqQOuxTQbmpa%2FOBZgnGfIvCL7Z6d7DJem3f7CPlxQH7UaL%2FuXfhLuJbvFacZbVsB3VpL%2B5G1%2BPWugLan5FYYJNNTqzSleZ7YkVvVBk4x6nya6R0mai%2FDSu%2Be9hOTNiWanD%2BtF%2B2HE5tcN0nZmfhy7j7S0w%2FvE97gpkMJP5M99xnoSaTGeo0d8KANvtSY69QEkV%2BSkWovg5aQy5%2FxwjALYa%2F0%2BsIHhunGw9OSgElRWULeVddbbYDGFJQqpx42yXSaUk5FkFFzdP71bOqAxGG3I%2BYfVxfNpAw65pZXo4glOu7PtmsJVruom2jAIWA%3D%3D&amp;nv_mid=82056199499&amp;cat_id=50000805</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>카드할인</t>
+          <t>2,500원</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>/--/</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>찰랑 여름 라운드 반팔 니트</t>
+          <t>아니베에프 아니베F 프렌치 린넨 블렌디드 셔링 V넥 니트 3종</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>최저18,900원</t>
+          <t>64080</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>판매처 2</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>등록일 2020.03.</t>
+          <t>1303</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>/--/</t>
+          <t>2020.04.</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>인기 18,900</t>
+          <t>새롬</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://cr2.shopping.naver.com/adcr.nhn?x=iUiGi%2B2mCvBC9xW%2Bw5RlmP%2F%2F%2Fw%3D%3DspZtHMnk%2Fb28HriCrguqEKUfvw1spYA0dWHy%2FkUanAY4CMZ%2BtmcftDhy1iePk35UXa37rNwk%2F%2FkZ36w%2BAeFrwyIRuE9g2PT70WSKYkfE%2FLsDF9kPTM%2BIlv91gFjPhKKCnmkENP2DS%2BLZ5Rg%2FgyD7eelPyFbOv%2FHrJi3xiP%2FOWqRAAsIGJiZXVrTBMwk4jQzzeo8mjC8GtXLT0Hh%2F6LYHZFN04NkctLxyyYSAIofRAfPqCyGh65eCBNWF32LI8F6yOw2Nu9c3dbGJq7SHpdnZ3LHRmklSXkV5q%2FdZzDfbtEFmK52poCQil68iup95erM3zhyf2XxkJHGZ685chYOkS%2BAYYeYfWZqBPN6TqmcLvW26IlFZ62or5j4Ig6TteKvTJTL70NaCM%2FhKNjScoH%2FzB2uq1UCtKnHIYHEZlsl6LCjaQH7yOIMeLNCp98h9feXrnIgX%2BbaOLQDTyqPL1Dl1Cmksa%2FBVq5uuv0VGSgspJKR0uAGNFKIYlgIRp0au0Ua03g5Yxduymhs%2BxZ%2B5KYIsYGAS0aHMmz7kfunERPNOBRZAsSPZZDhuNKb9Hc%2F%2BwveOag7P4Nug99sx2HSA3Qlx5op%2BOfdnJfbj1rs48ToYzEHwNvJaYqByDV7Cgdhghzbgth82tPBCpyRUQ0QbUfJnaddcwJ4G%2BSSUT0dL1h6kAJWw%3D&amp;nv_mid=81997380987&amp;cat_id=50000805</t>
+          <t>아니베에프</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2,500원</t>
+          <t>https://cr2.shopping.naver.com/adcrNoti.nhn?x=kC3ILuJEDs3a8DyPCjEh%2Ff%2F%2F%2Fw%3D%3DsA6XFymur%2FfwK7%2BEJuSjKLUIHfzD2%2FLm%2FmpKUVF%2BgUIMCTcw1ebok9ONynJJzbDvxDRTOoTwcBg4AAku7LIj0LMAT1QNN1FHjDdDEaPEZ%2FUOwCmAUNvsHK6Ra4nW3yRvwZhBuBr6azYCimuuLdQzaO%2FBNn7qs%2FXs%2BFWQ9OxYss0nO1g9bfR10RYcPwFcPqpn4JhG8f4IMtuhP1tRel3NvY4EVD21ySwKq%2FcrbH%2BRRg%2F1GqxbRdw1sxf4baYsqbqWZODO5wOInl7jqni5fyLHl6ndnY%2FAZFeQMcx13YnxKjV6lopbpieagPRoipJ%2FEZ19DagiK5o1NShQDksdLRQC9a2wx1KUZJVUHxfedy68wMUrZ1OO8UOMFHNyv9PCHBDr1dqyexIe5cfEIx3o%2FYS5gv7ikQpo09Lhzx13vFW6NnpQ7GxXoPfYfmohs3IQS72ci0zuQ4G1NeykVH5o%2FI%2BEA7xvYkwiLCrtn9fbJLwDNXrKOAQt0ZsT%2F67UnvJohZCQa4RBvRoGoDMc533kKr3EuDNZjyq8JnllFttTYYGVNgZIqTOuoEKkvA8TKA7SVpCpjBeQsGUfuNPwwEqAe7nDh9JZXALSs%2BlxlVGjm7fgq2a10c4kX97xHNhtkBtO1WKVSKeV6xxJVVVELfgSgYDlXrzLfQIpZzh%2Fxy1lUGzt0E0OZxEc%2ByjY0%2BsIIMAdB%2BDZlO8MMh5a9hjPuDqEpedhBc7t87M2WWgTCebFtIz%2F6pb61vEk7hK7u0nwTg%2FVeQlXHPovH%2B1g%2FeyhaiKhXKJsQYg%3D%3D&amp;nv_mid=22661853734&amp;cat_id=50000805</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>카드할인</t>
+          <t>무료배송</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>/--/</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>브이넥 여름 루즈핏 반팔 니트</t>
+          <t>지오스피릿 여성 이태리린넨 혼방 반팔 니트 2종</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>최저18,900원</t>
+          <t>53930</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>판매처 2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>등록일 2020.03.</t>
+          <t>795</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>/--/</t>
+          <t>2020.04.</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>인기 18,900</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://cr2.shopping.naver.com/adcr.nhn?x=RhA%2F5qbCjyYVDsnuDwul%2BP%2F%2F%2Fw%3D%3Ds7YJBB0k2bmZGJ5jurW4vLFjGnEjYEZ7iJep1pK1j%2FeCfmDB%2B%2F9Te3Ehdk7OMHw5Tp3ubp9OT1LWf7yFjMUMj3bKJtuZtJZBAkMewqk6l%2BTunf48BNwZVqyvgEVuJrG1St8GwiNr2u50NfBoE4uPPBmjqzAI07v9t28ej8vJLVXnRlUYxOfZF1VJIzBdEcObQCGWZ%2BBuu5q9imj3KCt%2BqpoF3H39SfgKJzwHzUoTkqsGGJRQHX9ThbHrbD0wiAZwLlr2MJibGuG71Ivr98%2FRFYS3cDQosRlq2vuVtmOyZFRE110bALjTrDRx73DsRSTQBOTbbEVFC6nXwNqDsMttrN5rT%2F6q7Xv7D6i52HK%2BRHMgPf71wEgN7mOY9QGFJga2ygkQYACPlvQ4edvqbPwqzjL2ByyMsPnTOh0BetPYs4SbLY225abETaDJRduXF4YKSoeS4MOtT%2FJmWOkSgUOJ5NekAi4ROcrcb5B%2BXIZhMNfe%2BLimYOhCbd1RkjT3hp6x8lg32QYreeCajLvdQ3bSjz%2B9KwI7GlarROZzGKuhQ26bqSV%2FWeHWYWRIt5FGEpb1AU6E2pTerNJXc1ouZ%2B4Wjxfb4Jq3%2FVCB5Laj9rHVHVdwWcmEx2pvsIuYeDnzxsN8X09hgbbHSBR4%2B2ouA%2B63zpffPjyv6sfR68DyXIk5Zio91GTTqO0QRq2%2FWVQKhUy3O&amp;nv_mid=82027481552&amp;cat_id=50000805</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2,500원</t>
+          <t>https://cr2.shopping.naver.com/adcrNoti.nhn?x=%2F6fnBAyBq%2BPPFSTL2TJpsP%2F%2F%2Fw%3D%3DsoGFWTGMdDDwvSlC%2FeWgImDEYDFCosx3FO8sKJPjnw3T5otAorWf7UJ7lRxAfLUWSBwskfbXW4C%2BxJqeRJCrm05KeO3SQ5NH3urUgcchQ0itSsgs8s0AYUl5eYUFzrfcjHOASqjduVcFDWkaeDXUScyzWCOIjVz3V6cyYd6GJCKDcnpDnuXQlKh%2Bd9F09msUrL3mYiZdgjDuOwNbPndIfBx5NDtDb6ekI27uFyK87KvTWPLXqzQFMpDcmVGGM4zaTN%2FffpM2pgF%2FHHhDu3s9WNuGYbMtgp5O7JT3lCLVs33h1iy0%2Bnhl%2FSJZ%2B%2FWUf7OGw2pQeyAcpGrN3qdfeNy9TA0DInQTllngnA1yNWKSkSS%2BYcYJGcMIP%2Bz2Gi9L63WAmLCgqKj1HrNmndcdAjEg2whYMtficd4hX0YehkJ95%2FpHEy4JHTiZXcGZEwQavyf27KUPCo7w9qhL%2FcgEvEslKX%2Fz32f9iQh3Y48ClRFU72sGQJ3L6atv5iAHGO9v3w1KMBjO7j2f1lb9c%2BMHdkR4ceLAwJaUw1hnq%2F6yis5STsQyl0he%2FH7fDFmSkFCf8aJ9VbYrfJeCNjHHMy%2BQoC%2BhvSpnZCV8oQ7uyA87idvnF%2Fjbt9fEp8fwvgVvXv%2BDkPXNmP40Jt6Dblijj%2FaaTp%2BsYCBUWT7HJ7miJ%2FzB7j0myvWs8m8XAgdfC6pm7b%2Fc6TtfyPUiRvvkD1rIA9iYG5y87L5Pk5%2FsgYOO01lYqjmclqH1X7vp5K0AZDjITZA9iRmfe&amp;nv_mid=22347041125&amp;cat_id=50000805</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>카드할인</t>
+          <t>무료배송</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>/--/</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>보웬 카라 볼륨 니트 기획상품</t>
+          <t>쿠즈텡 비스코스울 블렌디드 V넥 니트 4종 여성</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>최저36,000원</t>
+          <t>63170</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>판매처 2</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>등록일 2020.05.</t>
+          <t>91</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>/--/</t>
+          <t>2020.02.</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>인기 36,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://cr2.shopping.naver.com/adcr.nhn?x=kzpPxHXYXuy1nvITj05cjP%2F%2F%2Fw%3D%3DsZZy65sC1xEdkPZzxjZZjRoJm9Jg%2BJ5vyeP3%2FrBd4rGUQSfurk8V1DdFKrtClSA90FSm1DfkF%2FqMeIPWKPFpu3BnRV%2BkxQ8FcsIFH1w9f43WPGXdKAEl7F1uC3VWglSLryWS4ypyDpg2hADLoEMiFbRH4WQ0wX%2B8g%2Flt2iRmYuK7FxwOnT0KB78mcFzHqjs2TZ%2FHfA%2B%2B%2Bj4N30HgFOu50NkpWnIrSR%2F1TV3%2FWOWSZwqljOcsEzW75A1KuNN29x65jr9UKO3zNyf3v1YZ4%2BSY0Hj70eUtzBzAvuV%2FSEH06pBofEJdGQZQ5yHkENojftGs%2F1vRsbRVb7bGLUl%2FtORiy1SGEbJB62NFarOiWo%2BgKXbG0jeITr1e4dCfDuwginlBF4oQy28tlyO4RIk2Wk4ExaZOj7pD6OdEWbkLY%2FpHGrYfFknZBmxXZyUvBCQpgcGpY9EHevws7iDjiTIeKyxrP0AkaEi1GLzXnvTMpL7cyaiFZS5874yn9lgN5j7OLbIwTVtmj15yFuLTefU2eK9O51%2FWS09fKRHRjFQPsJLp1zeuUtBYQrKmOAoNoIwC50inrmQmaxstjrw9WygQkjHBS%2FsQcl1Nc%2F6BzFGC%2FPCf4Rg7V2rNIwVNwJPBS7dqE%2FyOx1HVOB4%2BoeIOHuKImaeY6Ybw3oMQKlbUnCner7HvdahBJ80lVv5P4zNY1umlgOw64&amp;nv_mid=82456539038&amp;cat_id=50000805</t>
+          <t>쿠즈텡</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>무료배송</t>
+          <t>https://cr2.shopping.naver.com/adcrNoti.nhn?x=0yxVX8RF%2B3J5h%2FYHS5NjZ%2F%2F%2F%2Fw%3D%3Dsv4eSJKl7u4JndTjLNysrH15inxcz3W%2FaVxw1lKsfPq7pWmtmBGKWVe6ZOVTLSMOAkziBRewV0q3UxAPIqGXp%2F3p%2BrT%2BR0toUFGrQc3joayI5T0XRLXYW5u2LIcub5aD7HOASqjduVcFDWkaeDXUScyzWCOIjVz3V6cyYd6GJCKDcnpDnuXQlKh%2Bd9F09msUrL3mYiZdgjDuOwNbPndIfBx0qmusgk2uvaAvA0DfOYFS7%2FtuxX6l1tKmQvE0XaFQiN%2FffpM2pgF%2FHHhDu3s9WNuGYbMtgp5O7JT3lCLVs33h1iy0%2Bnhl%2FSJZ%2B%2FWUf7OGw2pQeyAcpGrN3qdfeNy9TA0DInQTllngnA1yNWKSkSS%2BYcYJGcMIP%2Bz2Gi9L63WAmNiqk38nfq%2BiTJI6Lqzbn5LikQpo09Lhzx13vFW6NnpTjLZgrLctYG2iWsF3JNN%2FeThIonDvJssqz%2BnXAvPDghfSLrV18of6%2Bu0OyzdCjTard9dXy8T1G5wPYPNfE1asxGRg%2BbVuCkv78s%2FJVaEAeYm%2FubLSfT5NeZCQk7yI9wYAn5mFGn11JhaSE1%2BVK6j0xPdBdMfgSCIMgjuD4xplxUTbUFxFkNhlEV6ksfmldpjZ8RkxvrG75MueEoP0ibWgXiehH4CWnG5C1niDt24bZdPB1pwgQjUudojPItxirS7uVCjl7Qq5qYHzmhMkVcQ55aJse3MGyIxmbOjmvgudfTzXUC6NkLxe9mzeW5Qp1MDdzohka8EvGcQs5PZ%2BPO1Wi&amp;nv_mid=22073838274&amp;cat_id=50000805</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>카드할인</t>
+          <t>무료배송</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>/--/</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A G 엣지 프렌치 소재 린넨 100 판초 니트 3종</t>
+          <t>스타일온에어 엣지 린넨 블렌디드 니트 SUMMER20</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>최저83,550원</t>
+          <t>38990</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>판매처 16</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>등록일 2020.03.</t>
+          <t>71</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>/--/</t>
+          <t>2020.04.</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>인기 85,410</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://cr2.shopping.naver.com/adcrNoti.nhn?x=5uM5k9l1yNdkbzfJMv%2F%2F%2Fv%2F%2F%2Fw%3D%3DsUylVZT4yo5AP%2Flos720AQ%2B9aTnjjD4Q3EOOMVRV37tE6Mf1EDp2stDy9QHo2EC1DbemPs5p5i2EG0Zu6nmQkJcMsRlBx8BTVfH1PwanR5yLhSzrkPKXkqZ9MZe6h2tJEngu01orXw5THnueqGrFmTGkwbkK1ewMe2wqUfaNlTNIW%2B8YzPqCtWWDrbDQIUX5Ai%2F8OH08jUtsPfDP2A6nG9%2BjZLqMiH6wIDtvAB1g%2B2W1lcn%2BHxHiMKYtViUf%2Bf6UX%2BNW9U730MjWu4XIlvq9yYWWYkHDWI15lHgDJLrSaQu0LQiJuCpV%2FqI%2FrD1ufig1jL%2FkjAS6iQ6qU3h%2BD5GdqiTt0ZuON0T1YxQT5gyWGJ7wJlb1OSap7nkIUdFL%2BoX78pAkSINx9Fyw%2F%2BpuiOtGKMudK5DCGvGgQRI69xHTDl5pDsrJdPuHbLWg2CfqHm26B1UCjjjBpWq5q3r0lQq5lRurkQ6JM7sGvH5Sk54Ap6LJH76d4zkWghJ9jcdh19pRqskPotxjfpoHnpn1ruQTCDq93hM4nnbAX0W7QFtBdrI%2B%2BaxREkP91VXMFTWobyqU3wpbxBvuTDy2SM2UorLtT69U%2F4PUReONXXFoZ7%2FECLN4v%2BdpB3qmXc7axAmx5ltSlZwAsc0bkKK6mLkrvlL%2BkJrMtm5CAfa95xe4PQrQWwGA%3D&amp;nv_mid=22289812485&amp;cat_id=50000805</t>
+          <t>스타일온에어</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>무료배송</t>
+          <t>https://cr2.shopping.naver.com/adcrNoti.nhn?x=XaxcE0LSe5%2BB6P0TaTZR5v%2F%2F%2Fw%3D%3DsSOcm5LbXk3m4Sc0Ifm9nIKPmCwL0HcGqI%2BrWmHIh3n4dYHhRzpq78ou8r0qoxbZ%2F5AEmw9mjaho8gUHsQooVK2CkkrHQ6UZVTJUIz4rUPcv7HdcSNdcxZQKCmrOBYv8qvgJkU1wGbijBYuUyozT0KhZeQxkw%2B%2F1o4rY3JrsuAbCOawpm1IzOU5Iurythf4D4AUiAdUONzMdMs39GHhcWxGkOOl%2FIPIanxZM37IDYybsjS7Qlb1nGYHLeTIXUv6pa6NkuoyIfrAgO28AHWD7ZbWVyf4fEeIwpi1WJR%2F5%2FpRf41b1TvfQyNa7hciW%2Br3JhZZiQcNYjXmUeAMkutJpC7V%2F%2FYtZoYBAWjMFSB%2F6sdWJw4oPTuw3moXteftN9nlTwZ%2BCx%2FOOpA67FNBualr84FkTsycxEPaNEJtuQ2eskbag3%2FBW5RoG9YY9YalbbZHuZDtushLrcgHHv7txdJ0t2XYSiwu4r6OLf6Aty3vvbcC9%2FPYn2680nY3ZH3%2BGK8HQ3TtQeaf9tr5WdCqULvx7XWem76%2FyEwelx%2FduwKP6zTFBPbANgA0NAyvO%2BNKsQSjhFB%2F3Uudu%2BXqFY0Fl5MOrVUi8ZFldXNBpC5I2BWsP3%2FAJ7UNqRGNr9P8kKEG5q3M38%2FJuAlOpsLTyyA0f3zaLwg0br5i3wQOnDIC3%2FnY5qrqTd9YRL04DP5KCCMiYwEhDr2pyhIdEX76MMtCy%2BYHgE%2BA%3D%3D&amp;nv_mid=22485108563&amp;cat_id=50000805</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
+          <t>3,000원</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>카드할인</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>/--/</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>지오스피릿 여성 이태리린넨 혼방 반팔 니트 2종</t>
+          <t>브이넥 여름 루즈핏 반팔 니트</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>최저53,940원</t>
+          <t>17800</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>판매처 6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>등록일 2020.04.</t>
+          <t>174</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>/--/</t>
+          <t>2020.03.</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>인기 53,940</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://cr2.shopping.naver.com/adcrNoti.nhn?x=fTN%2F9cgPBs7xx6TNCgT26f%2F%2F%2Fw%3D%3DsyU7KoM%2BAmex9fj%2FzQc9RfLpDRGsuJ2su6ebk%2BBK24ohhwEP4c%2Fywh8MCmujeGadZslGD84nD9zquzPdhg%2F%2Fs3F0eaYJF7qI5PuE9GtD2v%2Fm3hf7cstF66KOawNUCwmrcA9dqqeTmjsMksRWdD%2FI%2Bd0Z9EVHwEJkQAFqGEOiBJ%2Bus0he4ix5Tbkw6%2BC%2FCvGSZBi1%2BP1GjNc%2BBvhojqEWivf%2BupLgX15VIfUwolgW31eLj87tDb56TM3y8jFnmHpwEqUTIdUPGT%2Fr7nsXMENSj0%2Fi%2BiO8%2Fnar%2BNQz1BC%2BX7tpwa1BbB0ZfKXUEkOoi2Dt2gXcff1J%2BAonPAfNShOSqwYYlFAdf1OFsetsPTCIBnAuWvYwmJsa4bvUi%2Bv3z9EVhLdwNCixGWra%2B5W2Y7JkVEfzS9lbxlfGJQt3LM5RBfH%2BDMTO2c%2FdVo5b%2F7RsXAQgQ30Ws8QctRpZrXlS6X0Ious5n%2F5FGhIEPbk96UHV%2BsEUj5H%2BwJ4roUMDz5DRtLewGkCdy%2Bmrb%2BYgBxjvb98NSjAYzu49n9ZW%2FXPjB3ZEeHHiwMCWlMNYZ6v%2BsorOUk7EMpdIXvx%2B3wxZkpBQn%2FGifVW2K3yXgjYxxzMvkKAvob0qZ2QlfKEO7sgPO4nb5xf42qwTROmP1DocPeINiJbXaSDLfQIpZzh%2Fxy1lUGzt0E0PdIGAkRPXmU0jb%2BxH1ihSsV6kwM3yOfBzPfdwZ7m8FjIKKnuNgCHX528NzVK0WUE7mKpaY6cvxQ4XkNn6Z8e%2BVOP2YMSl1U%2FGaohhLXZ%2FJ4A%3D%3D&amp;nv_mid=22268174912&amp;cat_id=50000805</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>무료배송</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
+          <t>https://cr2.shopping.naver.com/adcr.nhn?x=Y6hlD1B3ael3UI%2FreiNef%2F%2F%2F%2Fw%3D%3Dsjoa2V5UwSMq2sjhHBLZw%2BnTitmiNgTj17YaFOgRyZiOdJGYOavcgRT9BShy7u5CsfeCrOVOiJ2xaKrFSFse6RsqvPylMXBOcV0LZCIZYPMnMOI%2FnDUPDM77HZqg7Mmg3RIi5tDHzsRqj5sgdyWDrr0IJPERi6aV%2BZLQJJ8iFzeskaLPue0yK5gLNHGcwNoTMbcm2g4Gii3cGWI9TGkkGjXWLLT6eGX9Iln79ZR%2Fs4bDalB7IBykas3ep1943L1MDQMidBOWWeCcDXI1YpKRJL5hxgkZwwg%2F7PYaL0vrdYCb1owhtH3CPBkdepwLHxvJmrCEQAXEbR%2B51prrDD2%2BowSGEbJB62NFarOiWo%2BgKXbH58RVuhirJjGKUk2l3bYDu6WciiEFWY7zP06Y7Hy1SWosUSCiPTAIpBXgzXv7gsdcnAiFC7iRlCtdXEu1dpL8I8mg8GtLm4RLxLTAiIkHXggkDbfztGCOtiwE%2Bd9QeseJRAICIq3tocBUeGxUEmc7cmUToBfbgJwXCHXl0y%2FS8jHpKts5EC0VRZ5OHeHwh5BLRcMF7k80ZNHioY1yR5RoNEXonSiC1d6PzxoRxRhsN8YsshS0H8tbfVEoV2ibBmK09SJG%2B%2BQPWsgD2JgbnLzsvuYhwE%2F85W7%2BppxbWTGy%2BYaR4JrT6L%2BvH5tbJuHlXbV8%3D&amp;nv_mid=82027481551&amp;cat_id=50000805</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>2,500원</t>
+        </is>
+      </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>/--/</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>아니베에프 아니베F 프렌치 린넨 블렌디드 셔링 V넥 니트 3종</t>
+          <t>찰랑 여름 라운드 반팔 니트</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>최저64,080원</t>
+          <t>14800</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>판매처 2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>등록일 2020.04.</t>
+          <t>284</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>/--/</t>
+          <t>2020.03.</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>인기 64,080</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://cr2.shopping.naver.com/adcrNoti.nhn?x=yWqEk%2FwIp547IVzr2iZYCv%2F%2F%2Fw%3D%3DsBF%2Fy5mnwdGOYQAl5Nmf10atSJWEzOhsGyq8J5gXacTvGOoPMyLoWB1B3nSdYgsyC3CCH17znxbKsODW5ArBQGQrLsM2NJEPIUh%2BdzlxvEw3dGxTSC9ZdNKx7Dj4DC5xd%2FknjgB%2BMIHRz%2BTR%2F3mKcq8aDriZbWk7z%2FgkSDVQbx5%2BC6x5GVJuh%2FYwD6CaEBl9gKQXMQy67DuzDnqJVrFw8WVOZomJGbhs3S2oRIDDiM0P3wxY04oK3mbTRCREw8dCn%2FhOoTdpB90pw8TonNBHcmdOJRpC08szvZbKZ1weLtnYjPa0MuGdCfNxm7c7hjCisIQI2k%2B%2Fj64pxCnLSfnmSVql6LyjznO%2FsH0Pfuqo3X7584kv3d5pevne5%2Bv%2BdEntzBfhjbX32BwO1s7tV92hPpebLQqJ9ORugx%2BAaLRSd1YGDMTO2c%2FdVo5b%2F7RsXAQgQ30Ws8QctRpZrXlS6X0IoujQ2RrCCTchitcCrFKna71dL7xzUQ8FttNXHoED%2BoRjE4RBvRoGoDMc533kKr3EuDNZjyq8JnllFttTYYGVNgZIqTOuoEKkvA8TKA7SVpCpjBeQsGUfuNPwwEqAe7nDh9JZXALSs%2BlxlVGjm7fgq2a3vcq3SmPdQFwlcguwUhIfIOdH8dLHIcQGDKdX9ZUjq49pbq9wz7JXjfd6am%2Fn1WBehSt7Fch4kTuxDZVkb67blV0njrahGzIJtTT%2BP4ITw6y%2F52kHeqZdztrECbHmW1KXJqT0KNjHPvqE99UPnNfgahSjpWyccWNrWmZRv6jud8g%3D%3D&amp;nv_mid=22216256598&amp;cat_id=50000805</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>무료배송</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
+          <t>https://cr2.shopping.naver.com/adcr.nhn?x=en1Bv6sO0zAFi8dls3APMf%2F%2F%2Fw%3D%3DssNDUW8NsnYtYd5ELPHhMtjmUAr5k1xK%2F%2BvITjE8RPJiN26kTQ6FSmfLP9RLkD1BVJF4XEkw9G4nJA8bHtWdPVY%2FVUKPtLXX0MEA7ug5RvTeUkDyGcYnHC%2F2FkqxOzztKP14fN9k0fh%2BDC9UTx4i7qiQ6yRPz0Bok6MuLLO%2Fx%2FZAKGhxpyu6WdmwH6s6yknjFPbsSB2vdkC%2BIMV8QQhi6JyECNpPv4%2BuKcQpy0n55klapei8o85zv7B9D37qqN1%2B%2BfOJL93eaXr53ufr%2FnRJ7cwX4Y2199gcDtbO7VfdoT6XuTqxHMMakx8rP229Qbbj8h%2F%2B86f1BtpnN573UAW3%2BK3GXqr1K%2Bl74yVsPB9IgV6knDeUImdL0d5lXl83tRsnwx3%2F2H3FpFL2SlfL0XIDMxsBMIeSZiMMChucgrS9yTVSrNFCKVt%2F%2BsiU5KiZCsYhmBc2x1dniqhDaQOW1kG6MbdyemmN0crbG8Ys%2FxuPZp5c%2FTqUmJCzPC4n1idoXoo6APjZExeRHLsTcb4wgYgYYspS0FhCsqY4Cg2gjALnSKetNFn0MLWhaDu93grehAot7kuEySazfNm0f3xte%2B%2F8Eg4C7uJbmkpXNTEKdWQq292%2F%2FV%2B%2FeFc%2FCtq9OEygBEqZjVCLmAZM5TpWsQjoNmsitOw6x6nMnDmJopXKuL5XL%2BJzAqK04NFwiBVB2wTCfWhIr&amp;nv_mid=81997380988&amp;cat_id=50000805</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>2,500원</t>
+        </is>
+      </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>/--/</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>보웬 홀가 세일러카라니트</t>
+          <t>크리스티나앤코 프린트 니트앙상블3종세트</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>최저64,500원</t>
+          <t>27500</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>판매처 2</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>등록일 2020.05.</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>/--/</t>
+          <t>2020.03.</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>인기 64,500</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://cr2.shopping.naver.com/adcr.nhn?x=Yld%2Bs%2BZ2J%2F%2BpF31GJHgSp%2F%2F%2F%2Fw%3D%3DsGBlyoEZzsHnIw7M0dVDf63Sd0jZau2mzxd1rZlP9uyyNovAOHijEkLM1VraTEycuzUZT7CzlEyy%2FNVyzsn4YWmieeEUT7uyqXqLt3i%2FCXjC7KxalPjSoWkkL8hQtSRLQmkENP2DS%2BLZ5Rg%2FgyD7eelPyFbOv%2FHrJi3xiP%2FOWqRD80JKcNjjvkzVqmDGalmMpqJmE%2B74VVTc1%2BygvXAB2pt04NkctLxyyYSAIofRAfPqCyGh65eCBNWF32LI8F6yOw2Nu9c3dbGJq7SHpdnZ3LI77wpBnJkm1KdaWX8bT%2FBKjxE7J9B5Fho2Euaawf8k90nTAdq8UILAgcCsSYIP1Wh88EGo9MtbIkzWnE4qUP8w4EA5%2F0UaIdEQtIejGBlJGP51UnSqeEm8fuJbhw8Yr%2BftnhiPqmSfmWaQ1%2FTEcvbUZ6Ect1sfjRXA3WbUeccXgO%2Bsj%2BVV6GPwZe0koDvw9NEEcT4ana1aOPI1%2FmGJ8Kf9KopQKL65o2TjJ2SBBd%2F9CQMFtIvE5%2Fle6elYdhMTItc2pLOAmkDdm5slAgzc42iykKNMnBLv2GvU%2Fjz7Z6lq%2FgwnlVQ2AF2kQ9ysGB3gUN3ey74Jms7zdk2krIyuiT2YGrssyzCAqY%2F958cT95UofWGLKF7zSCv8j1Jwwqfgu%2Fa8rpbBmMHYqif4%2BPq8COJc%3D&amp;nv_mid=82456417740&amp;cat_id=50000805</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2,500원</t>
+          <t>https://cr2.shopping.naver.com/adcr.nhn?x=hG0%2BHOkgJtT8yMwchU4Orf%2F%2F%2Fw%3D%3DsybBUYNqCmLbveFdc0zohnaxevUNzKYeRgpS4M64gOCNHFzZvxxoEEEADJeCvscJsk9UgA%2B1Svv9HrpKz%2FnnJXTTXdJfqFmwat76%2FRZaUka5%2FhtePMSrS36bsXc8GHZNBRIi5tDHzsRqj5sgdyWDrr0IJPERi6aV%2BZLQJJ8iFzettp93bZRJZNYXOgzYeHXugmTrN1uOXuccq6Zy4MLBXUnWLLT6eGX9Iln79ZR%2Fs4bDalB7IBykas3ep1943L1MDQMidBOWWeCcDXI1YpKRJL5hxgkZwwg%2F7PYaL0vrdYCZBo6Zh6qMP7E1evX7ehheeMV89N6Bqb4Yfmvw6gZiA%2BCGEbJB62NFarOiWo%2BgKXbEKfzjGBk23dVqeYBK5b2X6hqIg0QB0lhZuWlXk%2FlxuuxhQxzJeHy3wkMCrdGsVvHzKpzJQTjgY4p%2B9DD8%2F2tTnLz9utWKTrlrwVDBa2u%2Fy7%2Fk8DWvwwCfojS6TTulJTB0R%2FDC9FucYkYuvnDTIxKqXCRaNXxGwC8yy%2Bqb3EV4n1AuagA42JBumPRU9v9pgoAfsOKcX0f%2B3%2FS3wM1kPorwMphdX9qUtfw9nYozlFf%2BQqNNf3J0mYc6hYQZ5C5t3%2F7XTE9FM1q66eOXlgTPfBM4go0bAEVSrKXe7LqgadyZKHVWuUyddLMaxGayCY3kEP8KNsl0mlJORZBRc3T%2B9WzqgPUgjVwNCPPvSjk7RYilAN0BRvF%2BmriX9rJOfdhtTyGE%3D&amp;nv_mid=82415952420&amp;cat_id=50000805</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>카드할인</t>
+          <t>무료배송</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>/--/</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>폴로랄프로렌 여성 짜임 로고 포인트 반팔 니트 스웨터 3컬러</t>
+          <t>보웬 카라 볼륨 니트 기획상품</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>최저74,800원</t>
+          <t>35160</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>판매처 2</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>등록일 2020.02.</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>/--/</t>
+          <t>2020.05.</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>인기 74,800</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://cr2.shopping.naver.com/adcr.nhn?x=Wt6nUUpHtFvqwMnObu8%2BT%2F%2F%2F%2Fw%3D%3DsO%2Fry03QMPwLeedZfhjMiik1HJuK1Qrr7WfAb7gUu3jgMLEi25IE5tu8oyejSt%2FPNsnf3%2FPoWmi%2FjeDUHnIK24aIsP6enKFK67j%2BcHjSjQEDNBXZ1lK5mEjcsuekqURqAt8GwiNr2u50NfBoE4uPPBmjqzAI07v9t28ej8vJLVXnjvdkN8IJKzl%2BWw655jSYJ3ikRoELVU98Bjrh0wQPWWIF3H39SfgKJzwHzUoTkqsGGJRQHX9ThbHrbD0wiAZwLlr2MJibGuG71Ivr98%2FRFYS3cDQosRlq2vuVtmOyZFRGkjOWsXxO4Yf5RjPUX9Km4Dw5tnHtgwklih7tIveK9TnGXqr1K%2Bl74yVsPB9IgV6kNxNNCDKQVDiX%2BcIprshU8XkoV9GQDqHe5lqdyVNRR0AXwM8iyMLMUZex3fB1whhC5eadu3pYnME%2F4p0w2v3P3suUj7fOzIP1lqbTQGG%2BktNXVA4HQrv%2FL8h493qRJdc4FMGXvqhNAZablYI7QtyYG7nOIMDGiNLcxzWVsuCCszhV84oJwXb3%2FbSohAa%2Fgy30GrUlzfqgwNydmMtRWeRHiEgygM6zAhxZiuB8%2F817dNqtOUQZaY5FU9VDfZRVRx9WoobVSr53cyZvJTxxYkcyQzCMUXVGdW9MTGfzfNSfPGLDSLVr9fVHY%2B937iuTdEkEdTtbQL1nLXGEdvRh5ccjnHc3ftCJAA34veqhTbEIFcNALK8rh6OBORH3yOWkeflYGmwbZjPsP%2FVFw7xJX4zkH&amp;nv_mid=82358879409&amp;cat_id=50000805</t>
+          <t>-</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>10,000원</t>
+          <t>https://cr2.shopping.naver.com/adcr.nhn?x=QFhFoST7f%2BwkVirI5pZUuv%2F%2F%2Fw%3D%3DsXj%2BhtGqmR6ntzyf6TsPLqiydLyuUG%2FGY6LN0DefF1j3CFah5SPAEvocJyKfc6K0ky1aJBWucqRsdR1nWN34FDFSekvwevYsc5Rxda%2FZaw3zz427O3Mg5I7MKZrK4r9%2BZRIi5tDHzsRqj5sgdyWDrr0IJPERi6aV%2BZLQJJ8iFzeukN7gbJTLklHtCR6cAxlsOAjNKjczNjXVm7wIxRT1GYnWLLT6eGX9Iln79ZR%2Fs4bDalB7IBykas3ep1943L1MDQMidBOWWeCcDXI1YpKRJL5hxgkZwwg%2F7PYaL0vrdYCZ%2Ff021svioh3CTT85wNC5n8feSxj7V3HhzV85eJRQHNyGEbJB62NFarOiWo%2BgKXbFv7Xfd7oK84hlX72JGAhZBJcWYwWeh%2FEgMxnDNgw5rFVIdzLoGR5RZztaHS99AS1ETPNHcsvlDdBHXs2w6XBfaex8Ogd3OXPs9dqo6ksVZpNlIz4kj8Ebb%2FN6EdUYckyeH2y6%2BzzZ%2F8v0QGkpNYNSJAutQewecthlC%2BLLQAN%2BFoKGf%2BNNhZi3%2BH4qLTYE%2FS4bFdcgCQa0%2BzKidBH8253sYBH2wrQEFKKao9%2F%2FgUQeiDGJVH1k4aWiy8eXGgl%2FwCqqpqpL9HYbI8d%2B2LeQNugFoCLbg8qW7U20Vrr%2FB3%2FS9fQ%3D%3D&amp;nv_mid=82458226740&amp;cat_id=50000805</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>카드할인</t>
+          <t>3,000원</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>/--/</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>보웬 홀가 세일러카라니트 3컬러</t>
+          <t>브룬스바자 메탈 썸머 니트 4종</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>최저67,000원</t>
+          <t>72460</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>판매처 4</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>등록일 2020.05.</t>
+          <t>246</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>/--/</t>
+          <t>2020.03.</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>인기 69,500</t>
+          <t>선도</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://cr2.shopping.naver.com/adcr.nhn?x=neIvwWvBrvAFlwY2N4AEZ%2F%2F%2F%2Fw%3D%3Ds2QP6eAQz59zlP78fprBQ6akA%2BbVEPngQog111qAeZGrkGmq2YxDhRSYwiO6LTw2lBHjy5cFSaMMdVyj%2FXs9aH8U7PGbmfWqM8W2%2BWwyzn7ivtAZlgTWwemccaNhgjw3iyWS4ypyDpg2hADLoEMiFbRH4WQ0wX%2B8g%2Flt2iRmYuK4qjSyVQKYQ91u2s6XGj8zpB3Dq89qnfXABpXzSPmkzwkpWnIrSR%2F1TV3%2FWOWSZwqljOcsEzW75A1KuNN29x65jr9UKO3zNyf3v1YZ4%2BSY0Hj70eUtzBzAvuV%2FSEH06pBqruThpI%2Ft8v0LRyXrBHmNqmQ9K5cn4iqEgDdAl3v9ueGfgsfzjqQOuxTQbmpa%2FOBZ3Oka7QTVpNcZXPZzl2v84PlxQH7UaL%2FuXfhLuJbvFaYn4%2BeVymkZNacSdJob77QyKYslz7E0YuhzDlU8EqbK0M21U%2FBtUjSHYbNSxlDlggsDQvhXXM%2F4YR18%2BT3X2e8kdO43kNh6Ati2Z8G9T2d%2FfNP0VXTbV8zdkfZsQfHOkQhPW2sdkZsDQ3vGC5igCkz18fhnK%2FOpgeT4WfsobFOcTJnNxlhUkWsgTn6TIetvsSLsgGpyw0qdQ7xrJM69m%2FKBiVR9ZOGlosvHlxoJf8AqqGxd1Ful6caA6TSBlaKbhwDpRat5e7UHDNl3yMxtlGfI%3D&amp;nv_mid=82456764376&amp;cat_id=50000805</t>
+          <t>브룬스바자</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>무료배송</t>
+          <t>https://cr2.shopping.naver.com/adcrNoti.nhn?x=q7HpByMATJWk8JvOIBdwYv%2F%2F%2Fw%3D%3DsGi%2F10H8l9oc%2FpTHMOenZYpBY%2BYVCCM3rEuOHjPcOzx49Nu%2FeqcnHkE%2FmryeVsXeyPbVO6aM9OOHwE3XE74r5UJrvyoAvgUL7e2ondzNhV0DJd8ijvJ0hZoe45XnBEgY%2Fed1u%2BGZzvQTE9AISghTKhBifUg01cTI4tD9ClvlPO%2BdHpt2RT%2B7NmsqnhBJk1KSZgEGFQPJkjiU6etHZ1vuwm6zY5kiyTHcydV34ozluMYexFpmbrqnEiR5z8QkVHqOCWH3i1ijLkGF51f9iwh30rqPJowvBrVy09B4f%2Bi2B2RTdODZHLS8csmEgCKH0QHz6gshoeuXggTVhd9iyPBesjsNjbvXN3Wxiau0h6XZ2dyxjGKHYM18PQsGOOKjjvcAsq%2FIabU7iZ3tf5PX0sRcGdxYMtficd4hX0YehkJ95%2FpEFQMXNeDgtenZf%2FEz7CtqcOP3SNoKwrEpxdT1oCPoMKva78FTu2ENWaM71IP%2FD878xCqEoZoMJE2N9xoNhz9QukxtJIYl8Dja1IZwyXKEDaMWm7MbZlvvDfVGjAgXlt4TtXN9SdqunktrNxmcIzF7ob6abKPzJRgjYAGkp2J2xbOoMWX6QDgaF57l4%2Bp0nsAFqg9slrsiev4ggt%2FBTR%2BUn8HWnCBCNS52iM8i3GKtLu5UKOXtCrmpgfOaEyRVxDnlomx7cwbIjGZs6Oa%2BC519PNdQLo2QvF72bN5blCnUwN3OiGRrwS8ZxCzk9n487VaI%3D&amp;nv_mid=22181201514&amp;cat_id=50000805</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>카드할인</t>
+          <t>무료배송</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>/--/</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>심플 브이넥 루즈핏 여리니트</t>
+          <t>A G 엣지 프렌치 소재 린넨 100 판초 니트 3종</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>최저13,900원</t>
+          <t>85340</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>판매처 2</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>등록일 2020.03.</t>
+          <t>443</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>/--/</t>
+          <t>2020.03.</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>https://cr2.shopping.naver.com/adcrNoti.nhn?x=e8Tf9R5MjoWshxRRrUg8D%2F%2F%2F%2Fw%3D%3Ds0sIQl2tbREp24mP0gJtwpaidJtZEgXR3vnnckKBPHMuX5lBAEdZrvzfJc8SBshxhL3QrwddJsLEsRN8ypK4htfZNZZUswuEN6yl8bWmyi3AASEPcXpcmO1%2BoKDJiM5AMed1u%2BGZzvQTE9AISghTKhBifUg01cTI4tD9ClvlPO%2BdHpt2RT%2B7NmsqnhBJk1KSZgEGFQPJkjiU6etHZ1vuwm6N6YSllnFp%2BPHbhWV8A24XWsrq5yLLiLWKLqJ9xBr5QWH3i1ijLkGF51f9iwh30rqPJowvBrVy09B4f%2Bi2B2RTdODZHLS8csmEgCKH0QHz6gshoeuXggTVhd9iyPBesjsNjbvXN3Wxiau0h6XZ2dyzgUSQq7HW%2ButtuzE8czKjoTqqIWAc4KcMNvqPoIvT3F9hucTuK9WaSEWZhelmXtBfjU3NpGIQN3Io0rAUu6RubJm4vLi1Lmb2CRXmqdh%2F0iMUsETnQjoIZrynuLpSfaaTQ1KWW1KO%2FCDaK2RxhATZgPHZzlpCVLxPiy4z4QqaeBCQP%2BQ5i4n%2FYSnb3RHvvlSmo1Fa4JKKAAV80HYz8MZqOavBNCCmoMsdeuYj5tXRSQO6%2F3iEcgRHgQKXZ7y5IZ%2FK%2FWEPCevJxgP0WlVkS%2BuMQ2lur3DPsleN93pqb%2BfVYF76bEQBkycb4jxeQAS6ec%2BCeibOSjjGGqOx9FrIbLxJ1WDJ1YyhPspvYZ1NRcdaMFbEDTPpaT0ssWxEpxoMQ36LAKprmkqeK0XqHN%2BialA03&amp;nv_mid=22292374704&amp;cat_id=50000805</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>무료배송</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>크리스티나앤코 프린트 니트앙상블3종세트</t>
+          <t>보웬 홀가 세일러카라니트</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>최저28,000원</t>
+          <t>64500</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>판매처 40</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>등록일 2020.03.</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>/--/</t>
+          <t>2020.05.</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>https://cr2.shopping.naver.com/adcr.nhn?x=aM88ZHZwDYj%2BJkewDD3IPf%2F%2F%2Fw%3D%3Dsbahx%2BhOHIrTK9LPu2YXD6dSqQr4GYCyGkaKfXlZDTB45ioqfesSON3JnPqmyOGYgav6e1WE8iykT3n0dboAk3dwAC4sfFtcFgbSo0kutCOFv9ICEXAB7MhvPrP7sVH63SCE7%2B2jlJ%2FdNlgPcGHqZPCWqSQWm4%2F1%2FAHc%2Fii%2BQ14y7EzF6azJn%2BvKaoYk8vSafeBK%2FrAa80c5n0z2x0SeJyOjZLqMiH6wIDtvAB1g%2B2W1lcn%2BHxHiMKYtViUf%2Bf6UX%2BNW9U730MjWu4XIlvq9yYWWYkHDWI15lHgDJLrSaQu3uc7cYMy87W%2BCe9meG1WnzsHwmw8AnIjfLAyNM7VVxIlYqoYw12INTMaolka51gmOGv6welaFNowgPSnDUt0MWVDfqsq0hjjJ8bYzSf2ZM7t0FSv0tbXZPxIp0ft0NM%2FfjHf4AySEIYxjVlRveGcjgvTQKfYSMWm%2BH5lfUM3Cs7UEcT4ana1aOPI1%2FmGJ8Kf9KopQKL65o2TjJ2SBBd%2F9C85H%2Fg6hdm%2BzDWSPz520COEcDwJ4%2BgBs0zuOUl2CwpArbSxOIRR8OsXEpgyC8%2BTqDTcBMTvBAVNYOdyyJPS5yzTjEP9dosTlLBPBWWGRD2ukGrssyzCAqY%2F958cT95Uofq1y5YaJ6WtgGGQhMUh2WzBA4DNpS7Ze%2FQaNssm%2BkFss%3D&amp;nv_mid=82453478557&amp;cat_id=50000805</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>무료배송</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -3180,2645 +3365,1297 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>최저45,570원</t>
+          <t>45500</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>판매처 8</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>등록일 2020.02.</t>
+          <t>87</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>/--/</t>
+          <t>2020.02.</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>선도</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>브룬스바자</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>https://cr2.shopping.naver.com/adcrNoti.nhn?x=jqYne8jtY%2Bn6CdKn7f7Mmv%2F%2F%2Fw%3D%3DsmGIttinS4bPc6X9pew785bQrzhZGMb0xfD3yCyL6%2FOH8lDV8ivBUT4rBz%2FSaLru%2BAsN286zuZ9wTcHbVXC%2FwXwncYkMEbvqMTggLl%2F6KBkDH2kVitWWzaXU5V8UizmRqHOASqjduVcFDWkaeDXUScyzWCOIjVz3V6cyYd6GJCKDcnpDnuXQlKh%2Bd9F09msUrL3mYiZdgjDuOwNbPndIfB7MJTBOlhaeV2INccB%2FCuyq93cfwA6yLWJeypvMvj4U7N%2FffpM2pgF%2FHHhDu3s9WNuGYbMtgp5O7JT3lCLVs33h1iy0%2Bnhl%2FSJZ%2B%2FWUf7OGw2pQeyAcpGrN3qdfeNy9TA0DInQTllngnA1yNWKSkSS%2BYcYJGcMIP%2Bz2Gi9L63WAmit3o05uCGRh6PLzBuShXxrikQpo09Lhzx13vFW6NnpRDJR2BDjocrRco2WkxgW7eSPxFBi2f0%2BXPgm0Sevgk0lJj%2Bjq5gIB6bQtjdCiJm5GCEFa68HDfW4cgK3Cm5FxDG1NPdPOqVE1YGM9Nb9R58qM1oK5tLwDX5FFH2lU1DrXgqKCTYuygtx5BSZyKJbVoMhwLFJ05MT%2FP1KK2662v5aAi8UQdksMdN7XCyo7RBncmENnaohCV%2FLPjRngKNCgeD3v9i5S%2Bpa%2FsZ0Y1D8ipy4azNCPQOYwmqdFPTN6tm7C8%2BzdnWsVnoRirSM7zh2XVmvcbcf0sJmgArX4fdarljQ%3D%3D&amp;nv_mid=22055388129&amp;cat_id=50000805</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>무료배송</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>보웬 홀가 썸머 볼륨 라운드 니트</t>
+          <t>폴로랄프로렌 여성 짜임 로고 포인트 반팔 니트 스웨터 3컬러</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>최저57,900원</t>
+          <t>74800</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>판매처 3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>등록일 2020.04.</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>/--/</t>
+          <t>2020.02.</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>폴로랄프로렌</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>폴로랄프로렌</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>https://cr2.shopping.naver.com/adcr.nhn?x=ozh%2Bm46KWM4Cjw1DUkLMDP%2F%2F%2Fw%3D%3DsjbOygaNYi4tm1Tuzf4UR69G20R5X1JVYrLd%2F5bm4GgdiKcSWAG5vdDrKm5GYklNXdNvjQGOyX91cJ6G9oBm3RUkBZ5eivmstxeMlwxq6i4S27nWbLVzGCMmtNY4t3OlUmkENP2DS%2BLZ5Rg%2FgyD7eelPyFbOv%2FHrJi3xiP%2FOWqRCNfKMlP2nBFC4DNFBZTF0f2iqJJJb8EGsu%2FC%2FDNYx%2FQ904NkctLxyyYSAIofRAfPqCyGh65eCBNWF32LI8F6yOw2Nu9c3dbGJq7SHpdnZ3LGMYodgzXw9CwY44qOO9wCwPAPBKp7pEsKvMa1TJG3j%2FeEMGm58y3SlmyqUOL3RBlSGEbJB62NFarOiWo%2BgKXbHVO0PfWeBLJog858W6ifMYJcWYwWeh%2FEgMxnDNgw5rFfWOUmmDUT74Lv1SqbbofFiE5bSz%2BKmWXhCRW0swgIDs9eot7yrRgXBZaT%2BlSUvn3IBLvBDY4XXPSgEF6wpH%2BUXawnUPhRCQP90JGQhjQCD4MA0aB4LasRnczaEswFn4E5DiO9%2BopwvniF72vYgNl9Kjah9vk9AlHsgY%2Fe87uT5NH2wxJaeOnISDHbQHnLK8zmT3nL%2FLWyVIUXC9egVmXVDATsggzt02IwlPLQCAGzEwHFXM8Y%2BrAhOfUPNeXVd%2Fi2fwFaaTip9lTZU8k%2F%2FNK6gGrssyzCAqY%2F958cT95Uofgt%2FaPNzbrVDahKcAiCoo%2BnJT7da1pvd53ZFXnzRwddA%3D&amp;nv_mid=82357695514&amp;cat_id=50000805</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>10,000원</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1 1 슬림무드 쫀쫀 반팔 골지 니트티</t>
+          <t>보웬 코튼 단가라 니트</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>최저13,900원</t>
+          <t>23800</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>판매처 2</t>
+          <t>51</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>등록일 2020.04.</t>
+          <t>431</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>/--/</t>
+          <t>2020.02.</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>https://cr2.shopping.naver.com/adcr.nhn?x=riBPVzwb30uAZzLTT0ETAP%2F%2F%2Fw%3D%3Dsr7PnW8qkKukTlybnm7RfQmbSMfIehAP%2BD603BuQDg6XETGJJqeipdF54y14Z4H%2FmpGgHXdxwg9HhK6o1oMIrXLHIujlVzn5aUDxoo7I1qRRzg1xN2zErepg1g4DfjoN2yWS4ypyDpg2hADLoEMiFbRH4WQ0wX%2B8g%2Flt2iRmYuK74%2BD51c24IsOvlA27hrsFKjBXB3L%2BMLyocmvmp7vroVkpWnIrSR%2F1TV3%2FWOWSZwqljOcsEzW75A1KuNN29x65jr9UKO3zNyf3v1YZ4%2BSY0Hj70eUtzBzAvuV%2FSEH06pBqctKtQgeZ6MVOnQt3mvqi%2FFUgP5eLcWYQo5fkdyuUPlSGEbJB62NFarOiWo%2BgKXbG6Omd3%2F2fZfla9UxWc5O%2FFL0Zg77KV2m2bFbzOQ8LqmgWeQK63BoH9VopAtTzahNIyfbWUSMpjC53ci%2BFrMOoyH527RYk81P0l4AlVZeUWsplrdFlhRPhsbr3WbXZkhMsUOhFplJRBdzLv192fPqhmmNG74Z8sCpso%2BoNxsK97lqwnBg2ETqreFP7SyF6UBm0OYVqMKW%2FGdiTF%2FhtL11zXFD8Rxpl%2B%2FTuFxy3Vr4lZoVLYebhqz7mV%2BgK%2BJEicB4VpvvUMwLiTH1B7hfvaIY7hBq7LMswgKmP%2FefHE%2FeVKHy8gUUXyR1Rr0kztw7HU1HpgQ5Q5tHqCOsaayafiq%2BOF&amp;nv_mid=82380589654&amp;cat_id=50000805</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>무료배송</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>잇미샤 전용상품 카라 배색 니트 풀오버 30 ITK4ZPO940</t>
+          <t>보웬 홀가 썸머 볼륨 라운드 니트</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>최저56,300원</t>
+          <t>57900</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>판매처 34</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>등록일 2020.04.</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>/--/</t>
+          <t>2020.04.</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>https://cr2.shopping.naver.com/adcr.nhn?x=KTj7AG3OCDGmoTdW9a5BJ%2F%2F%2F%2Fw%3D%3DsLIbg0i0st0EaS8woVb1hfrnnkCeMbrS%2FIHEOf115iHnroMCqLZUSsn0us%2F8IZneGL%2BWAaZQxWwCej4TcsNiMkJ4saMMSWX9QuABEt9GQzE4oCdbzP1c8A09mYPYz4hh6yWS4ypyDpg2hADLoEMiFbRH4WQ0wX%2B8g%2Flt2iRmYuK5d%2Bw%2Bm3fV6zwArYBb4LvnZUtxdpJGywOXh0CH90Wq0IEpWnIrSR%2F1TV3%2FWOWSZwqljOcsEzW75A1KuNN29x65jr9UKO3zNyf3v1YZ4%2BSY0Hj70eUtzBzAvuV%2FSEH06pBoK8JxUWHTClxCy67OY2CQPbRDLO1LxcB2vSDKi9Ue4pFYqoYw12INTMaolka51gmMMY%2BQQVf%2B6RMZQtIEPnsLnVDfqsq0hjjJ8bYzSf2ZM7pqkWFTjhDs0aFmbuw52WgGVRLhVinRPq8syBT%2FbGjbBsWnSr0Zd%2Bv8nxevNylCcGX%2B%2FoEyYUQP86PgqNZA6JvmFVZUOj%2FIE8DmRCWzT1HuS8NgxENO58Bs2Ol%2F8RKaW9TLfQIpZzh%2Fxy1lUGzt0E0NFlW%2FI8xAdF5%2B5m%2BcLOJdbwYSetDpyF07JknzvlUTxKiF2Hvu641XyeYlZ2y0g%2Fa2Nsl0mlJORZBRc3T%2B9WzqgujGgHGYLwWeYf40MiQTkFfvIVp%2F89rS627YCW4W7ETg%3D&amp;nv_mid=82457169148&amp;cat_id=50000805</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>3,000원</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>드밍 스윗 라운드 니트 8컬러 여름실 쿨니트</t>
+          <t>심플 브이넥 루즈핏 여리니트</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>최저18,900원</t>
+          <t>13900</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>판매처 2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>등록일 2019.06.</t>
+          <t>458</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>/--/</t>
+          <t>2020.03.</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>https://cr2.shopping.naver.com/adcr.nhn?x=w4oZhdyaSxy1ZaIEV1%2F8if%2F%2F%2Fw%3D%3DsQDgZqQVc2P5Md9thjZP8DKeGaJIy84kAUMJFYSYJDG3nJFASnMujLqdR8gr7RYv6eHgDM1tcu%2BiEU3yWyoniCAroUdmlQri0e5V3E6YtNA88HeuWXPD2cubGSI6w1sBvuqMqdGrA%2Fr%2BDH5%2BftjfEkcCA2sHQ%2Foz4e8MtWVeDgBqZSzBnqTDurFubSYM60GxG2t%2BR4bvnot73Bg7AQKGTIo3JDb2YBlSTyCo%2Bw0PhYKod3yATD2XOX5EoU%2FgBS2e0RulsZi%2BiZSyUNeSAjgCSwVN3kWzvRRlLokh%2FdUADXtzmLbgXhhUlY%2FTvRVnlFVCR0nTAdq8UILAgcCsSYIP1WgllILx%2FpaPduUoIA43egYqMKrIQT%2BBNPc2seaOqYm27St%2BZOylSzkBBsEWPEZmAezIGyT4rJClrz4YgCpUnRppuKPD3U6FnHkH%2BEnwqdY48gmp7oX8z3zIp1q%2Fsc4k5g6TU9qkDS%2BPq5Rty6y6eQLz31LVedaTSUVGTeVu%2BuRxs0T3XDuK4Ifjx4fbFatfsuIUKb%2BZPa7eVZCpoYx%2FXsKIChpn0SvnfYY%2FjsUTz895YaBWIEV2j9gSu3ddWlod57Z%2BOfdnJfbj1rs48ToYzEHzifXJk3LgEvV83iFx1dohggnFKPjlgQVnMtKlw4%2BC%2B0nUZNOo7RBGrb9ZVAqFTLc4%3D&amp;nv_mid=82110977660&amp;cat_id=50000805</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>2,500원</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>미리주문10 TAHARI 타하리 쿨니트 풀코디 3종</t>
+          <t>보웬 홀가 세일러카라니트 3컬러</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>최저74,310원</t>
+          <t>67000</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>판매처 7</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>등록일 2020.04.</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>/--/</t>
+          <t>2020.05.</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>https://cr2.shopping.naver.com/adcr.nhn?x=4DGuWbLG%2FctOZ9W6phT%2Fg%2F%2F%2F%2Fw%3D%3DsTSUl3rePzjg%2FfxpU%2BGefaL%2FSWgdb72yRCoxb%2BiBYx%2BJw7%2BKdsFopf8BBHmK4jvBTnRibN0j%2B9GdAyyOQaCW0o87FXD0B2iCwVIdAKnVZxipx54SKOiv0ij2iwE2wemgfyWS4ypyDpg2hADLoEMiFbRH4WQ0wX%2B8g%2Flt2iRmYuK7hdzjKYhWlOztzBkgBMKc0ycXAvaXpwCiDygwweDucckpWnIrSR%2F1TV3%2FWOWSZwqljOcsEzW75A1KuNN29x65jr9UKO3zNyf3v1YZ4%2BSY0Hj70eUtzBzAvuV%2FSEH06pBr%2F6CgWCirEn3jv440MG%2Bt3Gg4EuoRfPZ9E5sQzeQuR8mfgsfzjqQOuxTQbmpa%2FOBaNaxpgA4yfdHKvUxx%2BVj6HPlxQH7UaL%2FuXfhLuJbvFaVMamz552Fzkd5kk%2FMdrBCNQ3X7tOxKeawcRiZSann32zZYaC0pgUcC0lBSnpck2Z9qGY0XVMqtZYZfbb%2BmgyvHgQQi086BFh7aEfZFp8PWXPClj6APcsYDEln4p2l2WGaGJYo1w4Z2J8QVazu7opL23c9ewQrxRZDFYsQHgZZRovi5eaaCyImE5PHHfVHEh%2BVnVE%2BXxlt6vfgoQuksM31NG6%2BYt8EDpwyAt%2F52Oaq6k7%2FFdQDF6gC9oMG4tYnjxL0DcQMdyJK5rxftSbQ9gY4Y3X5JHRxB17kdSSeS1uCOn&amp;nv_mid=82454136503&amp;cat_id=50000805</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>무료배송</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>고비 GOBI 실크 캐시미어 섬머 풀오버</t>
+          <t>지오다노 맨투맨 티셔츠 광교</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>최저99,090원</t>
+          <t>12970</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>판매처 7</t>
+          <t>403</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>등록일 2020.04.</t>
+          <t>259</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>/--/</t>
+          <t>2020.03.</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>지오다노</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>지오다노</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>https://cr2.shopping.naver.com/adcrNoti.nhn?x=llcoP2UfLYODb6Makupy7P%2F%2F%2Fw%3D%3DsLNvLTzMs0oEHR7cok3lp5CDOQvH1OzQNF2lETKglE2CRWRQ1Pn9U%2FsLnHmV7%2BzQ5RKNHDfilwwCQ%2F4wXlZ2iigH%2B4vgBLK2bW6ln3Y%2FQ%2BvIH8F6x4RHLQ0hHK8q5ENTTVV%2Fiwot9O6SDWwsTwpBnk2HTam7KsiOOTFTFqvFGTzqgaNFRMv%2FKrYTaJaHsUpEDPibCdXiGcAfSlIcql5OLlThwtjbBVr51g7Z2s2%2FqikWBdx9%2FUn4Cic8B81KE5KrBhiUUB1%2FU4Wx62w9MIgGcC5a9jCYmxrhu9SL6%2FfP0RWEt3A0KLEZatr7lbZjsmRURzC3Pg%2FDHiTwNpd6%2FtfXt5i%2F5IwEuokOqlN4fg%2BRnaok5LPjnUcvgJeY%2BJtckHyGuAwvQb%2BGPI7kP8p33nOVrYW%2BWwnsEe7lsNPeLWis5yWOopvfLek1wvsxrjHbq%2FAjdxBY8kye%2BHsvZVuZ9JZkF5zFv91RWLzx1mYqUImEMUnVaZoWK0PPJvs6YFZM4t0sHgune7Q46lEcv44KjKDZCgg0sT7kMr5GeunrYYSCffiNKpeFj6TwI4APi9xeYLGh805%2B5QHCVdAyMLMhxE4UCAZ%2BOfdnJfbj1rs48ToYzEHzifXJk3LgEvV83iFx1dohg2ML%2F1%2BqNTGFP66A2e%2FledhARTXG%2B1mjpgAjE3XwoX%2B8%3D&amp;nv_mid=22181853745&amp;cat_id=50000805</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>3,000원</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>파스텔 썸머 반팔 니트</t>
+          <t>미리주문10 TAHARI 타하리 쿨니트 풀코디 3종</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>최저13,000원</t>
+          <t>74230</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>판매처 3</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>등록일 2019.05.</t>
+          <t>169</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>/--/</t>
+          <t>2020.04.</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>https://cr2.shopping.naver.com/adcrNoti.nhn?x=oI%2FxsFfU%2BYDgBo8gHe134P%2F%2F%2Fw%3D%3Dsj7JJRl9KLhpXSmHfxwvOtzehXitaSR8cS4U86WOnZD2qWUITG3MHKaqPD0TA5fABdqjz9%2FSGM%2Bhi2YYkEQiForzOqmwtP8mnAI9oRN15YKGEwq4qmVXCe9ak%2Baft22vbngu01orXw5THnueqGrFmTGkwbkK1ewMe2wqUfaNlTNLbWf2YZ1DXuzJHcGx8ZTw3i%2F8OH08jUtsPfDP2A6nG9%2BjZLqMiH6wIDtvAB1g%2B2W1lcn%2BHxHiMKYtViUf%2Bf6UX%2BNW9U730MjWu4XIlvq9yYWWYkHDWI15lHgDJLrSaQu1O%2FM2TVWtwFqNTyYzdDHhUL%2FkjAS6iQ6qU3h%2BD5GdqiQ7pJTTDVVkUdUxN5QuI07gHNLa5%2FTF2U9bJq39TVZJXAKNMmhR%2FEFT2WPQqYIVWRYWClrxWfQpLRQGUdyYud3rxABEd5l2VmPeLX%2FrU4dsp9OdbzYf25mfLO4cuk6vW1VnchA6BwBZ8v62I3pgMYeyWowAOXjMgESg12YSyzM%2BzRRIVOmu1gkFQfUSnUgfbpVm3u0jbFOs1RFkjlMiHBwvkz33GehJpMZ6jR3woA2%2B1Wq%2FY4ZU0PxCBPZ8ZdoUgBtGYVbuCykR1lb44uLU9keKCip7jYAh1%2BdvDc1StFlBOSmq0GpY6QIQNLxuT048wzolWZafu8LpyK4TWbo3oERY%3D&amp;nv_mid=22692516026&amp;cat_id=50000805</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>무료배송</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>카드할인</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>썸머 찰랑 브이넥 그물니트</t>
+          <t>썸머 카라니트</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>최저21,880원</t>
+          <t>16800</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>판매처 11</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>등록일 2020.02.</t>
+          <t>816</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>/--/</t>
+          <t>2020.04.</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>https://cr2.shopping.naver.com/adcr.nhn?x=SrmdWMULGBwcCo6%2FBOHb2f%2F%2F%2Fw%3D%3DsDAUybtLj8bLIXsrm2ERNqbgOPPVHaPN0DX6LaPaeCIcBETjoODSyk0rGSZ4ScXm%2BGtmdmkts2CSmT%2FYsFwz%2FW%2BwCuz%2F1PcLz4RIz%2BjDGC9y0877P9Sk5IxiM2CZJAv0quqMqdGrA%2Fr%2BDH5%2BftjfEkcCA2sHQ%2Foz4e8MtWVeDgBr%2Bbgejhr49%2BL5dTVQwdYml2t%2BR4bvnot73Bg7AQKGTIo3JDb2YBlSTyCo%2Bw0PhYKod3yATD2XOX5EoU%2FgBS2e0RulsZi%2BiZSyUNeSAjgCSwShLCRezvxiibB8eWvpGiX0cEZArxFnDETJQvb3007MiL%2FkjAS6iQ6qU3h%2BD5GdqiU%2F%2FPOf%2FR3OFpLthzSxApNceYEK5Uqe8KHRMJnX8ohGNOQEJ9DF57d7KYPbFZEjWMPvTU7NIJS7E7A4Bn1aBUNmxn0SDPrgZ4MHVzqk6q0uwmH%2BTlXtwWXOKnYUb4DOw4dSp%2FzJmYxtbTRQ5Bh7mOzVYxcldSHd8fqyVNFCnfiIS%2BM0%2F5bEXq9ve0T9nZPFIjY6wjNnVpQhiJZYmvG9kJm8QzP0gXMU7K5h9tbho%2FcdbeOOh1lW9RYWwIWmIC7Lbkrt87M2WWgTCebFtIz%2F6pb5qmu5FwHb8Iqgn1H5bhbuo8FGoTTwal1G7AuV5gSRzAw%3D%3D&amp;nv_mid=82061132413&amp;cat_id=50000805</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>무료배송</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>보웬 홀가 울100 볼륨 반팔 니트</t>
+          <t>1 1 슬림무드 쫀쫀 반팔 골지 니트티</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>최저63,300원</t>
+          <t>13900</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>판매처 16</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>등록일 2020.02.</t>
+          <t>62</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>/--/</t>
+          <t>2020.04.</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>https://cr2.shopping.naver.com/adcr.nhn?x=LOq%2FFAc46ccCTNu9VSBBSv%2F%2F%2Fw%3D%3DsB76uzHvZ%2BUGsDgk%2FaUatCHOu0FcTIXI093WDs8KGTw85%2BgrRn0PrCG7A4hLa%2FVvjUNAkFGBm5j3dOHM4Jvd6B0jI90ABhXA3KCU8eTkv3Hkd5OlEI88m0lDu2CyYQS9NRIi5tDHzsRqj5sgdyWDrr0IJPERi6aV%2BZLQJJ8iFzevnqM4F8%2FA%2BRdTzp7x5ZvtkFXHWbjAyf%2B4PWE0aw8isU3WLLT6eGX9Iln79ZR%2Fs4bDalB7IBykas3ep1943L1MDQMidBOWWeCcDXI1YpKRJL5hxgkZwwg%2F7PYaL0vrdYCbtXvu2g4VE73V%2BITgcgQl9G5%2FgL2zTapzTky503Z2moSGEbJB62NFarOiWo%2BgKXbEhykbHroT1%2BvW1TQQ8QFET90R8Nzec4AKuHL3q12t6gqlYjjFTcqUyWX7u4wbxy6djseMGKNxmF%2BCHbTM2CRNUtptFLerFlMtsIwXAF%2FRc5Vnc3zDUA2Ex%2FzNCeDKJdZnUK7%2FllqmU9h6FbH9vbpBleoYaaFnALjRnzLDFko7IlCb1MYhhPXE9FHTG1eA3Sxfkz33GehJpMZ6jR3woA2%2B1RS4d0djN1LrpRzl4YqkgNpcpqCXCiuuj0qu6awlH2tiylZSS2slj7AojzY0H9LyhPUiRvvkD1rIA9iYG5y87Ly%2BukhPcY2ejR%2Ba7btu2o6R6KU9SpkXIvwB59WlPsVO2&amp;nv_mid=82431291447&amp;cat_id=50000805</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>무료배송</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>봄신상 젤리2 스트라이프 퍼프반팔 니트</t>
+          <t>파스텔 데일리 브이넥 반팔 니트</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>최저11,480원</t>
+          <t>16800</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>판매처 8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>등록일 2020.04.</t>
+          <t>99</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>/--/</t>
+          <t>2020.04.</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>https://cr2.shopping.naver.com/adcr.nhn?x=cHehNLaESZHDnWs3iWxDO%2F%2F%2F%2Fw%3D%3DsyqgZSCarVfknHBwEYs41miQwBwmrIrGqQTIsklcJw8CEyYtmMbh%2BfuCAEF%2BeDEEJ659OwCGsPyN7dbhGqzhBIoGfJ8n8e5JwwMdSjA2gwBbVLkQMDA5BgBsroYo7ojfMRIi5tDHzsRqj5sgdyWDrr0IJPERi6aV%2BZLQJJ8iFzeu5NgoFvaaJK4Z9jEI6ZS7QhPjvmGwM4%2BW6BM9iv1dYdnWLLT6eGX9Iln79ZR%2Fs4bDalB7IBykas3ep1943L1MDQMidBOWWeCcDXI1YpKRJL5hxgkZwwg%2F7PYaL0vrdYCZnjZ%2FxY9IASdBQm%2BqF44ZXHl6J6SoKz9guzDpLwEVe9CGEbJB62NFarOiWo%2BgKXbHhr2C273luUi7EcFMSxW5nsF7w46DdVmRG4pzB6r3djXPxbxctrOFXlOPjayKWCteOs2SUgZwJ5%2BNEOOxPPQD%2FtL%2FntZoMDHXJ6QkDzVhAytMIZTcIDm%2FoME9%2BQOLlWlNJ%2FM%2Bx7UMLYAuXbIfKza0pvrrpCdOxmsMAPPMbWG0cvT66Dou0%2BPhFtDImX0niMQ%2F9Wun44AddnSjC1B2fGOJVekq2zkQLRVFnk4d4fCHkEv43LlahddAS%2B1mHkcuOtF0e1iQdY8zVbTHjwiglNI3842kszWPuEbee4zs06mRnoT1Ikb75A9ayAPYmBucvOy8YMSxN785smVb9iaYbywsP103NAxuQX6OUtytd9IetFQ%3D%3D&amp;nv_mid=82441161077&amp;cat_id=50000805</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>무료배송</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>pm11시까지신상타임세일 벤 입술넥 보트넥 루즈핏 롱 썸머 니트</t>
+          <t>모드 홈쇼핑인기 썸머 워셔블 라운지 니트 쓰리피스</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>최저14,900원</t>
+          <t>35440</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>판매처 2</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>등록일 2020.04.</t>
+          <t>111</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>/--/</t>
+          <t>2020.03.</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>https://cr2.shopping.naver.com/adcrNoti.nhn?x=4Y4%2F%2BPt5%2Ba2zLf06oLLHIv%2F%2F%2Fw%3D%3Ds7nX7dj8BC0H55oI8QUB8T1rpMOp6LLxlnkFP7lqbVKLacfarrdW8xaoUC0u%2FJH6j60Q%2FEyyo6DhoSy0kFnuijlAIHd4cAD1WeVNQet4rH2JP2vyZCh1zAc0GskkF2M9PKhcf0DASgQjPyA0grxEsB9A6P6HKgNX7Lx20Azu1E3d8kGrAjm3xoO1BrHld9B5JGmk6cziEG8NgFrxZ8LMIMEtKv7DvipJnuaZXpf9SDnXWQhozw%2Bgo6qG%2BRbZKe4yZIQI2k%2B%2Fj64pxCnLSfnmSVql6LyjznO%2FsH0Pfuqo3X7584kv3d5pevne5%2Bv%2BdEntzBfhjbX32BwO1s7tV92hPpcQTBPkfG1OpdTKuqDPPbXDHuIsMtVFZWPPClrNNmxfxViqhjDXYg1MxqiWRrnWCY4C2AFZeTDVdVvRQehDTpJoAV8AVcT3uNup99cbWQr15BCY6xvZWD206DRwdWvNfLTa9xNoK%2B76WX5HQOnxcu1%2BHf73mZkUsssT8TwbU4vUj1U0eQA%2FO%2BtAzsLtK6LG7aIdCERHyaT%2BTErw11Cftr0pID2YXGR7TZUP4BRIyogd00E6d6GKb5L7sOE%2BHcQObhvSaN0SM78FBoXEE1WpApXLaW6vcM%2ByV433empv59VgX0BKdIy%2Fbz5HBfCzLqtVp3J6Js5KOMYao7H0WshsvEnVYMnVjKE%2Bym9hnU1Fx1owV83fdByqSq%2F5pqLTYMM2l%2FMAqmuaSp4rReoc36JqUDTc%3D&amp;nv_mid=22192952195&amp;cat_id=50000805</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>무료배송</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>카드할인</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>전컬러당일 보웬 카라 볼륨 니트</t>
+          <t>미리주문10 TAHARI 타하리 린넨 블렌딩 썸머 니트 3종</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>최저37,000원</t>
+          <t>74200</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>판매처 3</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>등록일 2020.04.</t>
+          <t>442</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>/--/</t>
+          <t>2020.04.</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>https://cr2.shopping.naver.com/adcrNoti.nhn?x=gMy8E%2B0AUxanAVTX81nLAP%2F%2F%2Fw%3D%3DsZlCohxzuox9BVE1IwBK7EvEmWsb08ksmKOr6NRUZca%2Fju6Q2%2FSueruGLwZywaXz7NnQpGTh4wtmp4kGLPp2oH8twVcoAiTnKxmOI9%2FqKpjx794xLt0%2F1PdJreMsXhZyAed1u%2BGZzvQTE9AISghTKhBifUg01cTI4tD9ClvlPO%2BdHpt2RT%2B7NmsqnhBJk1KSZgEGFQPJkjiU6etHZ1vuwm5t5vGNGznRSDYJ7GtR9EGm4T%2Bo5mkoS2PrQN0B9vTkXWH3i1ijLkGF51f9iwh30rqPJowvBrVy09B4f%2Bi2B2RTdODZHLS8csmEgCKH0QHz6gshoeuXggTVhd9iyPBesjsNjbvXN3Wxiau0h6XZ2dyxjGKHYM18PQsGOOKjjvcAsfvNVfWAQ2x8IJ1%2BSHPl2exYMtficd4hX0YehkJ95%2FpGSMwTIyzx%2BsX4UReugzO7tK4InukNc8g%2Fs0Op9aD%2BmIibMbo0LSlyA3%2FjRLGTLWhUGwGKihY7cFY5FzcQ4wBz0E1jmp8V2Xfxmet4yMrpke0GX5FQVTzl%2Baez0ebNNzFGuSaxdjfMdwkSdpO44PJGAhGO%2BQFohpKDY2OirS3p2UMK%2B2jcEy0e1KlKrFu6oB%2BxGkLUaLQWJlIWdZePqmeo3DsJ2rkwb0t6eXGfAxOlFZLujtQ57mb5lIFsGY8zZDoQdTtbQL1nLXGEdvRh5ccjnOHLn8YrioA4O%2FZlLxgVSwvxAsgi%2F7RiBAsjIYBOIMNBU3Q0gbgvgMfHUtykt0GrO&amp;nv_mid=22644783301&amp;cat_id=50000805</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>무료배송</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>파스텔 데일리 브이넥 반팔 니트</t>
+          <t>pm11시까지신상타임세일 벤 입술넥 보트넥 루즈핏 롱 썸머 니트</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>최저16,800원</t>
+          <t>14900</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>판매처 2</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>등록일 2020.04.</t>
+          <t>69</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>/--/</t>
+          <t>2020.04.</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>https://cr2.shopping.naver.com/adcr.nhn?x=EO0EDtZ89IqNwpR4moR%2Bpv%2F%2F%2Fw%3D%3Dsbioa%2FRzSvfgeej4mlmV1VGRN%2BCGLtMI8tS6NBB3JwvhqLhP6ZSkKNyj9ifG6F4iXWM9n2dq6K0OLG9g3UeNRP1rma9%2BXVcZsQb2Kca7%2B1suITMPoGmzQUCYlHJoPL2qtmkENP2DS%2BLZ5Rg%2FgyD7eelPyFbOv%2FHrJi3xiP%2FOWqRDsDB6s2WKjhBsGS%2FZJ%2BabjXB9RKlximu6Mq%2FEd%2FteJv904NkctLxyyYSAIofRAfPqCyGh65eCBNWF32LI8F6yOw2Nu9c3dbGJq7SHpdnZ3LGMYodgzXw9CwY44qOO9wCzbyuT18FFoMYCWoEAHRhIh%2B%2BxYOBbFinbnpImjV5uh1SGEbJB62NFarOiWo%2BgKXbFEGUD5C1gD%2BAUf6KY7eCezaLLc0kCRW5QFD2CDh%2BuSWt9ZGbVGZZ7BYPNbzB5A0kpIQJ0H91B%2BmbOGXTSF8zoNT%2BtreQcvAolkuZEEgel9vcPqIkTahgPOVzjKWV1lFntBHE%2BGp2tWjjyNf5hifCn%2FO3aXV5o8wls1EsQqD%2F6bdjnzOP0Psqz6gbRHs6EGGw7b5E5ui1I%2BtqJ3CTBAxwA6CuRt8qrmO1AaJ%2B71f6t3nLRHoNbNWz%2BOdwcdpDCzoL2%2BeDhJ1K2%2FJRSMyx8fulaYRuvmLfBA6cMgLf%2BdjmqupG65kazqxLI5eBIQAt3O5vT4lsZob%2FEVe6E%2BsCm9CqHsBpsG2Yz7D%2F1RcO8SV%2BM5Bw%3D%3D&amp;nv_mid=82417755617&amp;cat_id=50000805</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>무료배송</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>J by Summer20 린넨 블랜딩 후드 니트 3종</t>
+          <t>봄신상 젤리2 스트라이프 퍼프반팔 니트</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>최저71,880원</t>
+          <t>11500</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>판매처 7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>등록일 2020.04.</t>
+          <t>188</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>/--/</t>
+          <t>2020.04.</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>https://cr2.shopping.naver.com/adcrNoti.nhn?x=sn9AW1%2Bmf1pTqFfg%2BONYfP%2F%2F%2Fw%3D%3Dsu%2FGwWghBynicb5uVR%2BlLinVpoLw7T82qgQDAftGYqFz6xXTrDA5GWDKxGjTaiaJ6yM70QjyMhbhzMsapLPbaIqPzizyNRQor%2FTL6W071mGOeFmGt20fkFzsZNBRp6XhTCysHbyYGfotTd%2FrFGyq7PGoSsbGUrLgN7W2FCqWqjj2bs36BlFpsc9O0LeIIDEQKOhPTQU6aUmsKERdJ3LN0ia55UdACXLYu%2B0xSAvOC9ConfTtep6lh3ajOm%2Bf%2FGW0HgXcff1J%2BAonPAfNShOSqwYYlFAdf1OFsetsPTCIBnAuWvYwmJsa4bvUi%2Bv3z9EVhLdwNCixGWra%2B5W2Y7JkVEV4Tay3n4N9k4y4SZI%2FUEfJw4oPTuw3moXteftN9nlTwZ%2BCx%2FOOpA67FNBualr84FlOwjYeI3wNzoxgNnhs3U7Pv6Pydlay%2BGfr02SQD528TaRK%2BJ8EswtG0NL0tr%2F5N8cKvvRkpEq2IuA7D5QOEVJE5b4FdA0qLTtQ2GCqwy4lg5iV70CfBVyMoGB058y7FMGksLGMcmI9RaUdpw%2BInK3jOOAjAutjaexa8GLyThWFhe%2Bb3Pfzw44Wpw4ZN9CEU0Xk5BbmBFP6EMXLXTvO1sfGIkbDVZhnbTqBjL5fkoUrPn4592cl9uPWuzjxOhjMQfOJ9cmTcuAS9XzeIXHV2iGB3auZkitiMobiA1t6EgcnyEBFNcb7WaOmACMTdfChf7w%3D%3D&amp;nv_mid=22437201126&amp;cat_id=50000805</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>무료배송</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>카드할인</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>썸머 카라니트</t>
+          <t>오플 칼라거펠트 샬레트 체크 니트 셋업</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>최저16,800원</t>
+          <t>54980</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>판매처 3</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>등록일 2020.04.</t>
+          <t>889</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>/--/</t>
+          <t>2020.02.</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>https://cr2.shopping.naver.com/adcrNoti.nhn?x=euYBk1yfFTRtNLauILn2w%2F%2F%2F%2Fw%3D%3Ds%2FC44vbvuIHpO1wKojU%2F2GKVK8R5lXJWkK07w04akp1uyad0zXf79ZXYXIECtZzimy%2F2ly%2BBmTe29BKfYBdSkGuoKJx8B8mSswGG%2FZB24bIWwADGd64Ww%2B9oKYu2ClDZVKhcf0DASgQjPyA0grxEsB9A6P6HKgNX7Lx20Azu1E3d8kGrAjm3xoO1BrHld9B5JEBeYIjlhjO99UliYVzHo15UWyrJ%2B%2BNt%2FShGdDpppYlPWQhozw%2Bgo6qG%2BRbZKe4yZIQI2k%2B%2Fj64pxCnLSfnmSVql6LyjznO%2FsH0Pfuqo3X7584kv3d5pevne5%2Bv%2BdEntzBfhjbX32BwO1s7tV92hPpcVDh58yWjx065bqde82nkXHuIsMtVFZWPPClrNNmxfxViqhjDXYg1MxqiWRrnWCYx36rgDlPzDKRTb37nJGd74AV8AVcT3uNup99cbWQr155KGBC662CHK68%2BzJX5h96TKjSqvVBGFXM1KKvGzEawu7HFCQM4KaQpt560vUKpRKSyFeFznxIOzXuhFXxFbck6hGAqjDlVsIbPokOPPQzLZ8f2QU3vt2GDgtZ4qcX%2BX5L1mFylcBX00KX4xCBN0FWfidfLXRH7zaMj2WykmbRnIROhFoDbojENxd0UXGwIKbFIXMtA8Zevi0fHyowx4BnuHFglVetM9VbTK1RvXautpSSFxmU4AcFL%2Fe0oqW34C4E10GgIY%2FfUNrGszbNLQZyZtWS1sPhecfFh%2FgAGr0FqY%3D&amp;nv_mid=22024368333&amp;cat_id=50000805</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>무료배송</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>카드할인</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>보웬 코튼 단가라 니트</t>
+          <t>J by Summer20 린넨 블랜딩 후드 니트 3종</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>최저23,800원</t>
+          <t>71830</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>판매처 49</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>등록일 2020.02.</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>/--/</t>
+          <t>2020.04.</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>https://cr2.shopping.naver.com/adcrNoti.nhn?x=hptjoI0976kjhOshKvzCIf%2F%2F%2Fw%3D%3DsKa3kgiLrk5%2FFCa6Dd7nz5O6udUI6sRz7iYa3wiI%2B5KXTOn4%2F54BuKGVvgf9ULBWiycf%2BAlmfThoCNmsraCAwthieLvFtZtlYi8z1o4%2FE%2BUqpXRZp4DHHPKwBQijWTuLKbe4vrwCjBfIHBdFu%2BUgYqBJ%2Byqh2Ud4iODYB5H8L77n8omU9kdMRny8%2BbUnaMzBsPvD0TzGI0p9%2FL4muhkFk6nmvY4ABjTdtY4P5aN7jP966qIlR1lBj0Hsf6lOUMT1NNCXxBGhvqBqTzNMCk9nqV9gXmaGcXKPA0liOrIlbZ53MEXeMptd1Htam8mk%2BHYICSlacitJH%2FVNXf9Y5ZJnCqWM5ywTNbvkDUq403b3HrmOv1Qo7fM3J%2Fe%2FVhnj5JjQePvR5S3MHMC%2B5X9IQfTqkGrSVHpxmfW8t9fa%2B4yC3lICHJ%2FZfGQkcZnrzlyFg6RL4xcOdaqd27hlQSHEINXAe2O9tP1VdF5e8LeLVzIAUeTZJQccsLCEEJnMM%2FY00pKTAqnBx27nFREXArtYfbh29P%2BXIi6GkLjZfJQKglvjj4x73qdqMCzQQ4Fyj38v%2F15CoWwxUlCepuondPeNJc7bywWQJ7YK6mAi7wag8ygSkZXeAvP9xLizh1%2B7E3AwvIU9LJOX6TA7rKLHyD1gLdgmoOL5rFESQ%2F3VVcwVNahvKpTfpmymncochp8bNj0jq4K55EA0dbIgREF7ZXj6ypnn44gauyzLMICpj%2F3nxxP3lSh9%2BwNaOXudd%2Bg1DjQIeLGilGxXJ3HR4BBG33r36OZm%2FHQ%3D%3D&amp;nv_mid=22359369132&amp;cat_id=50000805</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>무료배송</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>카드할인</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>핫한 그물 망사 니트</t>
+          <t>솔라 라운드넥 스트라이프 여름반팔니트</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>최저13,900원</t>
+          <t>14900</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>판매처 2</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>등록일 2020.04.</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>/--/</t>
+          <t>2020.04.</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>https://cr2.shopping.naver.com/adcrNoti.nhn?x=JZL8oYCC7BiWwfgHJY8WUf%2F%2F%2Fw%3D%3DsgyMK9WtcGKiIZ7BM3VXxCFUXBXUhdSSvIHxU0jMaw9GG0ONvMqcCnJygpF%2FNfNcij4yZinxB%2BsQ4eBOxxgtDF8wpp6x9neaeR8IiHOJzn2HsEz1cz7l8lMceUt7IC79rW7IWmayXaNWh0X1IsgPjB6as%2BpUMyJqepUOZQqNzKwJ9KL6D8pEBnrzeymPR4ldP4DbTCen8vNmTWUDW2%2B%2BiWqystyEo5O6dzIcO9VsHhgLLaXu9DzAn9kYPEIWpY%2FPBe31Z4pXnN3KN5gkvvMuKLMVSjeiL%2FqRGyALAHVmWfx0NtvmkR9AXSVzSVIC3GMCvUtDJRPWYadGXXsZSxq0ev0vzvg%2B7Sk2187HPMvJEPpW46WMUMwv9XOSGVwj5dWzNObFZIlPvVzUEwkHTyRNvuxYMtficd4hX0YehkJ95%2FpFmRCpS6T09Jlp2GR8vtRRXXBFdULkXgLKzANfhDys5fIfkn5Ja%2F5WMq8JwzrQK796JbWcjl2LeNfo9IPSjnoJvX9qo5823K9D3JbpaY0ybeHgNFVD7BMKENWfyqnA7OlyadZTsHIwH4xVyz0vUZE0n8WpijybHs6OtWdqFjgn12FPH46bJ%2BDXlRgAmkYYG%2BMDXm8s1oc8x2uv7g%2BgTCoLlk3Br2EMUwDLrsuvAyoMhaniBGfRuG4Taa3TO4SfAx0dC0n0QU%2FXS9dS%2Fi2aZ7tEQZVfxtkhui0xU81k1O1TZYsVPrCEqYM5bQdEVWDAg5iQnou9VF1%2F7b%2FR0oJdyee9t&amp;nv_mid=22603292177&amp;cat_id=50000805</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>무료배송</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>지오다노 여 반팔 스웨터 350508</t>
+          <t>고비 GOBI 실크 캐시미어 섬머 풀오버</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>최저21,160원</t>
+          <t>100060</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>판매처 18</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>등록일 2020.04.</t>
+          <t>143</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>/--/</t>
+          <t>2020.04.</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>https://cr2.shopping.naver.com/adcrNoti.nhn?x=8wrB8qMfD3Och%2F2Vgsky8v%2F%2F%2Fw%3D%3Dst6VYtJIuCJNv364aYjP4gzE0syxbfbCNHA1c25aSKCPEt1Bl63aj169vzI7S9KkLNfsda9R%2FAM52%2BmzD4yBqtxReQvRcIrr0WrUwCzXrQeor7riUZ2hgBCzga8Zmq0FPCysHbyYGfotTd%2FrFGyq7PGoSsbGUrLgN7W2FCqWqjj2bs36BlFpsc9O0LeIIDEQKrUdXqNzYP%2Flrxg6YHVV7kpZytwhKk4WfBYt2g4rJfJgnfTtep6lh3ajOm%2Bf%2FGW0HgXcff1J%2BAonPAfNShOSqwYYlFAdf1OFsetsPTCIBnAuWvYwmJsa4bvUi%2Bv3z9EVhLdwNCixGWra%2B5W2Y7JkVEeuTaZHbtDIiAOReUFf5ZQ%2FHuIsMtVFZWPPClrNNmxfxViqhjDXYg1MxqiWRrnWCY%2BRqUBwcWTKo%2F0anqgfP5SAAV8AVcT3uNup99cbWQr152zI9YS23g8nBjnpW6n28qf%2BGXhIYBVHgwJvVw458WJm6gDZLT0mcNzyElQYAjwMOH7DDF0uTjZ7vAvq94C3Yw6DsqEz%2BLGeE7HJvqc66QN1ngadIWNWZ9JfbpAyyKf%2F0QsEBzfFCiXtSfDb4sVUitI23Pgm2yDU5htLwEhS%2BsCbiQxzc5HXn5uOl%2FpmVIhROZVfxtkhui0xU81k1O1TZYm9Y%2FkUiBDR9Im012s0iahz%2F14NaiWPKVBIcnNgRSMIn&amp;nv_mid=22345552279&amp;cat_id=50000805</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>무료배송</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>카드할인</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>pm11시까지신상타임세일 뜨개 볼륨 망사 크롭 숏 니트</t>
+          <t>핫한 그물 망사 니트</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>최저19,900원</t>
+          <t>13900</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>판매처 2</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>등록일 2020.04.</t>
+          <t>57</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>/--/</t>
+          <t>2020.04.</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>https://cr2.shopping.naver.com/adcr.nhn?x=WNbUOTR1opx%2BfcOxpXMkA%2F%2F%2F%2Fw%3D%3DsqiGTyeGP5naG5SSdkd63%2FLil7lJcV4zp1vf8pwj4ahwkm3AHY%2BBzJpZ%2B0be6NaNFuk%2FEqv7w%2Fat76ef%2FsRAQg%2FOynjVbeDOsIBuXW6qL3kPbcpw5vNwJxrTgXk6SXcLwRIi5tDHzsRqj5sgdyWDrr0IJPERi6aV%2BZLQJJ8iFzeuT2GM3JirI1HgPAXrBqkXODAKMVBeeWoUiaAFsuty2u3WLLT6eGX9Iln79ZR%2Fs4bDalB7IBykas3ep1943L1MDQMidBOWWeCcDXI1YpKRJL5hxgkZwwg%2F7PYaL0vrdYCaDwmvQE%2FbYceqvGqJ5735yvZ8zkX32U6aCmB%2FVSnEg%2BCGEbJB62NFarOiWo%2BgKXbF1u0%2FuDLtsUuR%2BPX%2FJLJt22HbDuEPmWkvB4GlVbKjMLMQNrDqDbu4IDk1KJaDpeJ3Xr958P9NW%2Bgn6%2Fb6yLngR8i0x%2BjhLCwCNPTPVDBhS8qKw8KnALcp5KCBoIhjTGKGyUTEDdljOLKXSDTNtZ7ayYL%2BpMyljYZlNzW8nSIE81Jyii8433wHjALcoAkbQO%2Bbervl3wROcGAwoUjm2SormxlvMQbox7SlhRptPXNxQeU0XDfh9UrA%2FF9qdLS%2BpTzHhxYJVXrTPVW0ytUb12rraUkhcZlOAHBS%2F3tKKlt%2BAuIcxuLozLA5U160VmPteyBXAqK04NFwiBVB2wTCfWhIr&amp;nv_mid=82450737695&amp;cat_id=50000805</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>무료배송</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>쿠즈텡 비스코스울 블렌디드 V넥 니트 4종 여성</t>
+          <t>썸머 찰랑 브이넥 그물니트</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>최저63,240원</t>
+          <t>21870</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>판매처 10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>등록일 2020.02.</t>
+          <t>341</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>/--/</t>
+          <t>2020.02.</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>https://cr2.shopping.naver.com/adcr.nhn?x=N73HfkMZ9LiAuKSZFuUdR%2F%2F%2F%2Fw%3D%3DshNccHu%2BGcQmz6fYXupTMRoZwB7Qm%2BLOB1CJpU4GAk6%2BWTofV8KF9nw3hRSe3Te00vu55X4emcpO3K4ib70Rq5JDY50KWqbfNv198mJGCFtbEeDsS%2B2xpbuUA88GYGNb6yWS4ypyDpg2hADLoEMiFbRH4WQ0wX%2B8g%2Flt2iRmYuK79Xj6t2ptBAThmdyW9x5SUhnuqBUPpFGD9xCZiEulxj0pWnIrSR%2F1TV3%2FWOWSZwqljOcsEzW75A1KuNN29x65jr9UKO3zNyf3v1YZ4%2BSY0Hj70eUtzBzAvuV%2FSEH06pBpT177FkBrcf%2FJCTE6vcuWfvbNtnOc3fhIAySUD6Wop12fgsfzjqQOuxTQbmpa%2FOBZ0dJ%2FY5A%2FTSKPfnrhCyG19PlxQH7UaL%2FuXfhLuJbvFafRL72mexxsCfRibSb6tQgglupsGMzAxl74E6nbuORLOqGV0cf3DKFN9zuPbylp9VbG5hMjOdYD3slCtSkOkLTszKb7W6Kjba%2B3WhBxJdMQKJ67SPus6PUEHcl%2Fs4t6oSO9KwI7GlarROZzGKuhQ26bmoY3dKWAYO4thGs23iDcyQLtbZsi%2FPIoQKwqJ6DE3viLDrAPel%2BxSjJTrn1BJdii7fOzNlloEwnmxbSM%2F%2BqW%2BX3lvG%2BXBbIde6tCmYlzGoZP9FNY0uilIjuKe6z3Owps%3D&amp;nv_mid=82407417075&amp;cat_id=50000805</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>무료배송</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>여름 가오리 루즈핏 언발 보트넥 니트</t>
+          <t>전컬러당일 보웬 카라 볼륨 니트</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>최저22,800원</t>
+          <t>37000</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>판매처 2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>등록일 2020.03.</t>
+          <t>16</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>/--/</t>
+          <t>2020.04.</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>https://cr2.shopping.naver.com/adcr.nhn?x=t%2FDdS9e%2Bhtnwkuh3ZgXUZ%2F%2F%2F%2Fw%3D%3DsYUvD67IUhxzohhBE0WCYIEhbiCOEEOY1%2BVLigraczZ8cK4qFbHu4Wzpj2DOXpBDCFVBq1IB2puBkKp%2BIVCEyX0nxzXSUjoQkKKsx1iRfVqLWPZuS2y%2B%2Bc02mwmk7U9dFuqMqdGrA%2Fr%2BDH5%2BftjfEkcCA2sHQ%2Foz4e8MtWVeDgBpLBd6Uhd2iLHdxQM3U4%2F3u2t%2BR4bvnot73Bg7AQKGTIo3JDb2YBlSTyCo%2Bw0PhYKod3yATD2XOX5EoU%2FgBS2e0RulsZi%2BiZSyUNeSAjgCSwcd2Mbga518xSl6dPjXWITe27dFPrn%2FmAumsO0SwqLYKkG5FPsHfdTJJyLkdUQH1VP6hWIXJUb6Oa6jMa1wO3nAG3h3DG366UKIHMrjJXx%2FTFwgPqWD1jPNkQN3%2BwSvtxFXpB7BLv%2BqjTLXtqc4oyEQ70QAq%2Bulu8cu26%2B0og6XETlpGKapZk9GHdKcfOnr2%2FOjbbOlbfq7Vu5XA0NLrKct2BWMz3u5%2BkTVOGBG8TOudam8pkpn6%2BmzX%2BDYkB14jSGfuMK6ubfR3gzkg5pkILNDUQV1XeX3YHTTip3LNHMSn1O9IgevTbwp0kbKNiBGYkuHFglVetM9VbTK1RvXautpSSFxmU4AcFL%2Fe0oqW34C4Ov74s1OEdnvKEMJ14cYD%2B8CorTg0XCIFUHbBMJ9aEis%3D&amp;nv_mid=82456591215&amp;cat_id=50000805</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>무료배송</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>모드 홈쇼핑인기 썸머 워셔블 라운지 니트 쓰리피스</t>
+          <t>뉴컬러 다이아 쉬폰배색 퍼프니트</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>최저35,210원</t>
+          <t>23280</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>판매처 16</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>등록일 2020.03.</t>
+          <t>78</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>/--/</t>
+          <t>2020.03.</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>https://cr2.shopping.naver.com/adcr.nhn?x=oP6Q9WUrYmKpNjHweS3kOf%2F%2F%2Fw%3D%3Ds9Zywp8ywaAuJbygmk8a9MXLP6G4gncBKDV9DhGCpnJe22bjcgzFgwZ3t3DzRjNiUE3KJQSfpajOHsl%2F0F2WmDd540ooBSz7FdqDW5jH%2B1CM9npeJK32ICM8uiWobFDVTRIi5tDHzsRqj5sgdyWDrr0IJPERi6aV%2BZLQJJ8iFzetkfJNfMG8PhGEJNlJ06hWpoc%2F3kRsfDC%2B%2F1gKrzeUyp3WLLT6eGX9Iln79ZR%2Fs4bDalB7IBykas3ep1943L1MDQMidBOWWeCcDXI1YpKRJL5hxgkZwwg%2F7PYaL0vrdYCYkwyu%2Fm6BXxUP72lhcWasl%2FCX0943zXW3DXtUkbg7ZM2fgsfzjqQOuxTQbmpa%2FOBYqmmLAHnY%2B6F8y7vj6k4GOPlxQH7UaL%2FuXfhLuJbvFaWH4nLOpKFwGDWLKQQ1EhzqVu%2FlSmbOPRf98XWfP5Kyri0%2FIaQDafYM2nTzQ2U6l7CIF%2Fm2ji0A08qjy9Q5dQpra1She49W1XSZTX7hgDY3dgbhMlIqaxSUWbsdg%2Bp46r3YKT1K83HSxpCYbZylE1Fcck5ItYRdHgM3oPgVIZuffYCb4N9WjEOeOJbu3DsEoRyPTTrhUCeAPmavmos3cjpQGrssyzCAqY%2F958cT95UofIvfOyoLpyIr4HpPYRtF8%2BBR7VvtO3U5LIztjVkAB5ZQ%3D&amp;nv_mid=82212333276&amp;cat_id=50000805</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>3,000원</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>카드할인</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>뉴컬러 다이아 쉬폰배색 퍼프니트</t>
+          <t>잇미샤 전용상품 카라 배색 니트 풀오버 30 ITK4ZPO940</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>최저23,290원</t>
+          <t>54280</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>판매처 8</t>
+          <t>37</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>등록일 2020.03.</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>/--/</t>
+          <t>2020.04.</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>시선인터내셔널</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>잇미샤</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>https://cr2.shopping.naver.com/adcrNoti.nhn?x=L8S980UHIL8GpG%2BaMZSE4%2F%2F%2F%2Fw%3D%3DssiRn4zvoB7mF%2B1xOmNHBxMLz1znuyjDMRFLu4H44BvA6NAsrF3p%2BzxSc1VocTcNeL60s3Ux0OXxRZflDXjZIq8C6bZgHdjFpLJfKvGNNavc1VISookgROrgJY4KvtRrVQ5keZJbAAMF%2BKb9sJHduwDsSLrFq8AE5BtToLvkWEayhExhYyHHAkKnOCR5kAPokbdAk6%2Bv2Aydz1ab0kl0PFkY3GMc%2FQ1FkjOFSYX513phjRagL%2Fqe1N2VUGcQT3%2BERZXJ%2Fh8R4jCmLVYlH%2Fn%2BlF%2FjVvVO99DI1ruFyJb6vcmFlmJBw1iNeZR4AyS60mkLtGTIp3FCSSLosjlszXi4XbMm8EbhFRO%2F0YmQU%2FgOxgn1WKqGMNdiDUzGqJZGudYJjw%2BDk7OBBmkQFP1IDuvvD0dju%2BqMKj0%2BP62IFluOzWLaMPMZOQTnKg1kxEH5lJ37OD4DAIvsACDNw%2BBFWdboLFwSLTDYlo8F5tbgNDsx0vcuyN86a2oPDgfYhuHFZqLeccIr5%2BUc66ooZ1zdmT6UhSNY1HnDQKBDaurDszHwMxILpR%2FjMQnMQiGnjIWmVrmqDVslsW5uvA9bQ0Yqbz8A6tR%2FumF4h0qR3KkxCDxJbgGkJb35y7%2BBTzaa%2FeSr2%2BhJiSIXfHMTJ5Xd4WI1Hl26WxQ57ZgMOK6vmIVTvzFrYmBvhxYJVXrTPVW0ytUb12rraya8u29efP4dY6rvcKWbDJH6DzGuqt7Ehh%2FtmeOK%2BVwGbVktbD4XnHxYf4ABq9Bam&amp;nv_mid=22380167192&amp;cat_id=50000805</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>무료배송</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>다니엘에스떼 워셔블 프렌치린넨 블렌디드 V넥 니트 4종</t>
+          <t>보웬 홀가 울100 볼륨 반팔 니트</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>최저73,380원</t>
+          <t>63300</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>판매처 9</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>등록일 2020.03.</t>
+          <t>122</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>/--/</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J43"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>제품 이름</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>제품 가격</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>판매처</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>제품 등록일</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>모아케어 원형/원터치형 휴대용 분유케이스 (3단,5단)</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>최저6,700원</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>판매처 6</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>등록일 2019.07.</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>/--/</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>최저 6,700</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>https://cr2.shopping.naver.com/adcr.nhn?x=1D2Tfezr1Y2atz7plZqw3%2F%2F%2F%2Fw%3D%3Dsv64fPkF4IDGV8Vi7bA418uc%2F2u3Lypn4zIqVQkXrtVmxAblIPHZ0nT9%2FV84IfNf1jcOFA28VQ1n3JrAmD%2BHnhG%2BjOSpBNqFMQrYnSll%2Bm8v2kaTzqyFWtW6S1j1rQlQSmkENP2DS%2BLZ5Rg%2FgyD7eelPyFbOv%2FHrJi3xiP%2FOWqRBfie%2F0hJruZocJ2f8hIpdJciUhWZF3ZNQuuwcbhNhV3t04NkctLxyyYSAIofRAfPqCyGh65eCBNWF32LI8F6yOw2Nu9c3dbGJq7SHpdnZ3LGMYodgzXw9CwY44qOO9wCwXn8PNxARUTsXqDyNs2er0%2F%2BpoLCel%2F5LAVfGijox9k2S%2B3JBle7GA8iHUPBkR5iPF5MKAUIrrDo0Sj2dmk6AD12Gx%2BlLTxhOwzzz52FRFKVHrM10pHXBMpjPJ6qhZHj5VHM%2FaZvFYawgWDHx%2BdF6OG8b5ZK5Boium2mCcpjqQLw6VX5BS2666lgFP1kVLpB5ojuSIumXjO6dMUz8%2BEL1l01%2FcnSZhzqFhBnkLm3f%2FtWtaH1UjKsvykftwnlYuUNEd11G%2BVH1m%2BVKOpb1amm3OsP8BgPPPjo%2BHuTwsTIAp1T1Ikb75A9ayAPYmBucvOy%2FIgTchZUVLv9NCVrtItXpkJzj6Qg3I9dByqZfIAxP7IA%3D%3D&amp;nv_mid=12438340583&amp;cat_id=50000674</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2,500원</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>카드할인</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>/--/</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>마더케이 일회용 분유저장팩 90매</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>최저10,970원</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>판매처 37</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>등록일 2013.04.</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>/--/</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>최저 10,970</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>https://cr2.shopping.naver.com/adcrNoti.nhn?x=67vq%2Bw%2Bxq4UxyD%2FP8oVTC%2F%2F%2F%2Fw%3D%3Dsy0uKoT8nD0xucpRI7oXDuXxE54KP6ekeZg5ztbBsgjQKksTbKeL8wyda%2BYb95J%2B2yYbzUychoHjMbdRLGEKvNdHphFTAgDhxIkmaMT1FjvHA2n083yrI%2BfLEkmDqOojNiXDsSmaU%2FPaN4%2FAstzr0B%2F%2Fc35yo1joG%2FVPnlBfFPpL%2BeaoHBB3sV%2FPOFa60iAN9skp%2B1wVec4PyxZ1VCfs2J7HPrkbCeleCN2DMOxHXg3nXNzWbQHMJ884X54Jf0MzmSP2fAP3odHCU%2FX0GpPCeZCECNpPv4%2BuKcQpy0n55klapei8o85zv7B9D37qqN1%2B%2BfOJL93eaXr53ufr%2FnRJ7cwX4Y2199gcDtbO7VfdoT6WUG6pjGelWnSLwYRZjQJ7sssXbcktETkiFmDsG09tW%2F1ukv7zHLrU3jvbUJbnm50CMofnHt9Zji01sr1KIyW%2FSMOD0YK0VUlo1npavb6kIzz5Ki1RoTOhBoB%2FhNTKs6lth0ZZo%2BY4JFRWXGshpcMFg%2Bh8M6AkRJ0iXPhpv4p7bEImq9jL3xsR6Pi1YD4WAXthMFkdBCV8KUDJ%2F1dJLjpdGPHgyz1sfrzGh6e%2BvSwLNecmXei%2FudU2HOzj6fzkHyU8zQqCnaVLF52Oj55fmjlmXdtn9ZPhmq5Ue680n2cEdfjxANlQqcPa5nPM2pIF9F%2B87wwyHlr2GM%2B4OoSl52EFzyT%2BT7q8YTIbF%2B8fHGOnoqRTF0IykJ3B2dPjSjxHQkEU%2Bi8f7WD97KFqIqFcomxBi&amp;nv_mid=21149945074&amp;cat_id=50000674</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>무료배송</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>/--/</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>스와비넥스 노리개젖꼭지 케이스 공갈 쪽쪽이케이스</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>최저9,672원</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>판매처 9</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>등록일 2020.04.</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>/--/</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>최저 9,672</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>https://cr2.shopping.naver.com/adcrNoti.nhn?x=kZRJmgnQ4LBsRCYlywCBzv%2F%2F%2Fw%3D%3Dsk2uzm31X0MY%2F201zKl5HVLD4L1ur%2Fy4bQNxQmd1%2FpQ9X7qNMrbkgXI%2FGQLG0L%2BnnWvGDs8B%2FJJ7v46fj5pNFwQDeztNLCteSaoxO8tJ%2FKrV8hPGBvdTxX8%2BfJ6aVFYRySCgNWUw81DRuS2C8dAYNpVnDCBC%2F%2FDksTJItRMGoPbjceWZ77eUvcBE9ECL5HB0%2FH11gCgtsslQD89n4fzSuMH8HJla%2FgjF1zQfNY0gb1HRQaRuKicYqfk9Ejk9eBNkn94o4QXlUxboG6scWGtJVFUFac15CqFghvAaJAKxxm698QMMrcWQrQW32KivpZ7yNdVW9V8ypow%2BiHWq7GqHLdKxGlHF9I4E3irLR6KPInsB91WAMH0%2BpbtreToiX5gRwnjMWOQdJnlWRwykecMvwYKaxB8njW4HlM175jerruaiJwVF2rGVoc9J6NsfSpgCa6U4SMc1sPmVn76T1Lt5A9EiKkbNocq4%2FDm%2BZKkjzB2wY1xiNFiClfUqfKZOFSti%2BAhzvorjzunbAf1%2FTj0vKqScCi2ZEfaNjd8Th5bWorfMLyOLiLhZijjjDOiTT4PnpyuBj%2FipRfbshwUpfFiJpUnPLpSGqdvjwgMAtY%2BRaFQDVdGTJQ9GcppmM88KKczyrDOPBbl8IXl%2BEZYRK3PGfoghe1y%2BlYmkhY2qjB%2Bf8Ue2Cip7jYAh1%2BdvDc1StFlBOiWCAtlZ5U2VudDIAe3E5sVU2StgKaU3B8p6ZXMfVoIM%3D&amp;nv_mid=10316031815&amp;cat_id=50000674</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2,500원</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>/--/</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>베아바 분유 스낵케이스 베이지</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>최저7,740원</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>판매처 203</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>등록일 2017.12.</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>/--/</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>최저 7,740</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>https://cr2.shopping.naver.com/adcrNoti.nhn?x=PMT6v8MUF7qb6dp0FcvNsv%2F%2F%2Fw%3D%3Ds2vc0zj8TcIjMR1V2FQ9MUwf7ugRpsShEeWPxNgHt9I2XqiFw5zElwhkVNrlmpfBoQKm1tAFdmuE3kY9A8FRMGQ%2BBSK4IB1iennDZZRy8Fj2DFCN%2BP26IX1I5Fw4N9tNaZhBuBr6azYCimuuLdQzaO%2FBNn7qs%2FXs%2BFWQ9OxYss0l%2F1E1S%2BNbULEGT7KlQlVtHb%2FBl1DET9pcms%2BZlsPV3z89CY1iBwy37CjfZSrvQcbXXE76SHdZkxqKfgKc12s9FKjHUa7NqeCDiimnYvLnoEN0Ek81itq5UC7mtrN1Wj2c80fTFuXz0Fas6usfg3TtmMWMCmAhdsEoXmF87bWtZPdCsIWK3wFRJjG%2FzIRAjM0Z%2BCrZhe0tpaCpo%2FIBTdyX35a%2B4XkdxIsRVQvq1eLYns%2B5c0ZTMnPz4zoz%2FdB2%2B4zvKMszXElwMwuWnSVWAsaQ6dZi1mhc%2FpyTbeO8jvHW3V2e%2Fo6m81dNKbhFgTihSG3mHTd2SY3gGDRdxh0jAKCSe%2BxUsCWs%2F%2Bph%2FoguuHjgPnRWcMVqLTxePKbheygvmGzN9cIxolre6E3Vh05QFU%2BxAjWCLqtJA6Bu4eSHd4PMGTJwl7iIz15iDZSQC%2B8mKHIljvZ42fP1ZV4huQAPZkdE2I5KGbbmZfxrrynvZduRSfD6HhxPa2Gki97yKfGFNJ%2FnF4a8beavZaqaELPTRIk%2FgaJse3MGyIxmbOjmvgudfT%2FWm3rSWVAbC1pj%2BdPI6KSQ0jgohX7dASbZN6k2yZ1iC&amp;nv_mid=22687400289&amp;cat_id=50000674</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
+          <t>2020.02.</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>https://cr2.shopping.naver.com/adcr.nhn?x=W0WnA6Cb3%2BKWmM6ByjZ6o%2F%2F%2F%2Fw%3D%3Dstt%2Fse7GgWrsVt%2FRi0vbuWNDt0P9reo5VyVPxhHmNjf8OqJCwZ2JjJB1J7KvNjPwi49titeUDUL7kU%2BfWFT%2B3TJP2iXE3UkX0qGP1Mc9LkIBAL%2BLbyYSJgfGnkxdHdEI3RIi5tDHzsRqj5sgdyWDrr0IJPERi6aV%2BZLQJJ8iFzev%2BoQeWmc8Q4AAnFW7jrPBNxVFXMRIOlrtxFn%2B9Na7%2FhHWLLT6eGX9Iln79ZR%2Fs4bDalB7IBykas3ep1943L1MDQMidBOWWeCcDXI1YpKRJL5hxgkZwwg%2F7PYaL0vrdYCZ0wr0vGZfI8f%2FmX7maPnuXfK5%2B%2BtZhdH8cpBlakYQn%2ByGEbJB62NFarOiWo%2BgKXbESKFxeGLRGdqZ8nfFpXA2CmLZNf8TUUbewDKj8P4fntSyBVsUBp8xTMKCkH0L7ZQnC%2BkkaKCC0xcwDODQaxL4Vnh%2FGyquMfC6WhcHlI00u%2FeGWbEuYEmmuL6EW49YgGHdHDqDyHq9IlLD3A73PblR2eDeVjKvhCa8bXihaaA9e%2BD%2BNCbeg25Yo4%2F2mk6frGAhXTeul5xKam0kqDFuYmbQlsxbTQmrRTb3BJ5edbAUp9Cec2RHEkwFbihBpEB%2FgF%2BRlV%2FG2SG6LTFTzWTU7VNli43dZdmf97eGpeG3WAcP7x%2FOvNAdmBJNr%2B7eMB2Eg3qY%3D&amp;nv_mid=82355115752&amp;cat_id=50000805</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
         <is>
           <t>3,000원</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>/--/</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>3단 분유용기 일</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>최저7,050원</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>판매처 215</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>등록일 2020.05.</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>/--/</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>최저 7,200</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>https://cr2.shopping.naver.com/adcrNoti.nhn?x=K9d2YaZD8qupUD4P9VmmBv%2F%2F%2Fw%3D%3DsMUucSOMCx92brrOP7m0uXd9ZFE%2FsK3w7SbyZ%2Bhi%2BFA%2F1sebM4j7pTgYOpnItBreehkF9e7SI5bY6CYBNCEUu99Xzr5DXjlcDHfh8cMhuPUdR%2Fwsb0B3WFaUk0kf5WWfWxdEs%2FcSQToE4bGSlCKvIciEDZXa4G4Kr0M1C055dMj9ofgGGS5q9i8fOSrGZMPHBMp01gebK48o3ZXWcEzEWI2%2FBY6wwRtlaLibI5ExYSVlINk7CA1ZUVPTkKrjyuR0dpaKW6YnmoD0aIqSfxGdfQ2oIiuaNTUoUA5LHS0UAvWtsMdSlGSVVB8X3ncuvMDFKx%2FofR9S7n1h4PfasWgLtkzZ5HW5bKyGS9uDnpVm1XI2jt6aHg4yxVbq96UR9biIhOaEN1FvQdUvfZioQZzzNhvlgWuedQ6Amg9zWIh3KH1kIlP3XRcIoI0Ux2pdDGFgIAbUFhxiGG4tyq%2BbhlpUPTOFDMjkcjQu3z587zFvYsaCNP0lXeQ%2B4y%2FJSX1gCtqgbeFhsVrUhecmB5RCy5KUrlx7A7Dws3%2Byxj4h864Sx8dNSre4iXGjz3EbCH59fqS7ADsJ2rkwb0t6eXGfAxOlFZG3vhlaRBnBonc6J7fIq2aaGUSBMEf2KCIy3gezODVBqPUiRvvkD1rIA9iYG5y87LxkP6oBbvbbj0uVCRPf%2BVCM%2Bi8f7WD97KFqIqFcomxBi&amp;nv_mid=22462304181&amp;cat_id=50000674</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>3,000원</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>/--/</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>미니노어 덴마크 3단 분유케이스 MULTI 75L08230200</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>최저7,868원</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>판매처 53</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>등록일 2018.09.</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>/--/</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>최저 7,868</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>https://cr2.shopping.naver.com/adcrNoti.nhn?x=QR%2FC%2Fvl5R%2F0dmGUFdmAX3P%2F%2F%2Fw%3D%3DsG2J018%2BhIKa4z2i9ZP86Af85lkRBAnZBQrgEltDKDarYMwZXqaYL35NVk98MSyAUNUbW6RL84CqEGGhnUT52rNeTSdciAGi%2Fbzj9CrN3%2F8biOODxHOGk9SUC4HD%2FrQTlSCgNWUw81DRuS2C8dAYNpVnDCBC%2F%2FDksTJItRMGoPbjkB0a7YP1akK6iQbiJA3g1pmyQjgQirxNMGnP9BWico38HJla%2FgjF1zQfNY0gb1HRQaRuKicYqfk9Ejk9eBNkn94o4QXlUxboG6scWGtJVFUFac15CqFghvAaJAKxxm698QMMrcWQrQW32KivpZ7yNdVW9V8ypow%2BiHWq7GqHLdKxGlHF9I4E3irLR6KPInsAipSJpf78CXdjGUaddir%2BjukhsW%2FCoTHvotP%2F65BLlL6ZTBXOxfMVJW4p5dVt5flplyA%2BrRhsOGFQbbzXkJf6JEWfmEhDSs45Ix67F8poFJAoI4%2BzM4M8Zo4reB9mG7Yd3o3gHFgOhMMthG2U7TKLXSLZFOoa5VJ%2Bw9Xed%2FmFTHSfTQIPRtnNlyM6bRr%2BKuW%2Fyi04Hwzjh2Ww1TR%2FuNqtl1ICVVB6awPQcDAVxog%2Fxa3Wmg%2FbmtWznjMx91crpiGEy30CKWc4f8ctZVBs7dBNDw1QAFarshQzHMNl4I9ciejvDDIeWvYYz7g6hKXnYQXPJP5PurxhMhsX7x8cY6eiprgG2qrS7YLZwA9UuGwwDUz6Lx%2FtYP3soWoioVyibEGI%3D&amp;nv_mid=17773106313&amp;cat_id=50000674</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2,500원</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>/--/</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>하이비 칸칸 3단 분유케이스 분유통 분유보관통 휴대용분유통</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>최저4,690원</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>판매처 19</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>등록일 2020.04.</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>/--/</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>최저 7,560</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>https://cr2.shopping.naver.com/adcr.nhn?x=yI7AVBsSyX7D8sCDsMxW7%2F%2F%2F%2Fw%3D%3DsbZCxFCWWtY4zx5V60P1pq6BNM%2FIlJhSAQOHGIF%2BFlTBOInaPgzAMFteuvCGRyVGoYIqaSlsU33d%2BUBZI5fzT3JylYmY3ZoQT3ZofBtQJam66vvu69Ok72juUs3IGkt8fyWS4ypyDpg2hADLoEMiFbRH4WQ0wX%2B8g%2Flt2iRmYuK7%2FyRGuvKeqp2nqAhbowniyd2C2plTCB0kmb3vI0vL9WUpWnIrSR%2F1TV3%2FWOWSZwqljOcsEzW75A1KuNN29x65jr9UKO3zNyf3v1YZ4%2BSY0Hj70eUtzBzAvuV%2FSEH06pBofcqW%2BtBZFEHYjOyh%2Fh%2BMchJ25bnMtBv4ezi9lS3HYOiOOneSVkxW4Y8Lyy%2Fq8eohVw3KgbdqUkJcYrEzxv4ep19v8ceABuTTdFWii4JP9Fd9TVwo1Bh4nXZPxJ%2Bye96s4pzczK4yW7JhhBpa%2BXg2ZEhvHU1izAi%2FviwQajynsHcPqm4woa%2FclVyrCjDVdGOWJhDzHiMCxogPbF52vSEiN2f%2FposHYtXlCoGuLsTSXnuAfz2eZDWj5Ar%2BeZWaGG1FlkxLeDLs6yjuYsKUWSIX3dJjbyS1UTgLWhmaHRTuuNVFK0CWzQgA8ogrqLG6A3LZS6%2FXr3c3IiXwF1j%2Fou0ivHHqdeVtBrGuf5ln1i1Q7LI1cCRQtm40PO95%2BaTp0688W0w6ewb6Y9RzIW5FKVpuryT%2BT7q8YTIbF%2B8fHGOnoqeP7T6H%2BbFsb%2BZMVVy2RoqmYtBb2LW64esKXyXky3ObW&amp;nv_mid=82133422580&amp;cat_id=50000674</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2,500원</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>카드할인</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>/--/</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>쇼콜라 베아바분유스낵케이스-베이지</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>최저7,720원</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>판매처 13</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>등록일 2020.04.</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>/--/</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>최저 7,720</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>https://cr2.shopping.naver.com/adcrNoti.nhn?x=5l8KIBQ7nefmC6Wx1Cc6cf%2F%2F%2Fw%3D%3DsSVr%2FsQHHWrIxde5mxzfuF%2FQE4kCpRQdazMbDlqscV%2B1mRx2qxkHC%2BHcPQXuHIkWd%2Bpr%2FE%2Bfdu9sMkeFXy5LR3KtFALnUvgKprFTcPhGHP2GCpEfpd5H5ppO4O%2BycygIB8RT0QxsaoldHlGHpdkp0f7OhzAe%2B9Oq6tq24nWCsISQBSFUaNwjWIHd86%2BPqBAH2IrO1F9duPytK6eytDX7uQE%2FY%2FmQ7wjUIZjH4fbD2tc7nSK8nDlE7VzooOURUYQm2Rx9XO%2FuyHZpQ5ArQ2DFIKJv8yFXIl3%2FQaDogmXqeIjGZKDn1OPUc4MBJYGwOuLmAIQI2k%2B%2Fj64pxCnLSfnmSVql6LyjznO%2FsH0Pfuqo3X7584kv3d5pevne5%2Bv%2BdEntzBfhjbX32BwO1s7tV92hPpbDmvWrC5CPuntWdhSojRnAx5Hnf%2F95PRp0ZGo4emExjqLSMRHaJHfspzCqJbxbUh%2F6Law9RiuaF6b%2FjgY2%2BLDkFPzjRoTekRam5q1CTH7WztUP9gggMWlWWS8ouNorKLx2l%2BF0L5z3%2BGrRBrB7QNW6K69PvNDVxxl%2Br0H3va5c9z9fCpZBDdVuNpqilxsw4Yh8qnvgSlSeOpXokV7jp3qziuZ%2BiiJ2sSDbGSRjWEThpP40Jt6Dblijj%2FaaTp%2BsYCFGaYSwG%2BXwEXB84yeV%2F0W5r53nHc7IX4g9UUXsFOkcfRuvmLfBA6cMgLf%2BdjmqupKFfJrtR%2FrXVPIxaKdbKYRbsAAIq7rCOcnDMa3Btmq8i&amp;nv_mid=22519490699&amp;cat_id=50000674</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>3,000원</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>/--/</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>먼치킨 NEW 분유케이스</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>최저3,230원</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>판매처 23</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>등록일 2020.03.</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>/--/</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>최저 3,220</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>https://cr2.shopping.naver.com/adcrNoti.nhn?x=y0bQyaRkIId86BGW0c4QVv%2F%2F%2Fw%3D%3DsAybgqAv3zHe1R0VxFUN0H71XqNHZCURIqYqwMMtHNsA5BkZJNPeW7vS%2FiMqBgPEY0gmZ2C6JSo6uCZoglAmB%2FLCpF9tnS9yuuEgs1a8soepqC6O2kZ%2FoEyLIkb0%2FMu3WtV7tGbHtMw9QmLFJadjGC805IQzHxY6hDyxw08fpDW4NW8sSVAcFSoZZ1ajAoZs04Jy6LlFjsojvCBUPkSVFG3lziZ0MUo7F0j30oEfe3qHo2S6jIh%2BsCA7bwAdYPtltZXJ%2Fh8R4jCmLVYlH%2Fn%2BlF%2FjVvVO99DI1ruFyJb6vcmFlmJBw1iNeZR4AyS60mkLthXQu5AyJdN6kHvQTM%2B9J%2B6axB8njW4HlM175jerruagB%2FH3CBTL1dDz27z1zOmKFDGDeLkulWrTlgEuOKGUfJSgxtN0SGa6BOggAY5j4SZXtmcVrnIpTeCLIGIXTTBu6jBsAHrHb5Zf%2FU1YII0HBI%2F%2BPLAiiU%2F3S40MnyXV5l1jLEjdeuvHqkWYe3px%2F4zMRz9F%2B5PNwO%2FcAE7wXgS1Vh9pbq9wz7JXjfd6am%2Fn1WBfp%2BP9Hmi1xrjYgL6vO%2Bb1Sxzhhxa%2FCN66z1ppEfjm5vC%2F52kHeqZdztrECbHmW1KXBoBWRaldUUGx2GoDXLTOKsDrY7o3Vzt1E2RMv8vqQGQ%3D%3D&amp;nv_mid=11519903985&amp;cat_id=50000674</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2,500원</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>/--/</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>하이비 칸칸 3단 분유케이스 분유통 분유보관통 휴대용분유통</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>최저7,560원</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>판매처 2</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>등록일 2020.05.</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>/--/</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>스와비넥스 휘게 분유케이스</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>최저15,790원</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>판매처 42</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>등록일 2020.04.</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>/--/</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>최저 15,810</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>https://cr2.shopping.naver.com/adcrNoti.nhn?x=6rggTi6cfSkc5A2arMd7M%2F%2F%2F%2Fw%3D%3DsAr%2BKc3QzFlpJYG%2FHr3vQAnE7VYrRpu%2FiLpVJCuWUX49I5yO%2BeFhJZYzu246NV6F76Lh8WrfE%2B%2BJ99pse75PlH%2Fx3Xf4oHiFUpNHrju5ZRR8adc9Kpxbozw3vFzP31nE4i5uCH6NsZOF2ToGn7QOk3C%2BzfZaLqZhrMhfhyaVzG32W3JIr8oENoIlJsp2%2BtUwEmoUyTb1tNcAfMm7vnJVptCP0GfnwLPIfsbx6njBU6QaNwtzJ4XZBSNAp8m4IPmgrgXcff1J%2BAonPAfNShOSqwYYlFAdf1OFsetsPTCIBnAuWvYwmJsa4bvUi%2Bv3z9EVhLdwNCixGWra%2B5W2Y7JkVEXvQdEVgTtoZ9UaK8vlU62xOTnXzxM4ugHDfbeyGAOBDw%2B51LvVRM3hZZXSmLjnw2XiZ1vHJ2RwPfIbOcWi%2BeltTSXNYkd%2Fd4RXpnQLbusBd53x7dOoQisNHQF9jaelTfbLhrUQ84wok4PIYBzKDkhzyKY02L2LVX1BU6ZVN7q3JgCJdYDwgJf4VDclpUETKn4YOCLTbCX9qM3yxVr7XzvhoUrgI0SYMm7nsUqEhzClLCxUcF2i3pqbN5JoiJZezC3sVuVQle8jKofC%2F%2BIkwjlpd%2BUjSjMvKcqYms8Sg6dUU1HVOB4%2BoeIOHuKImaeY6Yafw2RXk0oTdz5PpwczYBFWSArrdemSULQvgv6G5s71H&amp;nv_mid=22404757459&amp;cat_id=50000674</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2,500원</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>/--/</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>마더케이 일회용 분유저장팩 30매</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>최저3,960원</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>판매처 42</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>등록일 2013.04.</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>/--/</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>최저 3,980</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>https://cr2.shopping.naver.com/adcrNoti.nhn?x=sLSZIEFQWUkFab4dX16hv%2F%2F%2F%2Fw%3D%3Dsz%2BLl2IwnmcUO0KvtcDniy068EBXNnNHjWINMQPEIpfsvx3X%2FQurnMKA27NJcj877Kyh1fawdLq9y9kHt1ujwFhJJWcjsoexN86FMKRlRA22hs6by2O0P5oMiuL4XB%2FMnCysHbyYGfotTd%2FrFGyq7PGoSsbGUrLgN7W2FCqWqjj2bs36BlFpsc9O0LeIIDEQKNrFyUVNoWe1r2kyK1rvwFwMIQmTuffRFoZ%2Fi4rhGosonfTtep6lh3ajOm%2Bf%2FGW0HgXcff1J%2BAonPAfNShOSqwYYlFAdf1OFsetsPTCIBnAuWvYwmJsa4bvUi%2Bv3z9EVhLdwNCixGWra%2B5W2Y7JkVEXsQzwP6%2FSFyXUcRFKMPPh6IXs%2F%2FGgbXy%2BFf8nxW4lI2I46d5JWTFbhjwvLL%2Brx6iBtjNtX3tDdKjIhco9oLVOgAV8AVcT3uNup99cbWQr15he5pppR0J%2B5N8zu1OzdgKlH8M7d0z0GjXN6GFUQ6dx1e7kfrNn0c5msCqghVwK6eIkU6cRGpdqXJl31jiMrZU%2FEjT%2F8vJ02bKgY9qWsXr1at8XjfY1u%2BKaI0tS3meiry%2FOvdMXzLGhmiN2yR9RoaRdWgF4QbFFFQ2DWTM6TczmxiVR9ZOGlosvHlxoJf8Aqq9LNCE1wEiavpTo9Z0dP3fP4Z8rQw4TlmJCZ2DQV5GAI%3D&amp;nv_mid=20719209828&amp;cat_id=50000674</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2,500원</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>카드할인</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>/--/</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>마더케이 분유 저장팩90매</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>최저3,690원</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>판매처 276</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>등록일 2020.01.</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>/--/</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>최저 3,690</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>https://cr2.shopping.naver.com/adcrNoti.nhn?x=5z4vPBitvQM577GqbAkCt%2F%2F%2F%2Fw%3D%3DsuCqUXqfFRzCtscwuIVcA6O3PcMj8xroxgCft7asUM4TW%2FT1fuOuIvK76Z6TWM646y0NasryuTHOXtc%2FdfyDFVLrC5p%2Bl2DT8XkVIDeCwe1Sv5VMFh2RG%2F0jrFtw5RqTyiXDsSmaU%2FPaN4%2FAstzr0B%2F%2Fc35yo1joG%2FVPnlBfFPpL%2BeaoHBB3sV%2FPOFa60iAN9skp%2B1wVec4PyxZ1VCfs2JzhZkxmBz6iwhX%2F65c%2BSJGfXNzWbQHMJ884X54Jf0MzmSP2fAP3odHCU%2FX0GpPCeZCECNpPv4%2BuKcQpy0n55klapei8o85zv7B9D37qqN1%2B%2BfOJL93eaXr53ufr%2FnRJ7cwX4Y2199gcDtbO7VfdoT6UYe0Lo3v6YPUKoR3fjWv764lxqGbIZiMr3Aw%2FaD8CZxHHfzdKSmjavb9ZmtixLQU5n8TujZ0ViZbX17Vmaam%2BQujNrluRV9Kc54JvHQkH6rQG1jGKhHogYjwCSWsepJhC%2BdQLS21Hr8Oq7vDczyn36YmAgOtEX7BJiViQ1DEn0b3q9wsVjq7V0JD6joRmbreb58Po%2FGiyPIAYPkZRzDVCBRoon8x7qWn6wI3W%2FbZCNuw3P7F986%2BcUAYZsnsHFr8TyKzNjL4vCL2AIKl2lG83IvmsURJD%2FdVVzBU1qG8qlNyqlv%2BNYeOIxMHK1DEksTERku%2B3oRye3ZHrsz3ybfF%2Fa1HVOB4%2BoeIOHuKImaeY6YblSP88vMDWRhyz29FBjsLaSArrdemSULQvgv6G5s71H&amp;nv_mid=21920635144&amp;cat_id=50000674</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2,500원</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>/--/</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>3단 분유케이스/분유 저장팩/지퍼백</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>최저4,550원</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>판매처 95</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>등록일 2019.08.</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>/--/</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>최저 4,550</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>https://cr2.shopping.naver.com/adcrNoti.nhn?x=IV6g%2B79PJMWuHWi4%2FUtFk%2F%2F%2F%2Fw%3D%3Ds4R6Pl6%2Bydm1ni5sNpJ2YL0mZf1xOzawhhAkMVrb2yU5wuVBgiLX81ZO3%2BMfyu7gkQ%2FYRFmSQJUaeL%2FchVwW7OXLlasf2Kaqp1C2r2Gimgy4pgz1VPL4DKOUJVDS6j%2BVvGEr%2BGAl7AJYjO6XTdQNFajcuKaPorRD6DSgW1mVivfPlrhVlZYWHsUogonKmkgwQlsKi%2BZ3z9PbC36NYvFusF1bVftPKFHlLrigvuziAibo7SmDfubofET10gp9WUpAvpKgiqpFIvhL%2FzdzzNbiSlkrR2tvNLvDRO5D%2B3iqiiCLJuh8MrZuVZ3CkHW61dcgi2t%2BR4bvnot73Bg7AQKGTIo5gpOnfJejxKi%2FBuOI442SCyGh65eCBNWF32LI8F6yOw2Nu9c3dbGJq7SHpdnZ3LMxNBWQ3ZwWqIuOYFYe0JLWJ9oibkTLZGQuomnYmgc0cwx9RiGCXtllqk4miRMJSBxwrFS3Lw7LOWtgeO%2B1pyrUGC%2FNSIGYmaS4mPJRF8qHeFVVfv8Y7Qb4hVNNvMfPMGtFQd30CrZUx0OR4zNKfTGoU3HeGJDnq6acV9zuBh25RJfMEFgEMSM%2FfTA1yCbH0eYgPlJ6cPLlcLyDBtWUQBp%2FFPC6hNAPtY9HHLP5ZozdvMt9AilnOH%2FHLWVQbO3QTQ2JKQe1q%2FwnVMh4oSZ9LntKeWRHtsVJOTCPirFqDiKeHgoqe42AIdfnbw3NUrRZQTjLRTCbOjWgo3eFtlAcsOE%2Btaj9Cg6rtY%2Fsz0HE%2FhRBb&amp;nv_mid=16755923502&amp;cat_id=50000674</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2,500원</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>/--/</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>실리만 분유케이스 WSB217</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>최저13,900원</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>판매처 36</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>등록일 2018.04.</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>/--/</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>최저 13,900</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>https://cr2.shopping.naver.com/adcrNoti.nhn?x=Le0Rbaw7UvIM0Xugjo8WS%2F%2F%2F%2Fw%3D%3Ds4TANgJoavU8NQaRFCxINkOs3NywbiFQNgPSoxQVnonGA0PDMuaPOvVyIt5L4JJP9MHybqJtdEH7EsWCFmS06ylLYTZPC1GvklX3z3%2B8enlICWBD3adWNY25qntv1kuK%2Fl1C9RgDVziq8ylates1RU%2FiRK6il7QE%2F40h5%2FIWVUxlbc2DlYlZvwOJ8Yt9z6mW5DTHvF70TvLOsYv1scC4sns549IE6bODDW9v0zs6cDy6XgqdJS4wN4AgXt1CrohHFdfT9ETaytCBAINRQOD60QR69eD7vdU%2FwVvm3RAO%2FP4HfdOSsPXCqQ%2BAXLKwS72i3i61zBZdSa6JNSxQyYNvFLTG%2FIqwhx3pHESEzCRATYcYb7VizCqezlc4vsFbXfnti4LBYhASul5xoHn6kheqgcBkaKX7pTvXs6WG1e2oAbVWAzLevaize3XDVAY6AYGocgXfOl9yC3%2BzETMWy7Rh0FqHSvSN340CrXg7PmC7lARu9UnGYLNvkyFVDNq4dVre0wbtLgi4Hnt7DghY6%2F39xdMb8MdjE%2FGXWw0Nu9C66mrWMyxXNB%2FGPgeh%2FXt5S2fnR62rZ3%2F24F44K84fdm1nxeIyNz%2FxRre%2BJy2TupDx%2BL0gYpIEXmSK0kvbLdDlxz2Y15wu8slgmaJs0l2LG8hcx%2BOLjrmUl9OmLo4iRC%2FwG1%2BMUUOC9lEtnrW27LCMemOPXwbAcIJLvn6sdoPZCIYxYOdR1TgePqHiDh7iiJmnmOmF3sc1CSR2m9MhZVO7e9KoFkgK63XpklC0L4L%2BhubO9Rw%3D%3D&amp;nv_mid=14147287557&amp;cat_id=50000674</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2,500원</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>/--/</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>애니티 베이비 젖병 분유 보관함</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>최저30,930원</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>판매처 81</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>등록일 2017.04.</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>/--/</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>최저 30,930</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>https://cr2.shopping.naver.com/adcrNoti.nhn?x=xzvijYcWOx8o48xy7PQKUf%2F%2F%2Fw%3D%3Dsako8e84OZiWNLvJ0kn2fhbMmQyPB46xDU2Lvt34DJTNQ8e8Ika%2BxMtYA1i1wA7jGvEP2TyHs%2BUyJo%2BxS9hSADDXLKDeDZUnr8d%2BlJcJXku35I1h44q5gb5oDRLYFf2M4vgJkU1wGbijBYuUyozT0KhZeQxkw%2B%2F1o4rY3JrsuAbCOawpm1IzOU5Iurythf4D408a87kyC07haS2kcQcF%2BPQhU8Nl7sPHeNGzO8uCouxojS7Qlb1nGYHLeTIXUv6pa6NkuoyIfrAgO28AHWD7ZbWVyf4fEeIwpi1WJR%2F5%2FpRf41b1TvfQyNa7hciW%2Br3JhZZiQcNYjXmUeAMkutJpC7dX4zHNpgwE6pDfHbwrMxw%2FHuIsMtVFZWPPClrNNmxfxI46d5JWTFbhjwvLL%2Brx6iHRROPtXgp745ltpsulUHfIAV8AVcT3uNup99cbWQr159pWE6RN1rTWU717vktu8tIdxC0Bmsv40Lfi2kgZUeU%2FoIpnZOJ5gBsrllYrc1aD8hHVxSl30gxyISNIQUASBZDoZ3yr0OmZMA%2FH1jYGbaPsYdCSDgTZiIQSFO79wkoxSBRTV0csc4TUOjhAt6ftQhjLfQIpZzh%2Fxy1lUGzt0E0OsuuMBwYimLkTWBcPCvbgzO8MMh5a9hjPuDqEpedhBc8k%2Fk%2B6vGEyGxfvHxxjp6KlnZf0TcKLhxQBX5K2YlbTkPovH%2B1g%2FeyhaiKhXKJsQYg%3D%3D&amp;nv_mid=13194225547&amp;cat_id=50000674</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>무료배송</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>카드할인</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>/--/</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>맘핸드슨 분유케이스 그린화이트 3단 휴대용 케이스</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>최저5,410원</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>판매처 126</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>등록일 2020.05.</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>/--/</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>최저 5,360</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>https://cr2.shopping.naver.com/adcrNoti.nhn?x=TgD598OLE1d1Y%2FtTkCjyw%2F%2F%2F%2Fw%3D%3DsscxNsLu3BMN6OmfvlF%2FWTTYqntT9M%2Fb7CCe8%2BfTqwvz60qcqb6Ukv8A%2FtRfOb1ckPJppjNuRjUfiK6qQjbzEpdS510T%2BhRFEO0ZeUOGnpYNBwMMRwFNZMP1QZhx8v29iMNEm3j3N6mPlAiqUkMz1%2Bo1FxOGTE%2BTw4rZQ3vkCQUqh5MmMpYa9kSKrCpmPy8oXg5k8bayBg7FS%2FBCZHNHN500GwFbTuwc%2B5jgV77lwmFSmca%2BlrLDWoVGIv9NDhq6fKfyaD1RKvaE17nyl8Tje2UduNoD5I8WWB%2BFUMJF6s5U427ngu9Ku5Ti5fmyIKbcNfm5IA8mkaCGulhqR4WtRHgqriCN0ISFptWl2t2rZh7AruQaNiBrHw1UgSemWgAlHfGe6Q5xjCLvKts%2FUPlh07COOneSVkxW4Y8Lyy%2Fq8eoj9Btka1q8%2FzHPtbcp5rEn%2FN%2BMUzy449Vx8Jks%2FrWf2RLpVCiPHP4qMEVV%2BbTmrsBbZ1NSfCqhcq7j0v8wmUdEOIM7SudJdhZSIk4W%2BjsZ1CXh8MocBChE34grCfViwRumiS6EYC1HVXo9sAdHVWdS7pksOmQXkhR11b%2BYB%2BfBaMGnx5iJB72m5nsEJTttH%2B752AMk%2F8l7fyQrHqHasm77E2D9iV%2BW79w5hOABq1%2B5U1umz7JnsiCM2Mow%2B1GjU%2FGpvBafo57u4Eec5q2Y4ZKC8xtEPiDI1UA5PxIpxlmci0mJVH1k4aWiy8eXGgl%2FwCqqFRmFWvdh0G3CZC1x4S%2BITyX9wvAWamoPtzxqX%2Fqsr7Q%3D%3D&amp;nv_mid=22220784181&amp;cat_id=50000674</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2,500원</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>/--/</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>저장팩 마더케이 분유 30매 RW1B7E92Y</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>최저4,240원</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>판매처 31</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>등록일 2020.04.</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>/--/</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>유미 분유케이스</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>최저8,780원</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>판매처 35</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>등록일 2016.11.</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>/--/</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>최저 8,800</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>https://cr2.shopping.naver.com/adcrNoti.nhn?x=3L%2FIOo9aG4uigBbb0EHpz%2F%2F%2F%2Fw%3D%3DsiocPonnUyIH00N7pvvgXhRy8vdLW0D0NxqUeP%2Fkbearp6QF%2Bh24W6vRjak%2B8zLvSDLnGGkrqqTtuLIojjHV%2BYZ6qDorkGhMUybPxCUfnTYo9O%2BibR%2F0E597eJxG%2FnW6Y6EfDbCY%2FIAmaiOj1DqJjHfPJajWvHkFayVaqHyrrczLdHBf12f7svgy0Ed%2B2hiO35iBlqCwgOlO8G3kbY6lvY0ZL3FIcTSXcy8W%2F97hKIE98QMMrcWQrQW32KivpZ7yNdVW9V8ypow%2BiHWq7GqHLdKxGlHF9I4E3irLR6KPInsB97MRoddiTunec7eOVBDUME96hQ%2BUb%2BVLQKDAuK7yUwnL5uq1dbo3Zs39oWfFdFQSoxQCkn6R%2FRM5%2BIRrnfYvwMzj5ws1GjIVwViJLHpW7bNfyoLfyi65%2FyUwqdq2pYpqHgP60kIf1oNudS5QuWnN%2BwVq%2FNMLiN3J9uPf4yETkAWuiWhMxDcVuo%2BYbnE4Gibr4xpx%2FY6ioaP%2FjspZt6o9pMt9AilnOH%2FHLWVQbO3QTQ4xSRRqsRBV8LtuUeTPi9CDd6Nvq2zntSudKtlKUV42ogoqe42AIdfnbw3NUrRZQTh4gggyESHxkhzR9LYZ58lgzflIsJHMTLl9iWlHLWC1t&amp;nv_mid=22183072748&amp;cat_id=50000674</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>3,000원</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>/--/</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>스와비넥스 휘게 분유케이스</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>최저18,000원</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>판매처 2</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>등록일 2020.04.</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>/--/</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>최저 18,000</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>https://cr2.shopping.naver.com/adcr.nhn?x=BeuAJZ0xzN2xG3O7hYlbF%2F%2F%2F%2Fw%3D%3DsNxR0rlNchexOFViDyDJ7ZEEdlRkKfpmBuf%2FxQnQW6bekDWey7V4AP353hiBmQQSW8d6FiTS0yT7oj%2BToCtJTnEgKog2IbvhuPUvprVNg3rDd1JBeXQ8FfFW%2FCllNylNSSCE7%2B2jlJ%2FdNlgPcGHqZPCWqSQWm4%2F1%2FAHc%2Fii%2BQ14w6y4I9Vb%2F18Uu%2FY6EuDq5xvZ8wE1dLyEPUZLQV%2BIXeZujZLqMiH6wIDtvAB1g%2B2W1lcn%2BHxHiMKYtViUf%2Bf6UX%2BNW9U730MjWu4XIlvq9yYWWYkHDWI15lHgDJLrSaQu1qAXQxVzzTaeieO4uUkY4HtaAhbrsdahgDDU3ggwDhXyOOneSVkxW4Y8Lyy%2Fq8eojPPozmpvu1bKp4LD56GkzX5wHrRzCDISDRXuDXMZ7d6435JVRtjxF8JZJeVNtw8oryaU1YinLye3LSVUqtFlO8PQ8jBojPk28L20OTfzUy5kkuARM18w%2FuZmWyOiEsDlnGYTIFJBNlbC3xyo2PxFH65IzYhiBR9mj%2FRdx991bi9Ty7jxM7BiqPncqK4W6NtQosodHlT6bIExK2bSSBjSxuBI4oH7o9fKcezhrzReYAIckniWpIpU98HRnNVXf9dgLJP5PurxhMhsX7x8cY6eipcKNndyqsp%2BLm9Z1TrdFkL1kzWRdp3IhYLFwFuGANcBY%3D&amp;nv_mid=82418784151&amp;cat_id=50000674</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2,500원</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>카드할인</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>/--/</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>먼치킨 분유 케이스 콤보 팩</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>최저2,700원</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>판매처 4</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>등록일 2012.03.</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>/--/</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>최저 2,700</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>https://cr2.shopping.naver.com/adcr.nhn?x=4WfkIshCoG736PTBr%2BgDFv%2F%2F%2Fw%3D%3Dsj8vVQ6shLj17PaIP378Zl2ZBnl4N%2BvNVbWhpGCd0QWevp6VZVqRqdScvSJ3k4uwhg%2Fe2FZpVscrDrRubiATcAs01Z48sdp7qrIMEYH4v8PqQRK3SxXbd162NWZeSS8lHuqMqdGrA%2Fr%2BDH5%2BftjfEkcCA2sHQ%2Foz4e8MtWVeDgBoPNHSI02H%2BQ4H8vXs1x7v9CkWfFwfOct0%2BeJog4Q4HgLJTtNpXWUDl%2B%2FqMjYv1ABG7Te1k92DA2QJAug5F8SaYG%2FLMHEJXIK2UarAmSffRk5VLcg%2B60rPHHs%2FInlBeXM7ZYhQdYyymegW4k3rIkhwJ%2FPlzObhZtTQhAJYv4RcMSKT8lZFOiDUvyg5sKzXem15gc1VVK%2BPRxxWdaitTO3zgk7nBWi5soX96xx2egLSIWSwSu%2FiQ%2FTZjPG4CXTB6ioG%2BZ4dLggUp0mXZO8bArLw5gNcZuufHSDCN%2FkFUGYue1ksH33fTsju5HmIF35Iamn3SYgD24Tauoo53FcewACT5O7f1DTcQ5Fr4KGkWXKSh8XgBkC59C2OftE4K5%2Bozu56BkZ%2BdmjnJ7YX1dsDKA2uTRuvmLfBA6cMgLf%2BdjmqupOd1GVH%2FaxK2ZNeuDwESmBIRQhnLco5w7DyaWTIRIrJeBpsG2Yz7D%2F1RcO8SV%2BM5Bw%3D%3D&amp;nv_mid=6973541921&amp;cat_id=50000674</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2,500원</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>카드할인</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>/--/</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>베아바 분유 스낵케이스</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>최저7,740원</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>판매처 29</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>등록일 2020.03.</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>/--/</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>최저 7,740</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>https://cr2.shopping.naver.com/adcrNoti.nhn?x=azeYEYDJwkFvxO%2FbuvvgzP%2F%2F%2Fw%3D%3Ds7BUkT90ktlpi4nPZfgl2aV%2B8Abt%2BOu7EMAm773p0Gqu4s%2BAj5oUNKfLXtrYODXN3XajFqPXmcLTNYxiRqpVdp2NSxkuNjEL6NXsEebsKjwFqKIk%2FrJCoy74ABZm12jLyfRDrNn5vZIvgW7P5tSUOlW2CZrLRlN5UNyY2gqvTPQfL3k2wPLNW%2BluP11W2YLnBvi9Xr6j4yP86uNrUtI%2FQtZfmxySLMEzaDbAr0LcUMEPNOCewp2ciQfjYtmvojJAIVN2dzmxxYfds48oM78dCgTgzucDiJ5e46p4uX8ix5ep3Z2PwGRXkDHMdd2J8So1epaKW6YnmoD0aIqSfxGdfQ2oIiuaNTUoUA5LHS0UAvWtsMdSlGSVVB8X3ncuvMDFKx6p8O3aLBIeo5RoBR2ZqBOnI4dHUvsXwc9IaxVao0pQ46z%2FoeMSpdsK5TqinkgrQKLzgf27allvt8PtTkqUO4m1OxKrbniQlI%2FJ22ZEO72lKnZSdXnCOA7AfmMRzWN0Oh6fuvbtkUMd5tHh6mx2x40pc3YQF9%2BTQilh3dmHvo9NsHXYif5aGF6Ndf%2F2saBCmLNygbA7ZlksblW6j9jCoXSHNMGMSeoF0xS6tpG8JC977VGZSU1bBKhOoDZw%2B2GPJ0KyhB48b91iRuUrSuL%2BVxTf%2FyQzCRdhNTxbNxMbruh36beqNHa%2BVrqpMpLwKjNL0CNfS%2BbwuPvTItRRBtdFKwMk%2Fk%2B6vGEyGxfvHxxjp6KlKqaKq8TXhpUGJ%2Fych6HsyPovH%2B1g%2FeyhaiKhXKJsQYg%3D%3D&amp;nv_mid=22686282681&amp;cat_id=50000674</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>3,000원</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>/--/</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>맘핸드슨 분유케이스</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>최저4,560원</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>판매처 17</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>등록일 2017.07.</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>/--/</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>최저 4,600</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>https://cr2.shopping.naver.com/adcr.nhn?x=zFK%2BwjuC3GMTCUDWTwachf%2F%2F%2Fw%3D%3DsHXSxmZUlmO8u7eZFanzpkq5ntGMgOvsEddIXyyCfNM0NxVyqAqnzTJNfoxFlx9MnkVm635G0%2BRDQTnETkrOepupLYNWwlwPSpI5ZYBx7znaji%2BwHmwskUHIB4tc6xR%2BmmkENP2DS%2BLZ5Rg%2FgyD7eelPyFbOv%2FHrJi3xiP%2FOWqRByTd%2BU79BMSSuBldDBCE6SciUhWZF3ZNQuuwcbhNhV3t04NkctLxyyYSAIofRAfPqCyGh65eCBNWF32LI8F6yOw2Nu9c3dbGJq7SHpdnZ3LNYwYYSqaGDQuwTXmD%2F01WVBnNBXdhMAZvTqNtHrKrNljXolfgLVgQ1cm%2BHQDzBxamMR0KA6JON2c6Nbq9PqRa366WijyvlKg1WPqf4CDwBExDFmI3gPRbhktEaT9LszZYNOTGS4nxAqliF9uDxPjcDLWvp5xmWUy3sLH4x6a%2FxGEIvGqCsSg9Eg4X1Ad1MzCkv3FtXl%2F6B6urmtnJQHLaPeWrqjrYXIN4Y6L%2Bu687I0hCUNxDSGPSKdPuVa1rGuJ0LEvpy%2FQpp6FgX6poNYu3XUBpUkBfbOcIOhEPgbIJGjYEOqFDAgUWmnm2cvIuVm2sk%2Fk%2B6vGEyGxfvHxxjp6Km7adfDleKPcTQn5MceSW8aTDHqk9QhbkqKWmH%2Bi%2Bqwpw%3D%3D&amp;nv_mid=12199141777&amp;cat_id=50000674</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2,500원</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>카드할인</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>/--/</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>큐비앤맘 멀티5 단 분유케이스</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>최저9,050원</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>판매처 7</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>등록일 2015.05.</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>/--/</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>최저 9,030</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>https://cr2.shopping.naver.com/adcrNoti.nhn?x=Rw%2FkvXZtotkikMsuBEMOZ%2F%2F%2F%2Fw%3D%3DsAfrKUNx4%2BeyEBeKXp7OmpeXl%2B48DDMznv0ZXkCtujITP1mTlEuIeP8g%2F0HDOfN7ML4294AmBMSZPrSklEDl9ExsKbgbn1ovSoWco3ttseIqji%2BwHmwskUHIB4tc6xR%2BmvgJkU1wGbijBYuUyozT0KhZeQxkw%2B%2F1o4rY3JrsuAbCOawpm1IzOU5Iurythf4D49niK8Zcfr24og2eg385Sp9Z7cupzLHt%2FLSpr%2Fy%2FoIMrCoeCGxtrsMVwV2YxG1jFlSlacitJH%2FVNXf9Y5ZJnCqWM5ywTNbvkDUq403b3HrmOv1Qo7fM3J%2Fe%2FVhnj5JjQePvR5S3MHMC%2B5X9IQfTqkGuyyUJC39vlDVeJaulJm7gqOkOX8vq3wgaFAFyAnVfSQL3g0m9xxMXt8VV8hj4YHqK7GnarZUyw%2FY7AmDYFzP93tTEcnMsZcWnJnYPH6qzxW8WQDMwM4LT3UtJ%2BwiZ5sWMhqWKgGsMv9r7CknwLRmGnpJxxvomksCFWCIsQwwgf4oasdgV0h97dJNwyjTGPM3UTEsVydadcpFnP%2F9rsD2C6MRRLMXi4%2FluJXe75OnJpPlufl5yzQHhU%2B%2FyWjAbOqjDAamt2Qt6JiDPV5AwMAr1pKuR6s7eZMnpEXuiXMJHMZPUiRvvkD1rIA9iYG5y87L4dtQ1WDRFXZianxa08B2NxrohUXtMoOXCO9PWq%2BGV3j&amp;nv_mid=5743390656&amp;cat_id=50000674</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2,500원</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>카드할인</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>/--/</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>피셔프라이스 분유 케이스 분유통 휴대용 유아 어린이 아동 아기</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>최저4,670원</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>판매처 70</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>등록일 2020.02.</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>/--/</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>최저 4,660</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>https://cr2.shopping.naver.com/adcrNoti.nhn?x=cymYmWJSVGpoPY2pRvJl5P%2F%2F%2Fw%3D%3DsPnCz3XLFGDWi3a5LBFQXGg2nLoQZ7ic8Tfb93RVSUoGcFTKHIpxWcJFSPq4M%2B%2FZRRu56HtIE729%2BuHx3E6pp2ljnFfy6GoNTLlY9dBr5sC6TpNsdRJyu6p8NpSNnvbZwThauR7K8fQKyBlpmjDc%2Bc6UnEWBHe6L69gXxO2LLun9vqTUL3oo6L5WDjdviWXmZcNnrpT33phAOi6q5AkPIni2CkjXehANPaAdZ1Vg3J9FHbjaA%2BSPFlgfhVDCRerOVONu54LvSruU4uX5siCm3DX5uSAPJpGghrpYakeFrUR4Kq4gjdCEhabVpdrdq2YewyIql6BTRzhM0NAO%2BhOiFUdIBB%2FTIjv9ybA6VPkEbieeotIxEdokd%2BynMKolvFtSH7noC1G4nie1Dn7sAYP5foJE%2FKbfCQz%2Bnt9nccTB3CNYaKi3SlSlFDtNIsA4wpTERkpuSsbdIK5roeD8tJH5%2BOQMPb2NPnqnFkBouLRUKDjub%2BB4PFrWXn9CL00jqv%2Beq6%2F2XXICuqJSiSeskISdhPba8WP02GB3lZku6dlmDWhbuw%2B4A9RlwlDv%2Bz7WQTm6hxh5GS0TDDcCObdNivvJPQp6Js5KOMYao7H0WshsvEnUJs0bPFkkUnyZjvZTEqzpKMB0T6s0%2BxeQY5weXtvAmxMAqmuaSp4rReoc36JqUDTc%3D&amp;nv_mid=22387362434&amp;cat_id=50000674</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2,500원</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>/--/</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>마더케이 일회용 변온모유저장팩 90매</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>최저4,300원</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>판매처 96</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>등록일 2020.04.</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>/--/</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>최저 4,240</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>https://cr2.shopping.naver.com/adcrNoti.nhn?x=a%2FTPkVVibCg6MHlK2O5nE%2F%2F%2F%2Fw%3D%3DsDFSH6QS8YIWweL2mIruqV4fCNPnbw0%2FMiNV9I4ghQSwaFCQRtkxJD2cbFnJae6pa5cUfhDgtv2a54DS8%2BQnPiNXYfZMVSk8UPaTLdPvwmKLpv9dZAcPymkdS2Ambw%2FA1vgJkU1wGbijBYuUyozT0KhZeQxkw%2B%2F1o4rY3JrsuAbCOawpm1IzOU5Iurythf4D4agWR7yMDxJJWqp%2FUTo%2Bh1PsGjxfxGt1SDYV2JVwe5uEjS7Qlb1nGYHLeTIXUv6pa6NkuoyIfrAgO28AHWD7ZbWVyf4fEeIwpi1WJR%2F5%2FpRf41b1TvfQyNa7hciW%2Br3JhZZiQcNYjXmUeAMkutJpC7Y4Tic6BAC9L56XnDrS0nWdbsa7YQyUk3BcTzD6LG5YLL3g0m9xxMXt8VV8hj4YHqHPFruP2IyfQQtXK0%2BRNsveTLb6NhMSi2f3MxswBW2mZer3CxWOrtXQkPqOhGZut5u3a6EATX8rxMBNWD64eYXfj8Wxw3EafHIEZi%2FpPDE2XZaor%2FFyHaIRSm7rZIiVAiIqzcB0oB3sJ0NteC6nbDOHtzE%2FByhC3lmWo3z5Bho9%2FcXOgXOXON7%2BR15AXkgGhDYKKnuNgCHX528NzVK0WUE6v%2FFwaLIZByi2zdDFbCpqlR1dKqR2JXzDpUYbkGsDeVg%3D%3D&amp;nv_mid=21668787641&amp;cat_id=50000674</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2,500원</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>카드할인</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>/--/</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>맘핸드슨 분유케이스-퍼플</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>최저5,490원</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>판매처 3</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>등록일 2020.05.</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>/--/</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>최저 5,490</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>https://cr2.shopping.naver.com/adcrNoti.nhn?x=uwIncMJl%2FadTJH8w7mgxU%2F%2F%2F%2Fw%3D%3DsRtnyjHu%2FIpXiaGuRgllARRiQl%2BIY6ffp%2FKsiLF5WD3ro%2FE0qzgq25rURWzT%2FQoSa%2B1gFNM1OfMq%2F3xvV3DUMZenjBTHAnGjZnQkOOs80MfqyfTcOTgYsFrR9ic4Vc1aSxkbVxNTT%2Ff1MNSiXrBcjKy8U5HrmVtdmYiBBYX0cS72fvc8Q%2FOcGK88dZ2yUz2K2ZlrBwJcYrABr%2FJ9X2bGWXjM8PNMAZWZUOsdzIo%2B1aMfgOiOq1tvTJgvwdP5jF34va1N%2Bxee7tP6RFUnArfBOaNrfkeG756Le9wYOwEChkyKNyQ29mAZUk8gqPsND4WCqHd8gEw9lzl%2BRKFP4AUtntEbpbGYvomUslDXkgI4AksEAuJntiAfiGrduyIUCG5nGE1%2Bt45u0ePYz73rZ2fB3YaO3poeDjLFVur3pRH1uIiHDxa7R%2Bfga3elKWwL%2Bsp4GXqFNeQAV8So%2BntuhR5WifAvjwmQV%2BR7vozj35nIhz8%2FdAQzmlKSXmbh5sOPNhuNQm517gbV0oDgLuiPRgfVpz0Y5Lla64xRo5crcxLK8uzisZnyAfgulnx5IXGN%2Fn38N2FfAIgeqOPiylADq1cNGg0OvGZdkb%2FS4T09AfPaZZV8yJxfftp7WtU8NShH5tD0EkzaOVA8Nlit3OTsy%2BbgPCGJVH1k4aWiy8eXGgl%2FwCqr3WqYGk3haXlRKsw4Vn5Jo3mcLP%2B5miJfYwEDs1ky9WA%3D%3D&amp;nv_mid=14017061446&amp;cat_id=50000674</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2,500원</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>/--/</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>모아케어 타원형 분유케이스 5단 BPA 휴대용</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>최저14,790원</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>판매처 24</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>등록일 2020.03.</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>/--/</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>최저 14,790</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>https://cr2.shopping.naver.com/adcrNoti.nhn?x=vw1YUztSCgAtfn2%2FTuEsOP%2F%2F%2Fw%3D%3DspNo5OqxCbQUn6tWhzsqvVZl2tFWKzToob%2BD1UvHFYTwqrhEWu09UGacMy7xO3cTVBM%2BAn06G2yHRsQzRqv%2BHmyBsQ6oPCM5IV6KeT%2FqONB%2ByfTcOTgYsFrR9ic4Vc1aSNMZvkqOlr01cSCBytxWnW4WYC%2BAOezIbqwVW7ASWFUPaBz30FfsQcJUKlNfb%2B36gElXUJXTHpWzkjQ8c91eCYa2yGqiv%2BZ8tU3W1OlyKFjTFUo3oi%2F6kRsgCwB1Zln8dDbb5pEfQF0lc0lSAtxjAr1LQyUT1mGnRl17GUsatHr9L874Pu0pNtfOxzzLyRD6V%2FMJtHoLLq1JMbG7frNGJs6Z65H2UkSSUabPw7ln3OYZy%2BbqtXW6N2bN%2FaFnxXRUEaV%2BBGgvr9%2FRRx%2BlQw9QSNTPKZPcjhVNcm%2FRhdJcUpodY7kYxeJda2hnjj1OBhLSMSGvNNdrcKheb20nAFh8PASOwvsDH9pHEi54FhErsN%2FOKEr7ZxLTMmZN7mESNeBcgHDkeE2dJaQ0qOHnvS5sXLgiqQTAR96JlWfj6TfbLi3O%2F8%2BOLRev4ilav0XTMCQOaVRzP2mbxWGsIFgx8fnRejuTa%2FQRtKm1qs4%2BmiQk8iZmb9o2%2FY2qc%2Bmt3cJLCrD1HGOySUxLo7e05cxBj18hmjzLfQIpZzh%2Fxy1lUGzt0E0Na%2Fa6OOnJPaU83If8YkbpiO8MMh5a9hjPuDqEpedhBc8k%2Fk%2B6vGEyGxfvHxxjp6KnyhqWWdLGWO1Yivgygm6oNPovH%2B1g%2FeyhaiKhXKJsQYg%3D%3D&amp;nv_mid=20939321752&amp;cat_id=50000674</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2,500원</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>카드할인</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>/--/</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>아이누누 3단 분유케이스</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>최저8,830원</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>판매처 24</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>등록일 2020.04.</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>/--/</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>최저 8,670</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>https://cr2.shopping.naver.com/adcrNoti.nhn?x=Y37gQdS09iwdxrvvPce%2FHf%2F%2F%2Fw%3D%3Dsj0luaEC9vbQ8e%2FfsnJW%2FEifg3g1qlj0yOcZkoT9ABgTHGnrhwZcup0QRESI8B3N55DlWcv2uvtR2SLdJ82utnRhTFRBQ8k%2FWa5h9fM7TQR1OzmpgmpsluU7npL4muEFFYIIyezQp5OwvHtIz99h35wKiFtn3UNplN3pKHZ134TR1O5%2B6iU7ZXv9xr0B0cKcNRkvcUhxNJdzLxb%2F3uEogT3xAwytxZCtBbfYqK%2BlnvI11Vb1XzKmjD6Idarsaoct0rEaUcX0jgTeKstHoo8iewGJi9mAD9mbQI8jsg%2FCkFMsm0yKR04AwH%2FKOuqGadE9splMFc7F8xUlbinl1W3l%2BWpWmrSYwDcb5aTer%2FsYKOgRbNLZGm2nVCBn3T5z9iIZ2s6xC8EFindQ2LxYAYXMiIFGc0oVh%2FPpEa5hCX33qzASFLkibu97thaKWW4qGFtMlh9WrjaiWPqTZ%2FDmCsH%2B0iYLDU4sJoAGJ6OiNlMKsW0rZ1RUSVQFV39pnorZMxyEbNm445slZY8PRbDJqHB2DZBdsnpZshnQ92xLct%2FYEEankz33GehJpMZ6jR3woA2%2B1nGVp26OSoKglFrPcciuF2eQWoj8bmOHXOa5UpPxKwK6GszQj0DmMJqnRT0zerZuwrKawbut8XQKKsHC6xeG%2Bc6YH%2BY9HcsL6z69HtHX3eno%3D&amp;nv_mid=21795293929&amp;cat_id=50000674</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>3,000원</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>/--/</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>케이스 이유식 분유통 분리형 밀폐용기 1개 GW2DCE94</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>최저16,090원</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>판매처 2</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>등록일 2020.05.</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>/--/</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>최저 16,090</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>https://cr2.shopping.naver.com/adcrNoti.nhn?x=%2FWzR8blxq0r%2BfCwf2xP1df%2F%2F%2Fw%3D%3DsAQngg%2Fjy3fPbwG4cBFAdZQV9lQLvwYZREw%2B9bn%2Fo2B4w8e7lGZ%2FMQC4NlYsfjoaFpxwnUt0kftvDJiokR7ZIVAj%2Fq64iM21Cac59z9oa3fuSHux%2BKuigckMDfSaJV2TJSJZ82yIA03OpClBrWgr0KtnExky3J3X28%2Bq3lCMFHQaCUrkL%2FfKHmqJ4SvuR7yDEvX093KFtoGAvfJMi7FhNmKydm65u%2BSaxdx6I9zSHgcsQcN%2BaP4amdJDypxJT8xaq%2B344Wpw4HCAklrq%2Bp5P8JVqk64hQ2wRXhNTM%2FC8uPbmwdEW5%2B66wMN%2BtiMz0%2BRrB%2BP2ReypvarmQjICp41SCREoKQiWvxZ4wUNkNSkJ1IGSGJRQHX9ThbHrbD0wiAZwLlr2MJibGuG71Ivr98%2FRFYS3cDQosRlq2vuVtmOyZFRGEYtz8L3dK%2F9W3bPBupSCDNu60s5%2BTVql7RoPAyDrdEnHfzdKSmjavb9ZmtixLQU7cv2HAPYBJbgL6XHiiUcsDdG02GD8Euj07zHvU3nWKlEKMXSUOlw2tYDa7yqSvBZrYDO7LFF1JkJy0FJvdLO%2FXQ74hr4M7megtM3747DcqnBRFOK2O0bvMqE9aBwlKiT%2FAqYhUMqtm1wuyNrHsfWwYXjP6DoiSMeBheSNGSBAx%2FQK%2FHRb8hLdG5QdMG9DyqpgDJFfAdp6gBsBWf6UPEspcZw7JjIrRk7XFNKlefqSe2Heenj%2Fy1%2FvGs2aadsVwYU8dTtbQL1nLXGEdvRh5ccjnfk2tUvjCddCG7BPxQZcfC9Dw9K3N%2BCu1zgk6WK7JPodU3Q0gbgvgMfHUtykt0GrO&amp;nv_mid=22769893444&amp;cat_id=50000674</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2,500원</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>/--/</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>분유매마더케이저장팩 VF6 P8C 일회용젖병 비닐팩 E1ED96E</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>최저15,840원</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>판매처 2</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>등록일 2020.05.</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>/--/</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>최저 15,840</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>https://cr2.shopping.naver.com/adcrNoti.nhn?x=eoK%2B0hrxJPCYJyDreQPRTP%2F%2F%2Fw%3D%3Dst9PEOGsRy%2BrlakDztK9UZ6Joh5KGQO1F43%2BHkVYS30cYEsc3melL1zpOYuRWrBimTvv%2F%2F00nkwmdErhZIdkf6DkRAs3h%2FBzQ4oINQkwwMqt%2BfTqBi%2FB53%2Bv5rMRytR9CyaU0vrmIuy%2BSxuL26ZSNJP2hSEFcQ24IZKMB06IppTnHjEcyRyjNJuiA6Q8%2FipTS9SnyMNF01b4xRwvTd1FOEQWoSIoXeMyrlhBD7TM1%2FhQCeK1qOfk8FEkiyYem6VjHjhRvKbPPdyaDhvU1v7qQQB9yddxECSd6F4SSGdPH1W9KVpyK0kf9U1d%2F1jlkmcKpYznLBM1u%2BQNSrjTdvceuY6%2FVCjt8zcn979WGePkmNB4%2B9HlLcwcwL7lf0hB9OqQa7GTOHGM7r6YL2z8QaahNiaSXk29Yl1WXsiP10EXbiYcveDSb3HExe3xVXyGPhgeokz5xjtZh%2FjL9SQhOmiYBfi2Yfvu%2BKofPWDCpIgL2iCc70ZevzJw5kwGZjAhcfs3xGPOzgPSY6xJ3Rf4Jk5puMaHsM%2BobHgmO68%2FmgKcKE5axPHldbHktUXQJEYGfEzr%2FayUFc6tiMSBGaeT8kbPH7p%2FroAvNaVsCk%2FxECDmJmJxYhmFbAslcMeBx58sZ0ftAWUbjW0e8sslC36uJ4nqUmQ7Cdq5MG9LenlxnwMTpRWTqCcWiyW0hSU4xtUfQ8eKJHU7W0C9Zy1xhHb0YeXHI535NrVL4wnXQhuwT8UGXHwsmfMnuTV0Hn3ItSHQ53h0QVN0NIG4L4DHx1LcpLdBqzg%3D%3D&amp;nv_mid=21318214458&amp;cat_id=50000674</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2,500원</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>/--/</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>더블하트 모유 분유보관팩 X 30매</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>최저10,710원</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>판매처 22</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>등록일 2020.04.</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>/--/</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>최저 10,710</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>https://cr2.shopping.naver.com/adcrNoti.nhn?x=%2BWWxv6tGNdi%2FHZR7ZQD9GP%2F%2F%2Fw%3D%3Dst12tg%2BQ5mFgHpA3lomRlDcbIt13JaDUZReiJTgg1hxl3Cd5F2DENiDJPsj1BAcaoFirWtzajp0BuslUDCT7LZHrT1bM%2BDcMzd2bNYgU0%2F6D%2BCvo5PfgOUc0ZsBMY2vG%2FR3fkCA89x1VOdiQiRiM8KvcCGfOwFJf3ZYdQmprUpS4ieecab%2FgMl82eJIbmgnsF6KbJUJYskt63UedPltf0AFBSy7byHQNu%2BcyfSlvGhfw80fTFuXz0Fas6usfg3TtmMWMCmAhdsEoXmF87bWtZPdCsIWK3wFRJjG%2FzIRAjM0Z%2BCrZhe0tpaCpo%2FIBTdyX3eXcwM2m%2Biuk0R6cX8Loss9J6ZFrBv6gdu7qklnlZHRkjjp3klZMVuGPC8sv6vHqIPHH%2BVg8p%2Bos1sKmdZa%2BPY9VQIinQG0kSTfLupDZGTX%2BbrwaAbaM0d3o%2FMSpmSo1QOCEEEgcnZgf003k1NZXyIyPqoj%2BGPusGKGLtIJXAgEfI3HV8pGIMlbq6dK33Wg3eAVPpvJQPiw9EypUsFN0rTf%2FmafITkBwxA%2FAvtP8%2BqGqorxkezj5XwY8xtU09ONFQNp9JxzZPSsZz1r%2BWlHEPPpFEnN8DVzd1P%2BQ4XvORVnqbHPUw%2BlwtUdXXOYQGwFkxyT%2BT7q8YTIbF%2B8fHGOnoqb1d%2Bk2h%2BfY5vxYE13tYVvc%2Bi8f7WD97KFqIqFcomxBi&amp;nv_mid=22422405969&amp;cat_id=50000674</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>3,000원</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>/--/</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>그린슨 30Pc 휴대용 유아용 조제 분유 저장팩 일회용 분유팩</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>최저21,270원</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>판매처 2</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>등록일 2020.05.</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>/--/</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>최저 21,270</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>https://cr2.shopping.naver.com/adcrNoti.nhn?x=yJFyJv9QRGcgPXq4JIwTyP%2F%2F%2Fw%3D%3DsxVcDRSnwUnLkPiP6eionsFL6d1xHPQetHeOanCXRTFP3z5%2FaU0QMyUetRodUnzT53v0L2IClDs88mJF8PaJ%2FZqcgDgcIulOAdcUbEVad9aU214D0KLbHzKYR4d%2F5TMUjKBw%2F0S9jMLvUwNmFyDHdThZpFef1PdhIp%2BFx1GmzLk9XtwqMTgnPYui9Bqwhz9JofwJqo7R%2Fjg0ndc%2BveAoYQbd1V166fVH6q0Ysfl6CAgo2YvCXUiFY23o6D69u%2FdNgybJRJdsuVUC0CbRtRN%2F7Wz%2BGYrSmxHsQF85epKCTIX5HbjaA%2BSPFlgfhVDCRerOVONu54LvSruU4uX5siCm3DX5uSAPJpGghrpYakeFrUR4Kq4gjdCEhabVpdrdq2YewCi%2Bg9iaa%2BvV4qoyhW%2BKcPPTwxLOc7%2BEQvp93NhrttKyh0r0jd%2BNAq14Oz5gu5QEbOFOBIYRRwzksigBVHzzWUt87Br18IKOAF4448uExMvylb5EdyNhUSjPE0WEFh%2B1cjw9MlUZXP8Y5XljVmLvVK%2BcFYHVvakdCJ3Mz8dKL4%2BN6vcLFY6u1dCQ%2Bo6EZm63m6DCM0RMDWjJEbFnEA5VGmrwQOYiNyOjC8uDK3BpiecRmzqaw0XIb%2FA2syllTDbaViK1CPgKORp4mr%2Byuc%2BRzuBT4wEOuG1RmVbstCrtgsBNL%2FeEXyfDlWebFM8yknXyC4c%2FYjCcCoTCdu%2FSM0ANaii%2F52kHeqZdztrECbHmW1KVlBKUodwVq%2B8zELQnWyTkdo6J8C3m8%2Fv46o15oKvuvBA%3D%3D&amp;nv_mid=22713414785&amp;cat_id=50000674</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>무료배송</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>/--/</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>피터래빗 유아용품 5단 분유케이스</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>최저17,490원</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>판매처 18</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>등록일 2020.04.</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>/--/</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>최저 17,440</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>https://cr2.shopping.naver.com/adcrNoti.nhn?x=0jHH3tf2kAtMO4ydb86S%2Fv%2F%2F%2Fw%3D%3Dsmlwgnccm6O9EsyrXC3nE8sUnFL1u%2BFLzOFeCmXO%2BsPgcA9Fnu47RKsrs%2Bwu3TMNZoWkldCtRVHZDWUVB36EZ%2BWM28s10sH1mW2PpqWLzZN7PDU3igosAEtr9f%2FvldeO%2BiXDsSmaU%2FPaN4%2FAstzr0B%2F%2Fc35yo1joG%2FVPnlBfFPpL%2BeaoHBB3sV%2FPOFa60iAN9skp%2B1wVec4PyxZ1VCfs2J%2F3XGPJ59URp8vyGf0pjWuimca%2BlrLDWoVGIv9NDhq6fKfyaD1RKvaE17nyl8Tje2UduNoD5I8WWB%2BFUMJF6s5U427ngu9Ku5Ti5fmyIKbcNfm5IA8mkaCGulhqR4WtRHgqriCN0ISFptWl2t2rZh7BFo56WnRgqMaAKbbsznq0ADncJp7NWodjX75dMLm9b%2B9Z9wcOW70A%2BuemE7OCE3CEZVEjh3wJF9sJGgOG%2FzuyFjuobUSZ0kQxYpiwKapkLOhLG5hvp6jbMD6ufzC4Z5Ufzn90Ozhirp8enPhsW3IBb%2Fww%2F9z0kVjpciIHQpbumQuymxeLsI9MtDQ4R46gUUTv3bNobNbuOodU2%2Fba3BAZyhzYUygvE0SZ1HZiSiv1yL%2FzqGO%2FBSNQIg90AZAvDFAO%2BaxREkP91VXMFTWobyqU3KqW%2F41h44jEwcrUMSSxMRGS77ehHJ7dkeuzPfJt8X9rUdU4Hj6h4g4e4oiZp5jphuVI%2Fzy8wNZGHLPb0UGOwtpICut16ZJQtC%2BC%2FobmzvUc%3D&amp;nv_mid=22754876965&amp;cat_id=50000674</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2,500원</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>/--/</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>마더케이 일회용 분유저장팩 60매</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>최저8,420원</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>판매처 30</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>등록일 2017.12.</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>/--/</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>최저 8,420</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>https://cr2.shopping.naver.com/adcrNoti.nhn?x=o34r6XA8KSdDVJllRbczH%2F%2F%2F%2Fw%3D%3DscEyYC1AMnLMqSJdPsPwTi5QalfWG24m0NBVvzzTQZGe1zjstki6ECr8T%2BJ5X8pWMjep7uX0zcCzCEc4NUTOCmQG6KhPDXydo6poCMSiFiX7lFos825uN2quvZISCcI5D07D6MN1QashG%2Bwql%2FD2JZxmBVJJ5UpIn%2BvqQzwISWPeUPStxhuNQEoUMyJruPRslwXrYjTVHgcEb53ubWzYKadapghgJwe%2F3x3O6YiaVTWw6xzqDATJm2b1lMysQqzBk0B7xTzFKRKfVaBWOtYU9j%2BjZLqMiH6wIDtvAB1g%2B2W1lcn%2BHxHiMKYtViUf%2Bf6UX%2BNW9U730MjWu4XIlvq9yYWWYkHDWI15lHgDJLrSaQu3K0px3HTHCtwiNe2wiB5n4fGe6Q5xjCLvKts%2FUPlh07COOneSVkxW4Y8Lyy%2Fq8eojcDHAJ7QTNqNSRYDiiVXZvN%2BMUzy449Vx8Jks%2FrWf2RLQPQlozh77wMIJfDiHQ72UEskOzwqUlGBF64ooBgybJyDNSRLP8oUwlxKnGBzdKKnq9wsVjq7V0JD6joRmbreY9UXIyC09dP0y3Cv4iaOZK53qARk4s2nA1D8JAUv5%2FZKxH8THP3hw73Rp7PMCKikr%2FPfHJ7AgF0tMHeyuut0jYvmsURJD%2FdVVzBU1qG8qlNyqlv%2BNYeOIxMHK1DEksTERku%2B3oRye3ZHrsz3ybfF%2Fa1HVOB4%2BoeIOHuKImaeY6YblSP88vMDWRhyz29FBjsLaSArrdemSULQvgv6G5s71H&amp;nv_mid=21920647118&amp;cat_id=50000674</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2,500원</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>/--/</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>베베캐슬 트레비 분유케이스 별도 마개 구성으로 더욱 편하게</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>최저8,530원</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>판매처 3</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>등록일 2020.03.</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>/--/</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>최저 8,530</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>https://cr2.shopping.naver.com/adcrNoti.nhn?x=lFWxlu3Y0zWDXaj%2FGrVRrf%2F%2F%2Fw%3D%3Dsa%2BleNfdMPeMA7QM0%2FaMa1YJE1mc9QiEFfbjTJ7cU4gV1jig6jYQpPbUYZjLdl5iFECYOz6yqpFEFvt5AyWm3vfjbTdeQ8ELTFg4%2Fyww3AWgLVRGixLvbmKJwbePoYlH2KWIuiETjyJUIGYL%2BHVbUGi%2FCsrfHi7xdmmKZX98fgwbRwBjxU64MrcPhCX%2F3bENIkhMO79Y%2F3UYIwnfknKoyxaO1P0a%2F5GJLIe5qi3QDkZJBWnNeQqhYIbwGiQCscZuvfEDDK3FkK0Ft9ior6We8jXVVvVfMqaMPoh1quxqhy3SsRpRxfSOBN4qy0eijyJ7AJuJR%2BYpfOWLPiACnEuBPlGnMqYx%2FOxAnsS2yIxQQlSFy%2BbqtXW6N2bN%2FaFnxXRUEoYbiwuKzZfVm7zDQR5n8b72%2BqZUAe%2BQU0IuLaEgyBF5Y7kYxeJda2hnjj1OBhLSM%2B4FtyVtiY51x%2F6ToXhdKg%2BE1HFN%2BWgU8IUrMS4beYMsjxrH%2Bt4Hy4mAhK%2BA9WAbv%2FCcV9yEukjkeRE%2BXaHv94Yxh34ljLVP6R6CcR3gCXNLG3CiL8uYpb6SubWmkz5u43AOa2%2BZf3a2a7HHTtAIkjUONk7nukF7jnaCWx9tNaVUrYDevQBFWWzRBwOm33mySStz6jsL6hOwPGloP%2FQnibmONCcCsBihHjcf6vLjbOyBiVR9ZOGlosvHlxoJf8Aqq76na3DAiR7uCarlIkjPD%2FXgh%2Fzpf3Rrc%2Bw7tb01TIt4%3D&amp;nv_mid=15276987423&amp;cat_id=50000674</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2,500원</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>카드할인</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>/--/</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>피터래빗 유아동 5단 분유케이스 zh499 인...</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>최저16,640원</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>판매처 37</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>등록일 2020.04.</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>/--/</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>최저 16,640</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>https://cr2.shopping.naver.com/adcrNoti.nhn?x=NWm4GZ0AmaykaGOFGDE0Cf%2F%2F%2Fw%3D%3DsGEZNbatqr7LzjUi5%2FvjQIyO7wcfSQxk3mCoWqLVqcg0pQSZB6G6AO50VQ%2FGng48Y%2BKUsFK6K9PuY9FAGT6NQNTyU21QWHkG0D%2FOM0V05vFdM0bgNiHe0kG0BEKg4TrrFcxLkEwBH6DrUyqMAoTr484gBPycnxnq2ZdRKcdPN3zsjpoZrkQpZsJVp9dHx06gP0KFHy865aJJ6LNHKbauIdzAxNNmsatR4pz5fWBcyiIT8fRKwtLrgEMeM%2B9sakTg7slO02ldZQOX7%2BoyNi%2FUAEbtN7WT3YMDZAkC6DkXxJpgb8swcQlcgrZRqsCZJ99GTMjGRWdoNFIB13sfI11HPNfw9QEL%2BysOmrviOZWMUT3slFdP12iZgK6LUa9zwKaBEO2yZQfg%2BRoSt%2FLWEcWknhuW6fDjPdZEiE3fo7sdhB79Eg6sUA09KNVz7RBdXUU0KeszRYBckXy8LD2uH6IOsMcHyTF%2FpjHCyH6cnAvCnvLtQigk6gy1EXfNLieYT0T%2FgtxNUJBl4IT%2B2BdpmCnzqL8CXTkZ6Qrq%2F5WD5lgVZf3eH2Q3F7Vx%2BumiszBnmlVNRrR7Y5EUqT06tgZrnoVcGRnW0KS0sSQSFLL2hTrMwiIh%2FXej7YEHL5OFnLXkGwiM%2Fp4u2yuhhcW0x2gzrHpupteHFglVetM9VbTK1RvXautozogXIFGAMl3iZUK0zJESDf10LjjV647wEXc81NFbYCg%3D%3D&amp;nv_mid=22613080834&amp;cat_id=50000674</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2,500원</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>/--/</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>압소바 유아 앙팡스 블럭분유케이스 ERF-34864</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>최저8,370원</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>판매처 8</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>등록일 2020.04.</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>/--/</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>최저 8,370</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>https://cr2.shopping.naver.com/adcrNoti.nhn?x=EQ01FepWmz24Dtagq3PsEf%2F%2F%2Fw%3D%3Ds8Bpeiy9%2FzLt2QadL8ygBjYMN2J33wHRv3pqVenawxGWwbri7a%2FP9tXIRm4d58t1K%2BKUsFK6K9PuY9FAGT6NQNbpPulqTpppRSrbD%2FSUP0mxM0bgNiHe0kG0BEKg4TrrFbe4vrwCjBfIHBdFu%2BUgYqBJ%2Byqh2Ud4iODYB5H8L77n8omU9kdMRny8%2BbUnaMzBsPvD0TzGI0p9%2FL4muhkFk6mWvD8jvBLlV0la4eA7TK626qIlR1lBj0Hsf6lOUMT1NNCXxBGhvqBqTzNMCk9nqV9gXmaGcXKPA0liOrIlbZ53MEXeMptd1Htam8mk%2BHYICSlacitJH%2FVNXf9Y5ZJnCqWM5ywTNbvkDUq403b3HrmOv1Qo7fM3J%2Fe%2FVhnj5JjQePvR5S3MHMC%2B5X9IQfTqkGgo6y9tmtt4aeqhJRLg8xSimELeiX3wC0pDNmEpRxu3CO2yZQfg%2BRoSt%2FLWEcWknhnpod6%2FwW43z9Zx5HWdlQ7D6%2FFaNYtK2II5SI0Te%2F15nUKsuRUvX2O9McizLPKY1bKdgdY8dhAwMdjfzXIL2Ymz62UzrUJ0bZz9SHIE8NEMXAOri63PL8MydqWgNn1zJqLlmE4946bLkquOUGy9IGLcCTOMFN1C8MQwSu3bAXRsTs%2BeAFD5jYsGp1Alh300CKc6tO%2F5S6B7LovBRmcU%2BM22XOY6CPLpJuCqm3Ay6DPqVxaI9W3so9Gajw2srWyJnjnEDcjzgRPQkWMIcfVvTJeyeibOSjjGGqOx9FrIbLxJ1CbNGzxZJFJ8mY72UxKs6SixsyG%2FxO5mcVtnVxKhDxJvAKprmkqeK0XqHN%2BialA03&amp;nv_mid=22643879959&amp;cat_id=50000674</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2,500원</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>/--/</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>청춘이다 위니치 아동용품 사이언스 분유케이스 4단</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>최저13,800원</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>판매처 30</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>등록일 2020.04.</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>/--/</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>최저 13,800</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>https://cr2.shopping.naver.com/adcrNoti.nhn?x=NwFP8t%2F%2FsuIEI3zW3%2B5QMP%2F%2F%2Fw%3D%3Ds6h0rjwO%2FxnrHmsOa01fnYx8QBbSJz%2BAelZ%2F0wn33l2L22Dr3DS3ooO7yj%2FTASyOaF5t7f91xk3bD9SV1MItyHCNvRmjFOPVKqD3qUexb9ybDTN10bVnZ06T%2B5Yp59BJSFQcDEg1nPoxx2goLEFsAhtltniMUbTp5GL4LVVnnsfCg9Ex2rpOf%2B3aHKCpyfSDslqXHvcg5MsC%2BrNlRF3P0VaA%2FUcKuCyNcV6Yij7gZtimS5lNu9LBIeG88BdGUV%2BXO%2BBY0CyrYKXWsTguv3ieSqLDxTZHIWMFormuGr0zLFh8ImBMMHL7yBFJmgZHjsTzruV%2FSmFrvXINdHZ2UsOAGNXWCbG242b7ByQnQq%2FwX1pvKMszXElwMwuWnSVWAsaQ6XH4Sny6eZODZO0L18J4VeOWG3avGB0OwHeHyZbUvsmt5tGwzG4jKOvXXa%2BxJl0ohkcob4lHkwyTtAMZI5UG7BywDkadBNjJXrqNu2zzwSRIxAyXerMo%2F0TBcXFsomQ5JivCsiO4ZLikE%2FYrN0xupgxU%2BW39%2FTsRfmexRP25WNdkRU%2Fe8LffIKmK9ukjFw00yw5LO89hXn9%2FxYevhISYXEq3oOa001FV6LfBf0t%2Fvx3LMcCSJxAmGrd51CiF6yHqQ7I8jmCysQQYpIvLG47eL2GVX8bZIbotMVPNZNTtU2WKYVvHnSVgQuk6KOPXRXaSglLr39pKHKqvG1S7iWoLfKQ%3D%3D&amp;nv_mid=22684613700&amp;cat_id=50000674</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2,800원</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>/--/</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>위니치 유아동 사이언스 분유케이스 4단</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>최저10,880원</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>판매처 29</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>등록일 2020.04.</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>/--/</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>최저 10,880</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>https://cr2.shopping.naver.com/adcrNoti.nhn?x=LCZ7c2UZlS528XI1xcZgaP%2F%2F%2Fw%3D%3DsK09%2B3r%2BjHOJs9Ll8jWktapCabBRyh2wy7AibezH2o%2BZ%2F4FAC0mZKdGX6ETiimjXq3GKIulusNYkG3lsoyYi2G1%2FN9VgH6mWSkNcrOxYWbpWD9paVqHDpfvI%2F62hUZsK2CysHbyYGfotTd%2FrFGyq7PGoSsbGUrLgN7W2FCqWqjj2bs36BlFpsc9O0LeIIDEQK3oSXsuBBElmwju%2BqS8g08h0ZsMqEc5MMQ9ZErMRzQMQnfTtep6lh3ajOm%2Bf%2FGW0HgXcff1J%2BAonPAfNShOSqwYYlFAdf1OFsetsPTCIBnAuWvYwmJsa4bvUi%2Bv3z9EVhLdwNCixGWra%2B5W2Y7JkVEV9%2Fi5x%2Fg8ijhe4wBQGaFWRcT5FFj%2FTiEHKbZ6scMxutcd%2FN0pKaNq9v1ma2LEtBTp2RKzOC5656k8bWa6h42LZ9CH22V1RpvYVCMLQqrAnfMQU9FigdsW2Cp3%2FHy0Sa2%2BVX%2F4dFTano3m6xnTvy0tfokaD9KSjpVrERVrMSJCBv05n7Extj7royvxEJqMHBIkf9iK%2FAsjqiZ3sy2hV3QeKZ0Qs4PIqo2ssq7UHk%2FYAQEToRaA26IxDcXdFFxsCCmxSFzLQPGXr4tHx8qMMeAZ7hxYJVXrTPVW0ytUb12rraA9xOlAU0l4%2BtrhoG3377mBNdBoCGP31DaxrM2zS0GcmbVktbD4XnHxYf4ABq9Bam&amp;nv_mid=14751460059&amp;cat_id=50000674</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2,500원</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>카드할인</t>
-        </is>
-      </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>/--/</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr"/>
+          <t>-</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
